--- a/CP_Platform_Solution_Java_v1.4.xlsx
+++ b/CP_Platform_Solution_Java_v1.4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A336F9-734B-451E-B024-990789698098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EE649-6909-4501-A77A-7CED2B69B473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="5" activeTab="5" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
@@ -5419,69 +5419,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5499,6 +5436,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6632,6 +6632,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C20:C38"/>
+    <mergeCell ref="D20:D38"/>
+    <mergeCell ref="C5:C19"/>
+    <mergeCell ref="D5:D19"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A38"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="D54:D67"/>
     <mergeCell ref="A55:A58"/>
@@ -6641,16 +6651,6 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A38"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C20:C38"/>
-    <mergeCell ref="D20:D38"/>
-    <mergeCell ref="C5:C19"/>
-    <mergeCell ref="D5:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8127,25 +8127,31 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C23:C38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C39:C56"/>
-    <mergeCell ref="D39:D56"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C150:C163"/>
+    <mergeCell ref="D150:D163"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C131:C149"/>
+    <mergeCell ref="D131:D149"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C112:C130"/>
+    <mergeCell ref="D112:D130"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="C99:C111"/>
     <mergeCell ref="D99:D111"/>
     <mergeCell ref="A100:A103"/>
@@ -8162,31 +8168,25 @@
     <mergeCell ref="C82:C98"/>
     <mergeCell ref="D82:D98"/>
     <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C150:C163"/>
-    <mergeCell ref="D150:D163"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C131:C149"/>
-    <mergeCell ref="D131:D149"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C112:C130"/>
-    <mergeCell ref="D112:D130"/>
+    <mergeCell ref="C39:C56"/>
+    <mergeCell ref="D39:D56"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C23:C38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10900,11 +10900,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="D45:D57"/>
     <mergeCell ref="E45:E57"/>
     <mergeCell ref="C45:C57"/>
@@ -10913,11 +10913,11 @@
     <mergeCell ref="E5:E25"/>
     <mergeCell ref="D26:D44"/>
     <mergeCell ref="E26:E44"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10932,8 +10932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F55229-B443-49D0-8BFD-4739B86F2805}">
   <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C17"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -10987,7 +10987,7 @@
       <c r="B5" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="91" t="s">
         <v>784</v>
       </c>
       <c r="D5" s="88">
@@ -10995,105 +10995,105 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="114">
+      <c r="A6" s="93">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="115"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="115"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="C8" s="113"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="115"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C9" s="113"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="115"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C10" s="113"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="114">
+      <c r="A11" s="93">
         <v>1.2</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="115"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="C12" s="113"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C13" s="113"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="114">
+      <c r="A14" s="93">
         <v>1.4</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="115"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="115"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="116"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -11106,111 +11106,111 @@
       <c r="C18" s="76" t="s">
         <v>798</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="96">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="114">
+      <c r="A19" s="93">
         <v>2.1</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>799</v>
       </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="117"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="115"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="48" t="s">
         <v>800</v>
       </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="117"/>
+      <c r="D20" s="96"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="115"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="48" t="s">
         <v>801</v>
       </c>
       <c r="C21" s="77"/>
-      <c r="D21" s="117"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="116"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="48" t="s">
         <v>802</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="117"/>
+      <c r="D22" s="96"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="114">
+      <c r="A23" s="93">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="117"/>
+      <c r="D23" s="96"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="115"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="48" t="s">
         <v>804</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="117"/>
+      <c r="D24" s="96"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="115"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="48" t="s">
         <v>805</v>
       </c>
       <c r="C25" s="77"/>
-      <c r="D25" s="117"/>
+      <c r="D25" s="96"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="116"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="48" t="s">
         <v>806</v>
       </c>
       <c r="C26" s="77"/>
-      <c r="D26" s="117"/>
+      <c r="D26" s="96"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="114">
+      <c r="A27" s="93">
         <v>2.6</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>807</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="117"/>
+      <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="115"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="48" t="s">
         <v>808</v>
       </c>
       <c r="C28" s="77"/>
-      <c r="D28" s="117"/>
+      <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="115"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="48" t="s">
         <v>809</v>
       </c>
       <c r="C29" s="77"/>
-      <c r="D29" s="117"/>
+      <c r="D29" s="96"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="116"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="48" t="s">
         <v>810</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="117"/>
+      <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
@@ -11219,7 +11219,7 @@
       <c r="B31" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="97" t="s">
         <v>733</v>
       </c>
       <c r="D31" s="82">
@@ -11233,7 +11233,7 @@
       <c r="B32" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="106"/>
+      <c r="C32" s="98"/>
       <c r="D32" s="83"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -11241,7 +11241,7 @@
       <c r="B33" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C33" s="106"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="83"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -11249,7 +11249,7 @@
       <c r="B34" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="106"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="83"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -11259,7 +11259,7 @@
       <c r="B35" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="106"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="83"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -11267,7 +11267,7 @@
       <c r="B36" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="C36" s="106"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="83"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -11275,7 +11275,7 @@
       <c r="B37" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C37" s="106"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="83"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -11283,7 +11283,7 @@
       <c r="B38" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="C38" s="106"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="83"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -11293,7 +11293,7 @@
       <c r="B39" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="107"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="90"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -11303,7 +11303,7 @@
       <c r="B40" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="100" t="s">
         <v>742</v>
       </c>
       <c r="D40" s="82">
@@ -11311,61 +11311,61 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="93">
+      <c r="A41" s="101">
         <v>4.2</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C41" s="106"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="83"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="94"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="98"/>
       <c r="D42" s="83"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="94"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="C43" s="106"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="83"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="94"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="106"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="83"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="94"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C45" s="106"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="83"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="94"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="C46" s="106"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="83"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="109"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="C47" s="106"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="83"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -11375,7 +11375,7 @@
       <c r="B48" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="106"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="83"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -11385,7 +11385,7 @@
       <c r="B49" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="C49" s="107"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="83"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -11395,27 +11395,27 @@
       <c r="B50" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="C50" s="108" t="s">
+      <c r="C50" s="100" t="s">
         <v>753</v>
       </c>
       <c r="D50" s="83"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="110">
+      <c r="A51" s="104">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C51" s="106"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="83"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="111"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="C52" s="107"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="90"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -11425,7 +11425,7 @@
       <c r="B53" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="97" t="s">
         <v>757</v>
       </c>
       <c r="D53" s="82">
@@ -11439,7 +11439,7 @@
       <c r="B54" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="C54" s="106"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="83"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -11447,7 +11447,7 @@
       <c r="B55" s="48" t="s">
         <v>759</v>
       </c>
-      <c r="C55" s="106"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="83"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -11455,7 +11455,7 @@
       <c r="B56" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="C56" s="106"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="83"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -11463,7 +11463,7 @@
       <c r="B57" s="48" t="s">
         <v>761</v>
       </c>
-      <c r="C57" s="106"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="83"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -11471,7 +11471,7 @@
       <c r="B58" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="C58" s="106"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="83"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -11479,7 +11479,7 @@
       <c r="B59" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="C59" s="106"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="83"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -11489,7 +11489,7 @@
       <c r="B60" s="47" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="106"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="83"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -11497,7 +11497,7 @@
       <c r="B61" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="C61" s="106"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="83"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -11505,7 +11505,7 @@
       <c r="B62" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="C62" s="106"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="83"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -11513,7 +11513,7 @@
       <c r="B63" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="C63" s="106"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="83"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -11523,7 +11523,7 @@
       <c r="B64" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="106"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="83"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -11533,7 +11533,7 @@
       <c r="B65" s="47" t="s">
         <v>768</v>
       </c>
-      <c r="C65" s="106"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="83"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -11541,7 +11541,7 @@
       <c r="B66" s="47" t="s">
         <v>769</v>
       </c>
-      <c r="C66" s="106"/>
+      <c r="C66" s="98"/>
       <c r="D66" s="83"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -11549,7 +11549,7 @@
       <c r="B67" s="47" t="s">
         <v>770</v>
       </c>
-      <c r="C67" s="107"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="90"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -11562,7 +11562,7 @@
       <c r="C68" s="76" t="s">
         <v>772</v>
       </c>
-      <c r="D68" s="99">
+      <c r="D68" s="106">
         <v>1.5</v>
       </c>
     </row>
@@ -11574,7 +11574,7 @@
         <v>773</v>
       </c>
       <c r="C69" s="76"/>
-      <c r="D69" s="99"/>
+      <c r="D69" s="106"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="75"/>
@@ -11582,7 +11582,7 @@
         <v>774</v>
       </c>
       <c r="C70" s="76"/>
-      <c r="D70" s="99"/>
+      <c r="D70" s="106"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="75"/>
@@ -11590,7 +11590,7 @@
         <v>775</v>
       </c>
       <c r="C71" s="76"/>
-      <c r="D71" s="99"/>
+      <c r="D71" s="106"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="75">
@@ -11600,7 +11600,7 @@
         <v>776</v>
       </c>
       <c r="C72" s="76"/>
-      <c r="D72" s="99"/>
+      <c r="D72" s="106"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="75"/>
@@ -11608,7 +11608,7 @@
         <v>777</v>
       </c>
       <c r="C73" s="76"/>
-      <c r="D73" s="99"/>
+      <c r="D73" s="106"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="75"/>
@@ -11616,7 +11616,7 @@
         <v>778</v>
       </c>
       <c r="C74" s="76"/>
-      <c r="D74" s="99"/>
+      <c r="D74" s="106"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="75">
@@ -11626,7 +11626,7 @@
         <v>779</v>
       </c>
       <c r="C75" s="76"/>
-      <c r="D75" s="99"/>
+      <c r="D75" s="106"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="75"/>
@@ -11634,7 +11634,7 @@
         <v>780</v>
       </c>
       <c r="C76" s="76"/>
-      <c r="D76" s="99"/>
+      <c r="D76" s="106"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="75"/>
@@ -11642,7 +11642,7 @@
         <v>781</v>
       </c>
       <c r="C77" s="76"/>
-      <c r="D77" s="99"/>
+      <c r="D77" s="106"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
@@ -11652,7 +11652,7 @@
         <v>782</v>
       </c>
       <c r="C78" s="76"/>
-      <c r="D78" s="99"/>
+      <c r="D78" s="106"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="53">
@@ -11661,372 +11661,372 @@
       <c r="B79" s="54" t="s">
         <v>811</v>
       </c>
-      <c r="C79" s="100" t="s">
+      <c r="C79" s="107" t="s">
         <v>812</v>
       </c>
-      <c r="D79" s="102">
+      <c r="D79" s="110">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="93">
+      <c r="A80" s="101">
         <v>9.1</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="C80" s="96"/>
-      <c r="D80" s="98"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="111"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="94"/>
+      <c r="A81" s="102"/>
       <c r="B81" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="C81" s="96"/>
-      <c r="D81" s="98"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="111"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="94"/>
+      <c r="A82" s="102"/>
       <c r="B82" s="56" t="s">
         <v>815</v>
       </c>
-      <c r="C82" s="96"/>
-      <c r="D82" s="98"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="111"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="94"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="C83" s="96"/>
-      <c r="D83" s="98"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="111"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="94"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="C84" s="96"/>
-      <c r="D84" s="98"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="111"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="94"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="56" t="s">
         <v>818</v>
       </c>
-      <c r="C85" s="96"/>
-      <c r="D85" s="98"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="111"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="104"/>
+      <c r="A86" s="113"/>
       <c r="B86" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="98"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="111"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="93">
+      <c r="A87" s="101">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="C87" s="96"/>
-      <c r="D87" s="98"/>
+      <c r="C87" s="108"/>
+      <c r="D87" s="111"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="94"/>
+      <c r="A88" s="102"/>
       <c r="B88" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="C88" s="96"/>
-      <c r="D88" s="98"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="111"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="94"/>
+      <c r="A89" s="102"/>
       <c r="B89" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="C89" s="96"/>
-      <c r="D89" s="98"/>
+      <c r="C89" s="108"/>
+      <c r="D89" s="111"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="104"/>
+      <c r="A90" s="113"/>
       <c r="B90" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="C90" s="96"/>
-      <c r="D90" s="98"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="111"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="93">
+      <c r="A91" s="101">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="C91" s="96"/>
-      <c r="D91" s="98"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="111"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="94"/>
+      <c r="A92" s="102"/>
       <c r="B92" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="96"/>
-      <c r="D92" s="98"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="111"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="104"/>
+      <c r="A93" s="113"/>
       <c r="B93" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="C93" s="96"/>
-      <c r="D93" s="98"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="111"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="93">
+      <c r="A94" s="101">
         <v>9.4</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>826</v>
       </c>
-      <c r="C94" s="96"/>
-      <c r="D94" s="98"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="111"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="94"/>
+      <c r="A95" s="102"/>
       <c r="B95" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="C95" s="96"/>
-      <c r="D95" s="98"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="111"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="104"/>
+      <c r="A96" s="113"/>
       <c r="B96" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="C96" s="101"/>
-      <c r="D96" s="103"/>
+      <c r="C96" s="109"/>
+      <c r="D96" s="112"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="93">
+      <c r="A97" s="101">
         <v>9.5</v>
       </c>
       <c r="B97" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="C97" s="95" t="s">
+      <c r="C97" s="115" t="s">
         <v>830</v>
       </c>
-      <c r="D97" s="97">
+      <c r="D97" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="94"/>
+      <c r="A98" s="102"/>
       <c r="B98" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="C98" s="96"/>
-      <c r="D98" s="98"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="111"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="94"/>
+      <c r="A99" s="102"/>
       <c r="B99" s="60" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="96"/>
-      <c r="D99" s="98"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="111"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="104"/>
+      <c r="A100" s="113"/>
       <c r="B100" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="C100" s="96"/>
-      <c r="D100" s="98"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="111"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="93">
+      <c r="A101" s="101">
         <v>9.6</v>
       </c>
       <c r="B101" s="59" t="s">
         <v>834</v>
       </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="98"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="111"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="94"/>
+      <c r="A102" s="102"/>
       <c r="B102" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="C102" s="96"/>
-      <c r="D102" s="98"/>
+      <c r="C102" s="108"/>
+      <c r="D102" s="111"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="94"/>
+      <c r="A103" s="102"/>
       <c r="B103" s="60" t="s">
         <v>836</v>
       </c>
-      <c r="C103" s="96"/>
-      <c r="D103" s="98"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="111"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="94"/>
+      <c r="A104" s="102"/>
       <c r="B104" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="C104" s="96"/>
-      <c r="D104" s="98"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="111"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="104"/>
+      <c r="A105" s="113"/>
       <c r="B105" s="60" t="s">
         <v>838</v>
       </c>
-      <c r="C105" s="101"/>
-      <c r="D105" s="103"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="112"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="93">
+      <c r="A106" s="101">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>839</v>
       </c>
-      <c r="C106" s="95" t="s">
+      <c r="C106" s="115" t="s">
         <v>840</v>
       </c>
-      <c r="D106" s="97">
+      <c r="D106" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="94"/>
+      <c r="A107" s="102"/>
       <c r="B107" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="98"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="111"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="104"/>
+      <c r="A108" s="113"/>
       <c r="B108" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="C108" s="96"/>
-      <c r="D108" s="98"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="111"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="93">
+      <c r="A109" s="101">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="C109" s="96"/>
-      <c r="D109" s="98"/>
+      <c r="C109" s="108"/>
+      <c r="D109" s="111"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="94"/>
+      <c r="A110" s="102"/>
       <c r="B110" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="98"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="111"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="104"/>
+      <c r="A111" s="113"/>
       <c r="B111" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="C111" s="96"/>
-      <c r="D111" s="98"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="111"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="93">
+      <c r="A112" s="101">
         <v>9.9</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="C112" s="96"/>
-      <c r="D112" s="98"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="111"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="94"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="C113" s="96"/>
-      <c r="D113" s="98"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="111"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="94"/>
+      <c r="A114" s="102"/>
       <c r="B114" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="C114" s="96"/>
-      <c r="D114" s="98"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="111"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="104"/>
+      <c r="A115" s="113"/>
       <c r="B115" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="C115" s="101"/>
-      <c r="D115" s="103"/>
+      <c r="C115" s="109"/>
+      <c r="D115" s="112"/>
     </row>
     <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="97">
+      <c r="A116" s="114">
         <v>9.1</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="C116" s="95" t="s">
+      <c r="C116" s="115" t="s">
         <v>851</v>
       </c>
-      <c r="D116" s="97">
+      <c r="D116" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="98"/>
+      <c r="A117" s="111"/>
       <c r="B117" s="60" t="s">
         <v>852</v>
       </c>
-      <c r="C117" s="96"/>
-      <c r="D117" s="98"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="111"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="98"/>
+      <c r="A118" s="111"/>
       <c r="B118" s="60" t="s">
         <v>853</v>
       </c>
-      <c r="C118" s="96"/>
-      <c r="D118" s="98"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="111"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="98"/>
+      <c r="A119" s="111"/>
       <c r="B119" s="60" t="s">
         <v>854</v>
       </c>
-      <c r="C119" s="96"/>
-      <c r="D119" s="98"/>
+      <c r="C119" s="108"/>
+      <c r="D119" s="111"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="103"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="C120" s="101"/>
-      <c r="D120" s="103"/>
+      <c r="C120" s="109"/>
+      <c r="D120" s="112"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="53">
@@ -12035,370 +12035,370 @@
       <c r="B121" s="54" t="s">
         <v>856</v>
       </c>
-      <c r="C121" s="95" t="s">
+      <c r="C121" s="115" t="s">
         <v>857</v>
       </c>
-      <c r="D121" s="97">
+      <c r="D121" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="93">
+      <c r="A122" s="101">
         <v>10.1</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>858</v>
       </c>
-      <c r="C122" s="96"/>
-      <c r="D122" s="98"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="111"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="94"/>
+      <c r="A123" s="102"/>
       <c r="B123" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="C123" s="96"/>
-      <c r="D123" s="98"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="111"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="94"/>
+      <c r="A124" s="102"/>
       <c r="B124" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C124" s="96"/>
-      <c r="D124" s="98"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="111"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="94"/>
+      <c r="A125" s="102"/>
       <c r="B125" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="C125" s="96"/>
-      <c r="D125" s="98"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="111"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="94"/>
+      <c r="A126" s="102"/>
       <c r="B126" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C126" s="96"/>
-      <c r="D126" s="98"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="111"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="94"/>
+      <c r="A127" s="102"/>
       <c r="B127" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="96"/>
-      <c r="D127" s="98"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="111"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="94"/>
+      <c r="A128" s="102"/>
       <c r="B128" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="C128" s="96"/>
-      <c r="D128" s="98"/>
+      <c r="C128" s="108"/>
+      <c r="D128" s="111"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="94"/>
+      <c r="A129" s="102"/>
       <c r="B129" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="C129" s="96"/>
-      <c r="D129" s="98"/>
+      <c r="C129" s="108"/>
+      <c r="D129" s="111"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="94"/>
+      <c r="A130" s="102"/>
       <c r="B130" s="57" t="s">
         <v>866</v>
       </c>
-      <c r="C130" s="96"/>
-      <c r="D130" s="98"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="111"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="94"/>
+      <c r="A131" s="102"/>
       <c r="B131" s="57" t="s">
         <v>867</v>
       </c>
-      <c r="C131" s="96"/>
-      <c r="D131" s="98"/>
+      <c r="C131" s="108"/>
+      <c r="D131" s="111"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="94"/>
+      <c r="A132" s="102"/>
       <c r="B132" s="57" t="s">
         <v>868</v>
       </c>
-      <c r="C132" s="96"/>
-      <c r="D132" s="98"/>
+      <c r="C132" s="108"/>
+      <c r="D132" s="111"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="94"/>
+      <c r="A133" s="102"/>
       <c r="B133" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="C133" s="96"/>
-      <c r="D133" s="98"/>
+      <c r="C133" s="108"/>
+      <c r="D133" s="111"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="94"/>
+      <c r="A134" s="102"/>
       <c r="B134" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="C134" s="96"/>
-      <c r="D134" s="98"/>
+      <c r="C134" s="108"/>
+      <c r="D134" s="111"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="94"/>
+      <c r="A135" s="102"/>
       <c r="B135" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="C135" s="96"/>
-      <c r="D135" s="98"/>
+      <c r="C135" s="108"/>
+      <c r="D135" s="111"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="94"/>
+      <c r="A136" s="102"/>
       <c r="B136" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="C136" s="96"/>
-      <c r="D136" s="98"/>
+      <c r="C136" s="108"/>
+      <c r="D136" s="111"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="94"/>
+      <c r="A137" s="102"/>
       <c r="B137" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="C137" s="96"/>
-      <c r="D137" s="98"/>
+      <c r="C137" s="108"/>
+      <c r="D137" s="111"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="94"/>
+      <c r="A138" s="102"/>
       <c r="B138" s="57" t="s">
         <v>874</v>
       </c>
-      <c r="C138" s="96"/>
-      <c r="D138" s="98"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="111"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="94"/>
+      <c r="A139" s="102"/>
       <c r="B139" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C139" s="96"/>
-      <c r="D139" s="98"/>
+      <c r="C139" s="108"/>
+      <c r="D139" s="111"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="94"/>
+      <c r="A140" s="102"/>
       <c r="B140" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C140" s="96"/>
-      <c r="D140" s="98"/>
+      <c r="C140" s="108"/>
+      <c r="D140" s="111"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="94"/>
+      <c r="A141" s="102"/>
       <c r="B141" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="C141" s="96"/>
-      <c r="D141" s="98"/>
+      <c r="C141" s="108"/>
+      <c r="D141" s="111"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="93">
+      <c r="A142" s="101">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="C142" s="96"/>
-      <c r="D142" s="98"/>
+      <c r="C142" s="108"/>
+      <c r="D142" s="111"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="94"/>
+      <c r="A143" s="102"/>
       <c r="B143" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="C143" s="96"/>
-      <c r="D143" s="98"/>
+      <c r="C143" s="108"/>
+      <c r="D143" s="111"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="94"/>
+      <c r="A144" s="102"/>
       <c r="B144" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="C144" s="96"/>
-      <c r="D144" s="98"/>
+      <c r="C144" s="108"/>
+      <c r="D144" s="111"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="94"/>
+      <c r="A145" s="102"/>
       <c r="B145" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="C145" s="96"/>
-      <c r="D145" s="98"/>
+      <c r="C145" s="108"/>
+      <c r="D145" s="111"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="94"/>
+      <c r="A146" s="102"/>
       <c r="B146" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="C146" s="96"/>
-      <c r="D146" s="98"/>
+      <c r="C146" s="108"/>
+      <c r="D146" s="111"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="94"/>
+      <c r="A147" s="102"/>
       <c r="B147" s="52" t="s">
         <v>883</v>
       </c>
-      <c r="C147" s="96"/>
-      <c r="D147" s="98"/>
+      <c r="C147" s="108"/>
+      <c r="D147" s="111"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="94"/>
+      <c r="A148" s="102"/>
       <c r="B148" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="C148" s="96"/>
-      <c r="D148" s="98"/>
+      <c r="C148" s="108"/>
+      <c r="D148" s="111"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="94"/>
+      <c r="A149" s="102"/>
       <c r="B149" s="62" t="s">
         <v>885</v>
       </c>
-      <c r="C149" s="96"/>
-      <c r="D149" s="98"/>
+      <c r="C149" s="108"/>
+      <c r="D149" s="111"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="94"/>
+      <c r="A150" s="102"/>
       <c r="B150" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="C150" s="96"/>
-      <c r="D150" s="98"/>
+      <c r="C150" s="108"/>
+      <c r="D150" s="111"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="94"/>
+      <c r="A151" s="102"/>
       <c r="B151" s="52" t="s">
         <v>887</v>
       </c>
-      <c r="C151" s="96"/>
-      <c r="D151" s="98"/>
+      <c r="C151" s="108"/>
+      <c r="D151" s="111"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="94"/>
+      <c r="A152" s="102"/>
       <c r="B152" s="62" t="s">
         <v>888</v>
       </c>
-      <c r="C152" s="96"/>
-      <c r="D152" s="98"/>
+      <c r="C152" s="108"/>
+      <c r="D152" s="111"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="94"/>
+      <c r="A153" s="102"/>
       <c r="B153" s="62" t="s">
         <v>889</v>
       </c>
-      <c r="C153" s="96"/>
-      <c r="D153" s="98"/>
+      <c r="C153" s="108"/>
+      <c r="D153" s="111"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="104"/>
+      <c r="A154" s="113"/>
       <c r="B154" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="C154" s="101"/>
-      <c r="D154" s="103"/>
+      <c r="C154" s="109"/>
+      <c r="D154" s="112"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="93">
+      <c r="A155" s="101">
         <v>10.3</v>
       </c>
       <c r="B155" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="C155" s="95" t="s">
+      <c r="C155" s="115" t="s">
         <v>892</v>
       </c>
-      <c r="D155" s="97">
+      <c r="D155" s="114">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="94"/>
+      <c r="A156" s="102"/>
       <c r="B156" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="C156" s="96"/>
-      <c r="D156" s="98"/>
+      <c r="C156" s="108"/>
+      <c r="D156" s="111"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="94"/>
+      <c r="A157" s="102"/>
       <c r="B157" s="60" t="s">
         <v>894</v>
       </c>
-      <c r="C157" s="96"/>
-      <c r="D157" s="98"/>
+      <c r="C157" s="108"/>
+      <c r="D157" s="111"/>
     </row>
     <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="93">
+      <c r="A158" s="101">
         <v>10.4</v>
       </c>
       <c r="B158" s="61" t="s">
         <v>895</v>
       </c>
-      <c r="C158" s="95" t="s">
+      <c r="C158" s="115" t="s">
         <v>896</v>
       </c>
-      <c r="D158" s="97">
+      <c r="D158" s="114">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="94"/>
+      <c r="A159" s="102"/>
       <c r="B159" s="60" t="s">
         <v>897</v>
       </c>
-      <c r="C159" s="96"/>
-      <c r="D159" s="98"/>
+      <c r="C159" s="108"/>
+      <c r="D159" s="111"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="94"/>
+      <c r="A160" s="102"/>
       <c r="B160" s="60" t="s">
         <v>898</v>
       </c>
-      <c r="C160" s="96"/>
-      <c r="D160" s="98"/>
+      <c r="C160" s="108"/>
+      <c r="D160" s="111"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="93">
+      <c r="A161" s="101">
         <v>10.5</v>
       </c>
       <c r="B161" s="61" t="s">
         <v>899</v>
       </c>
-      <c r="C161" s="95" t="s">
+      <c r="C161" s="115" t="s">
         <v>900</v>
       </c>
-      <c r="D161" s="97">
+      <c r="D161" s="114">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="94"/>
+      <c r="A162" s="102"/>
       <c r="B162" s="60" t="s">
         <v>901</v>
       </c>
-      <c r="C162" s="96"/>
-      <c r="D162" s="98"/>
+      <c r="C162" s="108"/>
+      <c r="D162" s="111"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="94"/>
+      <c r="A163" s="102"/>
       <c r="B163" s="60" t="s">
         <v>902</v>
       </c>
-      <c r="C163" s="96"/>
-      <c r="D163" s="98"/>
+      <c r="C163" s="108"/>
+      <c r="D163" s="111"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="9">
@@ -12410,7 +12410,7 @@
       <c r="C164" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="D164" s="99">
+      <c r="D164" s="106">
         <v>0.5</v>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
         <v>380</v>
       </c>
       <c r="C165" s="76"/>
-      <c r="D165" s="99"/>
+      <c r="D165" s="106"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="7">
@@ -12432,7 +12432,7 @@
         <v>381</v>
       </c>
       <c r="C166" s="76"/>
-      <c r="D166" s="99"/>
+      <c r="D166" s="106"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="75">
@@ -12442,7 +12442,7 @@
         <v>382</v>
       </c>
       <c r="C167" s="76"/>
-      <c r="D167" s="99"/>
+      <c r="D167" s="106"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="75"/>
@@ -12450,7 +12450,7 @@
         <v>383</v>
       </c>
       <c r="C168" s="76"/>
-      <c r="D168" s="99"/>
+      <c r="D168" s="106"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="9">
@@ -12462,7 +12462,7 @@
       <c r="C169" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="D169" s="92">
+      <c r="D169" s="116">
         <v>0.75</v>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
         <v>386</v>
       </c>
       <c r="C170" s="77"/>
-      <c r="D170" s="92"/>
+      <c r="D170" s="116"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="75"/>
@@ -12482,7 +12482,7 @@
         <v>387</v>
       </c>
       <c r="C171" s="77"/>
-      <c r="D171" s="92"/>
+      <c r="D171" s="116"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="75"/>
@@ -12490,7 +12490,7 @@
         <v>388</v>
       </c>
       <c r="C172" s="77"/>
-      <c r="D172" s="92"/>
+      <c r="D172" s="116"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="75">
@@ -12500,7 +12500,7 @@
         <v>389</v>
       </c>
       <c r="C173" s="77"/>
-      <c r="D173" s="92"/>
+      <c r="D173" s="116"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="75"/>
@@ -12508,7 +12508,7 @@
         <v>390</v>
       </c>
       <c r="C174" s="77"/>
-      <c r="D174" s="92"/>
+      <c r="D174" s="116"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="75"/>
@@ -12516,7 +12516,7 @@
         <v>391</v>
       </c>
       <c r="C175" s="77"/>
-      <c r="D175" s="92"/>
+      <c r="D175" s="116"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="75">
@@ -12526,7 +12526,7 @@
         <v>392</v>
       </c>
       <c r="C176" s="77"/>
-      <c r="D176" s="92"/>
+      <c r="D176" s="116"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="75"/>
@@ -12534,7 +12534,7 @@
         <v>393</v>
       </c>
       <c r="C177" s="77"/>
-      <c r="D177" s="92"/>
+      <c r="D177" s="116"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="75"/>
@@ -12542,7 +12542,7 @@
         <v>394</v>
       </c>
       <c r="C178" s="77"/>
-      <c r="D178" s="92"/>
+      <c r="D178" s="116"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="75"/>
@@ -12550,7 +12550,7 @@
         <v>395</v>
       </c>
       <c r="C179" s="77"/>
-      <c r="D179" s="92"/>
+      <c r="D179" s="116"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="75"/>
@@ -12558,7 +12558,7 @@
         <v>396</v>
       </c>
       <c r="C180" s="77"/>
-      <c r="D180" s="92"/>
+      <c r="D180" s="116"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="9">
@@ -12570,7 +12570,7 @@
       <c r="C181" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D181" s="91">
+      <c r="D181" s="117">
         <v>0.75</v>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
         <v>399</v>
       </c>
       <c r="C182" s="77"/>
-      <c r="D182" s="91"/>
+      <c r="D182" s="117"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="75"/>
@@ -12590,7 +12590,7 @@
         <v>400</v>
       </c>
       <c r="C183" s="77"/>
-      <c r="D183" s="91"/>
+      <c r="D183" s="117"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="75"/>
@@ -12598,7 +12598,7 @@
         <v>401</v>
       </c>
       <c r="C184" s="77"/>
-      <c r="D184" s="91"/>
+      <c r="D184" s="117"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="75">
@@ -12608,7 +12608,7 @@
         <v>402</v>
       </c>
       <c r="C185" s="77"/>
-      <c r="D185" s="91"/>
+      <c r="D185" s="117"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="75"/>
@@ -12616,7 +12616,7 @@
         <v>403</v>
       </c>
       <c r="C186" s="77"/>
-      <c r="D186" s="91"/>
+      <c r="D186" s="117"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="75"/>
@@ -12624,7 +12624,7 @@
         <v>404</v>
       </c>
       <c r="C187" s="77"/>
-      <c r="D187" s="91"/>
+      <c r="D187" s="117"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="75">
@@ -12634,7 +12634,7 @@
         <v>405</v>
       </c>
       <c r="C188" s="77"/>
-      <c r="D188" s="91"/>
+      <c r="D188" s="117"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="75"/>
@@ -12642,7 +12642,7 @@
         <v>903</v>
       </c>
       <c r="C189" s="77"/>
-      <c r="D189" s="91"/>
+      <c r="D189" s="117"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="9">
@@ -12652,7 +12652,7 @@
         <v>406</v>
       </c>
       <c r="C190" s="77"/>
-      <c r="D190" s="91"/>
+      <c r="D190" s="117"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="7">
@@ -12662,7 +12662,7 @@
         <v>407</v>
       </c>
       <c r="C191" s="77"/>
-      <c r="D191" s="91"/>
+      <c r="D191" s="117"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="7">
@@ -12672,7 +12672,7 @@
         <v>408</v>
       </c>
       <c r="C192" s="77"/>
-      <c r="D192" s="91"/>
+      <c r="D192" s="117"/>
     </row>
     <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="9">
@@ -12684,7 +12684,7 @@
       <c r="C193" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="91">
+      <c r="D193" s="117">
         <v>0.75</v>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
         <v>411</v>
       </c>
       <c r="C194" s="70"/>
-      <c r="D194" s="91"/>
+      <c r="D194" s="117"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="75"/>
@@ -12704,7 +12704,7 @@
         <v>412</v>
       </c>
       <c r="C195" s="70"/>
-      <c r="D195" s="91"/>
+      <c r="D195" s="117"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="75"/>
@@ -12712,7 +12712,7 @@
         <v>413</v>
       </c>
       <c r="C196" s="70"/>
-      <c r="D196" s="91"/>
+      <c r="D196" s="117"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="75"/>
@@ -12720,7 +12720,7 @@
         <v>414</v>
       </c>
       <c r="C197" s="70"/>
-      <c r="D197" s="91"/>
+      <c r="D197" s="117"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="75"/>
@@ -12728,7 +12728,7 @@
         <v>415</v>
       </c>
       <c r="C198" s="70"/>
-      <c r="D198" s="91"/>
+      <c r="D198" s="117"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="75">
@@ -12738,7 +12738,7 @@
         <v>416</v>
       </c>
       <c r="C199" s="70"/>
-      <c r="D199" s="91"/>
+      <c r="D199" s="117"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="75"/>
@@ -12746,7 +12746,7 @@
         <v>417</v>
       </c>
       <c r="C200" s="70"/>
-      <c r="D200" s="91"/>
+      <c r="D200" s="117"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="75"/>
@@ -12754,7 +12754,7 @@
         <v>418</v>
       </c>
       <c r="C201" s="70"/>
-      <c r="D201" s="91"/>
+      <c r="D201" s="117"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="75"/>
@@ -12762,7 +12762,7 @@
         <v>419</v>
       </c>
       <c r="C202" s="70"/>
-      <c r="D202" s="91"/>
+      <c r="D202" s="117"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="75"/>
@@ -12770,7 +12770,7 @@
         <v>420</v>
       </c>
       <c r="C203" s="71"/>
-      <c r="D203" s="91"/>
+      <c r="D203" s="117"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="9">
@@ -12782,7 +12782,7 @@
       <c r="C204" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="D204" s="91">
+      <c r="D204" s="117">
         <v>0.5</v>
       </c>
     </row>
@@ -12794,7 +12794,7 @@
         <v>423</v>
       </c>
       <c r="C205" s="77"/>
-      <c r="D205" s="91"/>
+      <c r="D205" s="117"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="75"/>
@@ -12802,7 +12802,7 @@
         <v>424</v>
       </c>
       <c r="C206" s="77"/>
-      <c r="D206" s="91"/>
+      <c r="D206" s="117"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="75"/>
@@ -12810,7 +12810,7 @@
         <v>425</v>
       </c>
       <c r="C207" s="77"/>
-      <c r="D207" s="91"/>
+      <c r="D207" s="117"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="75"/>
@@ -12818,7 +12818,7 @@
         <v>426</v>
       </c>
       <c r="C208" s="77"/>
-      <c r="D208" s="91"/>
+      <c r="D208" s="117"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="75"/>
@@ -12826,7 +12826,7 @@
         <v>427</v>
       </c>
       <c r="C209" s="77"/>
-      <c r="D209" s="91"/>
+      <c r="D209" s="117"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="75">
@@ -12836,7 +12836,7 @@
         <v>428</v>
       </c>
       <c r="C210" s="77"/>
-      <c r="D210" s="91"/>
+      <c r="D210" s="117"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="75"/>
@@ -12844,7 +12844,7 @@
         <v>429</v>
       </c>
       <c r="C211" s="77"/>
-      <c r="D211" s="91"/>
+      <c r="D211" s="117"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="75"/>
@@ -12852,7 +12852,7 @@
         <v>430</v>
       </c>
       <c r="C212" s="77"/>
-      <c r="D212" s="91"/>
+      <c r="D212" s="117"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="75"/>
@@ -12860,7 +12860,7 @@
         <v>431</v>
       </c>
       <c r="C213" s="77"/>
-      <c r="D213" s="91"/>
+      <c r="D213" s="117"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="75"/>
@@ -12868,7 +12868,7 @@
         <v>432</v>
       </c>
       <c r="C214" s="77"/>
-      <c r="D214" s="91"/>
+      <c r="D214" s="117"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="75"/>
@@ -12876,7 +12876,7 @@
         <v>433</v>
       </c>
       <c r="C215" s="77"/>
-      <c r="D215" s="91"/>
+      <c r="D215" s="117"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="75">
@@ -12886,7 +12886,7 @@
         <v>434</v>
       </c>
       <c r="C216" s="77"/>
-      <c r="D216" s="91"/>
+      <c r="D216" s="117"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="75"/>
@@ -12894,7 +12894,7 @@
         <v>435</v>
       </c>
       <c r="C217" s="77"/>
-      <c r="D217" s="91"/>
+      <c r="D217" s="117"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="75"/>
@@ -12902,7 +12902,7 @@
         <v>436</v>
       </c>
       <c r="C218" s="77"/>
-      <c r="D218" s="91"/>
+      <c r="D218" s="117"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="75"/>
@@ -12910,7 +12910,7 @@
         <v>437</v>
       </c>
       <c r="C219" s="77"/>
-      <c r="D219" s="91"/>
+      <c r="D219" s="117"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="75"/>
@@ -12918,7 +12918,7 @@
         <v>438</v>
       </c>
       <c r="C220" s="77"/>
-      <c r="D220" s="91"/>
+      <c r="D220" s="117"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="9">
@@ -12930,7 +12930,7 @@
       <c r="C221" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="D221" s="91">
+      <c r="D221" s="117">
         <v>0.25</v>
       </c>
     </row>
@@ -12942,7 +12942,7 @@
         <v>441</v>
       </c>
       <c r="C222" s="77"/>
-      <c r="D222" s="91"/>
+      <c r="D222" s="117"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="75"/>
@@ -12950,7 +12950,7 @@
         <v>442</v>
       </c>
       <c r="C223" s="77"/>
-      <c r="D223" s="91"/>
+      <c r="D223" s="117"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="75"/>
@@ -12958,7 +12958,7 @@
         <v>443</v>
       </c>
       <c r="C224" s="77"/>
-      <c r="D224" s="91"/>
+      <c r="D224" s="117"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="75">
@@ -12968,7 +12968,7 @@
         <v>444</v>
       </c>
       <c r="C225" s="77"/>
-      <c r="D225" s="91"/>
+      <c r="D225" s="117"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="75"/>
@@ -12976,7 +12976,7 @@
         <v>445</v>
       </c>
       <c r="C226" s="77"/>
-      <c r="D226" s="91"/>
+      <c r="D226" s="117"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="75"/>
@@ -12984,7 +12984,7 @@
         <v>446</v>
       </c>
       <c r="C227" s="77"/>
-      <c r="D227" s="91"/>
+      <c r="D227" s="117"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="75">
@@ -12994,7 +12994,7 @@
         <v>447</v>
       </c>
       <c r="C228" s="77"/>
-      <c r="D228" s="91"/>
+      <c r="D228" s="117"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="75"/>
@@ -13002,7 +13002,7 @@
         <v>448</v>
       </c>
       <c r="C229" s="77"/>
-      <c r="D229" s="91"/>
+      <c r="D229" s="117"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="75"/>
@@ -13010,7 +13010,7 @@
         <v>449</v>
       </c>
       <c r="C230" s="77"/>
-      <c r="D230" s="91"/>
+      <c r="D230" s="117"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="9">
@@ -13022,7 +13022,7 @@
       <c r="C231" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="D231" s="91">
+      <c r="D231" s="117">
         <v>1</v>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
         <v>103</v>
       </c>
       <c r="C232" s="77"/>
-      <c r="D232" s="91"/>
+      <c r="D232" s="117"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="75"/>
@@ -13042,7 +13042,7 @@
         <v>452</v>
       </c>
       <c r="C233" s="77"/>
-      <c r="D233" s="91"/>
+      <c r="D233" s="117"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="75"/>
@@ -13050,7 +13050,7 @@
         <v>453</v>
       </c>
       <c r="C234" s="77"/>
-      <c r="D234" s="91"/>
+      <c r="D234" s="117"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="75">
@@ -13060,7 +13060,7 @@
         <v>104</v>
       </c>
       <c r="C235" s="77"/>
-      <c r="D235" s="91"/>
+      <c r="D235" s="117"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="75"/>
@@ -13068,7 +13068,7 @@
         <v>454</v>
       </c>
       <c r="C236" s="77"/>
-      <c r="D236" s="91"/>
+      <c r="D236" s="117"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="75"/>
@@ -13076,7 +13076,7 @@
         <v>455</v>
       </c>
       <c r="C237" s="77"/>
-      <c r="D237" s="91"/>
+      <c r="D237" s="117"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="75">
@@ -13086,7 +13086,7 @@
         <v>105</v>
       </c>
       <c r="C238" s="77"/>
-      <c r="D238" s="91"/>
+      <c r="D238" s="117"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="75"/>
@@ -13094,7 +13094,7 @@
         <v>456</v>
       </c>
       <c r="C239" s="77"/>
-      <c r="D239" s="91"/>
+      <c r="D239" s="117"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="75"/>
@@ -13102,7 +13102,7 @@
         <v>457</v>
       </c>
       <c r="C240" s="77"/>
-      <c r="D240" s="91"/>
+      <c r="D240" s="117"/>
     </row>
     <row r="241" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="9">
@@ -13114,7 +13114,7 @@
       <c r="C241" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="D241" s="91">
+      <c r="D241" s="117">
         <v>0.5</v>
       </c>
     </row>
@@ -13126,7 +13126,7 @@
         <v>460</v>
       </c>
       <c r="C242" s="77"/>
-      <c r="D242" s="91"/>
+      <c r="D242" s="117"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="75"/>
@@ -13134,7 +13134,7 @@
         <v>461</v>
       </c>
       <c r="C243" s="77"/>
-      <c r="D243" s="91"/>
+      <c r="D243" s="117"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="75"/>
@@ -13142,7 +13142,7 @@
         <v>462</v>
       </c>
       <c r="C244" s="77"/>
-      <c r="D244" s="91"/>
+      <c r="D244" s="117"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="75"/>
@@ -13150,7 +13150,7 @@
         <v>463</v>
       </c>
       <c r="C245" s="77"/>
-      <c r="D245" s="91"/>
+      <c r="D245" s="117"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="75">
@@ -13160,7 +13160,7 @@
         <v>464</v>
       </c>
       <c r="C246" s="77"/>
-      <c r="D246" s="91"/>
+      <c r="D246" s="117"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="75"/>
@@ -13168,7 +13168,7 @@
         <v>465</v>
       </c>
       <c r="C247" s="77"/>
-      <c r="D247" s="91"/>
+      <c r="D247" s="117"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="75"/>
@@ -13176,7 +13176,7 @@
         <v>466</v>
       </c>
       <c r="C248" s="77"/>
-      <c r="D248" s="91"/>
+      <c r="D248" s="117"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="75"/>
@@ -13184,7 +13184,7 @@
         <v>467</v>
       </c>
       <c r="C249" s="77"/>
-      <c r="D249" s="91"/>
+      <c r="D249" s="117"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="75"/>
@@ -13192,7 +13192,7 @@
         <v>468</v>
       </c>
       <c r="C250" s="77"/>
-      <c r="D250" s="91"/>
+      <c r="D250" s="117"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="75">
@@ -13202,7 +13202,7 @@
         <v>469</v>
       </c>
       <c r="C251" s="77"/>
-      <c r="D251" s="91"/>
+      <c r="D251" s="117"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="75"/>
@@ -13210,7 +13210,7 @@
         <v>470</v>
       </c>
       <c r="C252" s="77"/>
-      <c r="D252" s="91"/>
+      <c r="D252" s="117"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="75"/>
@@ -13218,7 +13218,7 @@
         <v>471</v>
       </c>
       <c r="C253" s="77"/>
-      <c r="D253" s="91"/>
+      <c r="D253" s="117"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="75"/>
@@ -13226,7 +13226,7 @@
         <v>472</v>
       </c>
       <c r="C254" s="77"/>
-      <c r="D254" s="91"/>
+      <c r="D254" s="117"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="75"/>
@@ -13234,7 +13234,7 @@
         <v>473</v>
       </c>
       <c r="C255" s="77"/>
-      <c r="D255" s="91"/>
+      <c r="D255" s="117"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="75">
@@ -13244,7 +13244,7 @@
         <v>474</v>
       </c>
       <c r="C256" s="77"/>
-      <c r="D256" s="91"/>
+      <c r="D256" s="117"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="75"/>
@@ -13252,7 +13252,7 @@
         <v>475</v>
       </c>
       <c r="C257" s="77"/>
-      <c r="D257" s="91"/>
+      <c r="D257" s="117"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="75"/>
@@ -13260,7 +13260,7 @@
         <v>476</v>
       </c>
       <c r="C258" s="77"/>
-      <c r="D258" s="91"/>
+      <c r="D258" s="117"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="75"/>
@@ -13268,158 +13268,178 @@
         <v>477</v>
       </c>
       <c r="C259" s="77"/>
-      <c r="D259" s="91"/>
+      <c r="D259" s="117"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="91">
+      <c r="A260" s="117">
         <v>14.5</v>
       </c>
       <c r="B260" s="47" t="s">
         <v>478</v>
       </c>
       <c r="C260" s="77"/>
-      <c r="D260" s="91"/>
+      <c r="D260" s="117"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" s="91"/>
+      <c r="A261" s="117"/>
       <c r="B261" s="48" t="s">
         <v>479</v>
       </c>
       <c r="C261" s="77"/>
-      <c r="D261" s="91"/>
+      <c r="D261" s="117"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" s="91"/>
+      <c r="A262" s="117"/>
       <c r="B262" s="48" t="s">
         <v>480</v>
       </c>
       <c r="C262" s="77"/>
-      <c r="D262" s="91"/>
+      <c r="D262" s="117"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" s="91"/>
+      <c r="A263" s="117"/>
       <c r="B263" s="48" t="s">
         <v>481</v>
       </c>
       <c r="C263" s="77"/>
-      <c r="D263" s="91"/>
+      <c r="D263" s="117"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" s="91">
+      <c r="A264" s="117">
         <v>14.6</v>
       </c>
       <c r="B264" s="47" t="s">
         <v>482</v>
       </c>
       <c r="C264" s="77"/>
-      <c r="D264" s="91"/>
+      <c r="D264" s="117"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" s="91"/>
+      <c r="A265" s="117"/>
       <c r="B265" s="48" t="s">
         <v>483</v>
       </c>
       <c r="C265" s="77"/>
-      <c r="D265" s="91"/>
+      <c r="D265" s="117"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" s="91"/>
+      <c r="A266" s="117"/>
       <c r="B266" s="48" t="s">
         <v>484</v>
       </c>
       <c r="C266" s="77"/>
-      <c r="D266" s="91"/>
+      <c r="D266" s="117"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" s="91"/>
+      <c r="A267" s="117"/>
       <c r="B267" s="48" t="s">
         <v>485</v>
       </c>
       <c r="C267" s="77"/>
-      <c r="D267" s="91"/>
+      <c r="D267" s="117"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="91"/>
+      <c r="A268" s="117"/>
       <c r="B268" s="48" t="s">
         <v>486</v>
       </c>
       <c r="C268" s="77"/>
-      <c r="D268" s="91"/>
+      <c r="D268" s="117"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="91">
+      <c r="A269" s="117">
         <v>14.7</v>
       </c>
       <c r="B269" s="47" t="s">
         <v>487</v>
       </c>
       <c r="C269" s="77"/>
-      <c r="D269" s="91"/>
+      <c r="D269" s="117"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="91"/>
+      <c r="A270" s="117"/>
       <c r="B270" s="48" t="s">
         <v>488</v>
       </c>
       <c r="C270" s="77"/>
-      <c r="D270" s="91"/>
+      <c r="D270" s="117"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="91"/>
+      <c r="A271" s="117"/>
       <c r="B271" s="48" t="s">
         <v>489</v>
       </c>
       <c r="C271" s="77"/>
-      <c r="D271" s="91"/>
+      <c r="D271" s="117"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="91"/>
+      <c r="A272" s="117"/>
       <c r="B272" s="48" t="s">
         <v>490</v>
       </c>
       <c r="C272" s="77"/>
-      <c r="D272" s="91"/>
+      <c r="D272" s="117"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="91"/>
+      <c r="A273" s="117"/>
       <c r="B273" s="48" t="s">
         <v>491</v>
       </c>
       <c r="C273" s="77"/>
-      <c r="D273" s="91"/>
+      <c r="D273" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="D18:D30"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C53:C67"/>
-    <mergeCell ref="D53:D67"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C241:C273"/>
+    <mergeCell ref="D241:D273"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="C221:C230"/>
+    <mergeCell ref="D221:D230"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="D231:D240"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="C193:C203"/>
+    <mergeCell ref="D193:D203"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="C204:C220"/>
+    <mergeCell ref="D204:D220"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="C169:C180"/>
+    <mergeCell ref="D169:D180"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="C181:C192"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
     <mergeCell ref="C79:C96"/>
     <mergeCell ref="D79:D96"/>
     <mergeCell ref="A80:A86"/>
@@ -13442,56 +13462,36 @@
     <mergeCell ref="D106:D115"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="C169:C180"/>
-    <mergeCell ref="D169:D180"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="C181:C192"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="C193:C203"/>
-    <mergeCell ref="D193:D203"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="C204:C220"/>
-    <mergeCell ref="D204:D220"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="C221:C230"/>
-    <mergeCell ref="D221:D230"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="D231:D240"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="C241:C273"/>
-    <mergeCell ref="D241:D273"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="A256:A259"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="D53:D67"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14175,6 +14175,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C30:C67"/>
     <mergeCell ref="D30:D67"/>
     <mergeCell ref="E30:E67"/>
@@ -14187,15 +14196,6 @@
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15222,26 +15222,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046A31122186B324295ACC58F7AF02D2C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b617112a4bb9debf8776548e623995">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52ef429a-33cb-47a2-9df9-548aca62905c" xmlns:ns3="3780c0a3-9b63-4393-8bfa-e0381b24f108" xmlns:ns4="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a03cb1a3de72c882342d9ed0946efa9f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52ef429a-33cb-47a2-9df9-548aca62905c"/>
@@ -15475,26 +15455,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
-    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87F4909E-1BA8-41EF-A085-CE3BD974F0BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15512,4 +15493,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
+    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CP_Platform_Solution_Java_v1.4.xlsx
+++ b/CP_Platform_Solution_Java_v1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EE649-6909-4501-A77A-7CED2B69B473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271347B7-F642-401A-9413-D73085F08A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="5" activeTab="5" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
@@ -5419,6 +5419,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5436,69 +5499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6632,16 +6632,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C20:C38"/>
-    <mergeCell ref="D20:D38"/>
-    <mergeCell ref="C5:C19"/>
-    <mergeCell ref="D5:D19"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A38"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="D54:D67"/>
     <mergeCell ref="A55:A58"/>
@@ -6651,6 +6641,16 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A38"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C20:C38"/>
+    <mergeCell ref="D20:D38"/>
+    <mergeCell ref="C5:C19"/>
+    <mergeCell ref="D5:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8127,6 +8127,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C23:C38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C39:C56"/>
+    <mergeCell ref="D39:D56"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C99:C111"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="D57:D72"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="D73:D81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C82:C98"/>
+    <mergeCell ref="D82:D98"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="C150:C163"/>
     <mergeCell ref="D150:D163"/>
     <mergeCell ref="A151:A156"/>
@@ -8143,50 +8187,6 @@
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="C112:C130"/>
     <mergeCell ref="D112:D130"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C99:C111"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="D57:D72"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="D73:D81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C82:C98"/>
-    <mergeCell ref="D82:D98"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="C39:C56"/>
-    <mergeCell ref="D39:D56"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="C23:C38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10900,11 +10900,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A57"/>
     <mergeCell ref="D45:D57"/>
     <mergeCell ref="E45:E57"/>
     <mergeCell ref="C45:C57"/>
@@ -10913,11 +10913,11 @@
     <mergeCell ref="E5:E25"/>
     <mergeCell ref="D26:D44"/>
     <mergeCell ref="E26:E44"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10932,8 +10932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F55229-B443-49D0-8BFD-4739B86F2805}">
   <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -10987,7 +10987,7 @@
       <c r="B5" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="112" t="s">
         <v>784</v>
       </c>
       <c r="D5" s="88">
@@ -10995,105 +10995,105 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="93">
+      <c r="A6" s="114">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="94"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="94"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="94"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="94"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="93">
+      <c r="A11" s="114">
         <v>1.2</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="94"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="94"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="93">
+      <c r="A14" s="114">
         <v>1.4</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="94"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="94"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="95"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -11106,111 +11106,111 @@
       <c r="C18" s="76" t="s">
         <v>798</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="117">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="93">
+      <c r="A19" s="114">
         <v>2.1</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>799</v>
       </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="96"/>
+      <c r="D19" s="117"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="48" t="s">
         <v>800</v>
       </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="96"/>
+      <c r="D20" s="117"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="94"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="48" t="s">
         <v>801</v>
       </c>
       <c r="C21" s="77"/>
-      <c r="D21" s="96"/>
+      <c r="D21" s="117"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="95"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="48" t="s">
         <v>802</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="96"/>
+      <c r="D22" s="117"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="93">
+      <c r="A23" s="114">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="96"/>
+      <c r="D23" s="117"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="94"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="48" t="s">
         <v>804</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="96"/>
+      <c r="D24" s="117"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="94"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="48" t="s">
         <v>805</v>
       </c>
       <c r="C25" s="77"/>
-      <c r="D25" s="96"/>
+      <c r="D25" s="117"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="95"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="48" t="s">
         <v>806</v>
       </c>
       <c r="C26" s="77"/>
-      <c r="D26" s="96"/>
+      <c r="D26" s="117"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="93">
+      <c r="A27" s="114">
         <v>2.6</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>807</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="96"/>
+      <c r="D27" s="117"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="94"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="48" t="s">
         <v>808</v>
       </c>
       <c r="C28" s="77"/>
-      <c r="D28" s="96"/>
+      <c r="D28" s="117"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="94"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="48" t="s">
         <v>809</v>
       </c>
       <c r="C29" s="77"/>
-      <c r="D29" s="96"/>
+      <c r="D29" s="117"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="95"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="48" t="s">
         <v>810</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="96"/>
+      <c r="D30" s="117"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
@@ -11219,7 +11219,7 @@
       <c r="B31" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="105" t="s">
         <v>733</v>
       </c>
       <c r="D31" s="82">
@@ -11233,7 +11233,7 @@
       <c r="B32" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="98"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="83"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -11241,7 +11241,7 @@
       <c r="B33" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C33" s="98"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="83"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -11249,7 +11249,7 @@
       <c r="B34" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="98"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="83"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -11259,7 +11259,7 @@
       <c r="B35" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="98"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="83"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -11267,7 +11267,7 @@
       <c r="B36" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="C36" s="98"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="83"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -11275,7 +11275,7 @@
       <c r="B37" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C37" s="98"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="83"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -11283,7 +11283,7 @@
       <c r="B38" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="C38" s="98"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="83"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -11293,7 +11293,7 @@
       <c r="B39" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="99"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="90"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -11303,7 +11303,7 @@
       <c r="B40" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="108" t="s">
         <v>742</v>
       </c>
       <c r="D40" s="82">
@@ -11311,61 +11311,61 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="101">
+      <c r="A41" s="93">
         <v>4.2</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C41" s="98"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="83"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="102"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="98"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="83"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="102"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="C43" s="98"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="83"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="102"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="98"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="83"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="102"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C45" s="98"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="83"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="102"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="C46" s="98"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="83"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="103"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="C47" s="98"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="83"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -11375,7 +11375,7 @@
       <c r="B48" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="98"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="83"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -11385,7 +11385,7 @@
       <c r="B49" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="C49" s="99"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="83"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -11395,27 +11395,27 @@
       <c r="B50" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="108" t="s">
         <v>753</v>
       </c>
       <c r="D50" s="83"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="104">
+      <c r="A51" s="110">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C51" s="98"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="83"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="105"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="C52" s="99"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="90"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -11425,7 +11425,7 @@
       <c r="B53" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="105" t="s">
         <v>757</v>
       </c>
       <c r="D53" s="82">
@@ -11439,7 +11439,7 @@
       <c r="B54" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="C54" s="98"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="83"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -11447,7 +11447,7 @@
       <c r="B55" s="48" t="s">
         <v>759</v>
       </c>
-      <c r="C55" s="98"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="83"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -11455,7 +11455,7 @@
       <c r="B56" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="C56" s="98"/>
+      <c r="C56" s="106"/>
       <c r="D56" s="83"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -11463,7 +11463,7 @@
       <c r="B57" s="48" t="s">
         <v>761</v>
       </c>
-      <c r="C57" s="98"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="83"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -11471,7 +11471,7 @@
       <c r="B58" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="C58" s="98"/>
+      <c r="C58" s="106"/>
       <c r="D58" s="83"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -11479,7 +11479,7 @@
       <c r="B59" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="C59" s="98"/>
+      <c r="C59" s="106"/>
       <c r="D59" s="83"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -11489,7 +11489,7 @@
       <c r="B60" s="47" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="98"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="83"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -11497,7 +11497,7 @@
       <c r="B61" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="C61" s="98"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="83"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -11505,7 +11505,7 @@
       <c r="B62" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="C62" s="98"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="83"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -11513,7 +11513,7 @@
       <c r="B63" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="C63" s="98"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="83"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -11523,7 +11523,7 @@
       <c r="B64" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="98"/>
+      <c r="C64" s="106"/>
       <c r="D64" s="83"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -11533,7 +11533,7 @@
       <c r="B65" s="47" t="s">
         <v>768</v>
       </c>
-      <c r="C65" s="98"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="83"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -11541,7 +11541,7 @@
       <c r="B66" s="47" t="s">
         <v>769</v>
       </c>
-      <c r="C66" s="98"/>
+      <c r="C66" s="106"/>
       <c r="D66" s="83"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -11549,7 +11549,7 @@
       <c r="B67" s="47" t="s">
         <v>770</v>
       </c>
-      <c r="C67" s="99"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="90"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -11562,7 +11562,7 @@
       <c r="C68" s="76" t="s">
         <v>772</v>
       </c>
-      <c r="D68" s="106">
+      <c r="D68" s="99">
         <v>1.5</v>
       </c>
     </row>
@@ -11574,7 +11574,7 @@
         <v>773</v>
       </c>
       <c r="C69" s="76"/>
-      <c r="D69" s="106"/>
+      <c r="D69" s="99"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="75"/>
@@ -11582,7 +11582,7 @@
         <v>774</v>
       </c>
       <c r="C70" s="76"/>
-      <c r="D70" s="106"/>
+      <c r="D70" s="99"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="75"/>
@@ -11590,7 +11590,7 @@
         <v>775</v>
       </c>
       <c r="C71" s="76"/>
-      <c r="D71" s="106"/>
+      <c r="D71" s="99"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="75">
@@ -11600,7 +11600,7 @@
         <v>776</v>
       </c>
       <c r="C72" s="76"/>
-      <c r="D72" s="106"/>
+      <c r="D72" s="99"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="75"/>
@@ -11608,7 +11608,7 @@
         <v>777</v>
       </c>
       <c r="C73" s="76"/>
-      <c r="D73" s="106"/>
+      <c r="D73" s="99"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="75"/>
@@ -11616,7 +11616,7 @@
         <v>778</v>
       </c>
       <c r="C74" s="76"/>
-      <c r="D74" s="106"/>
+      <c r="D74" s="99"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="75">
@@ -11626,7 +11626,7 @@
         <v>779</v>
       </c>
       <c r="C75" s="76"/>
-      <c r="D75" s="106"/>
+      <c r="D75" s="99"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="75"/>
@@ -11634,7 +11634,7 @@
         <v>780</v>
       </c>
       <c r="C76" s="76"/>
-      <c r="D76" s="106"/>
+      <c r="D76" s="99"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="75"/>
@@ -11642,7 +11642,7 @@
         <v>781</v>
       </c>
       <c r="C77" s="76"/>
-      <c r="D77" s="106"/>
+      <c r="D77" s="99"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
@@ -11652,7 +11652,7 @@
         <v>782</v>
       </c>
       <c r="C78" s="76"/>
-      <c r="D78" s="106"/>
+      <c r="D78" s="99"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="53">
@@ -11661,372 +11661,372 @@
       <c r="B79" s="54" t="s">
         <v>811</v>
       </c>
-      <c r="C79" s="107" t="s">
+      <c r="C79" s="100" t="s">
         <v>812</v>
       </c>
-      <c r="D79" s="110">
+      <c r="D79" s="102">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="101">
+      <c r="A80" s="93">
         <v>9.1</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="C80" s="108"/>
-      <c r="D80" s="111"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="98"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="102"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="C81" s="108"/>
-      <c r="D81" s="111"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="98"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="102"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="56" t="s">
         <v>815</v>
       </c>
-      <c r="C82" s="108"/>
-      <c r="D82" s="111"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="98"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="102"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="111"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="98"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="102"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="C84" s="108"/>
-      <c r="D84" s="111"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="98"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="102"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="56" t="s">
         <v>818</v>
       </c>
-      <c r="C85" s="108"/>
-      <c r="D85" s="111"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="98"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="113"/>
+      <c r="A86" s="104"/>
       <c r="B86" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="C86" s="108"/>
-      <c r="D86" s="111"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="98"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="101">
+      <c r="A87" s="93">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="C87" s="108"/>
-      <c r="D87" s="111"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="98"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="102"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="C88" s="108"/>
-      <c r="D88" s="111"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="98"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="102"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="C89" s="108"/>
-      <c r="D89" s="111"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="98"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="113"/>
+      <c r="A90" s="104"/>
       <c r="B90" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="C90" s="108"/>
-      <c r="D90" s="111"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="98"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="101">
+      <c r="A91" s="93">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="C91" s="108"/>
-      <c r="D91" s="111"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="98"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="102"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="108"/>
-      <c r="D92" s="111"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="98"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="113"/>
+      <c r="A93" s="104"/>
       <c r="B93" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="C93" s="108"/>
-      <c r="D93" s="111"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="98"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="101">
+      <c r="A94" s="93">
         <v>9.4</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>826</v>
       </c>
-      <c r="C94" s="108"/>
-      <c r="D94" s="111"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="98"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="102"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="C95" s="108"/>
-      <c r="D95" s="111"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="98"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="113"/>
+      <c r="A96" s="104"/>
       <c r="B96" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="C96" s="109"/>
-      <c r="D96" s="112"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="103"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="101">
+      <c r="A97" s="93">
         <v>9.5</v>
       </c>
       <c r="B97" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="C97" s="115" t="s">
+      <c r="C97" s="95" t="s">
         <v>830</v>
       </c>
-      <c r="D97" s="114">
+      <c r="D97" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="102"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="C98" s="108"/>
-      <c r="D98" s="111"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="98"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="102"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="60" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="108"/>
-      <c r="D99" s="111"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="98"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="113"/>
+      <c r="A100" s="104"/>
       <c r="B100" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="C100" s="108"/>
-      <c r="D100" s="111"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="98"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="101">
+      <c r="A101" s="93">
         <v>9.6</v>
       </c>
       <c r="B101" s="59" t="s">
         <v>834</v>
       </c>
-      <c r="C101" s="108"/>
-      <c r="D101" s="111"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="98"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="102"/>
+      <c r="A102" s="94"/>
       <c r="B102" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="C102" s="108"/>
-      <c r="D102" s="111"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="98"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="102"/>
+      <c r="A103" s="94"/>
       <c r="B103" s="60" t="s">
         <v>836</v>
       </c>
-      <c r="C103" s="108"/>
-      <c r="D103" s="111"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="98"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="102"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="C104" s="108"/>
-      <c r="D104" s="111"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="98"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="113"/>
+      <c r="A105" s="104"/>
       <c r="B105" s="60" t="s">
         <v>838</v>
       </c>
-      <c r="C105" s="109"/>
-      <c r="D105" s="112"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="103"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="101">
+      <c r="A106" s="93">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>839</v>
       </c>
-      <c r="C106" s="115" t="s">
+      <c r="C106" s="95" t="s">
         <v>840</v>
       </c>
-      <c r="D106" s="114">
+      <c r="D106" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="102"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="C107" s="108"/>
-      <c r="D107" s="111"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="98"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="113"/>
+      <c r="A108" s="104"/>
       <c r="B108" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="C108" s="108"/>
-      <c r="D108" s="111"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="98"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="101">
+      <c r="A109" s="93">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="C109" s="108"/>
-      <c r="D109" s="111"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="98"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="102"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="C110" s="108"/>
-      <c r="D110" s="111"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="98"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="113"/>
+      <c r="A111" s="104"/>
       <c r="B111" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="C111" s="108"/>
-      <c r="D111" s="111"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="98"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="101">
+      <c r="A112" s="93">
         <v>9.9</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="C112" s="108"/>
-      <c r="D112" s="111"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="98"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="102"/>
+      <c r="A113" s="94"/>
       <c r="B113" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="C113" s="108"/>
-      <c r="D113" s="111"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="98"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="102"/>
+      <c r="A114" s="94"/>
       <c r="B114" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="C114" s="108"/>
-      <c r="D114" s="111"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="98"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="113"/>
+      <c r="A115" s="104"/>
       <c r="B115" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="C115" s="109"/>
-      <c r="D115" s="112"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="103"/>
     </row>
     <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="114">
+      <c r="A116" s="97">
         <v>9.1</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="C116" s="115" t="s">
+      <c r="C116" s="95" t="s">
         <v>851</v>
       </c>
-      <c r="D116" s="114">
+      <c r="D116" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="111"/>
+      <c r="A117" s="98"/>
       <c r="B117" s="60" t="s">
         <v>852</v>
       </c>
-      <c r="C117" s="108"/>
-      <c r="D117" s="111"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="98"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="111"/>
+      <c r="A118" s="98"/>
       <c r="B118" s="60" t="s">
         <v>853</v>
       </c>
-      <c r="C118" s="108"/>
-      <c r="D118" s="111"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="98"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="111"/>
+      <c r="A119" s="98"/>
       <c r="B119" s="60" t="s">
         <v>854</v>
       </c>
-      <c r="C119" s="108"/>
-      <c r="D119" s="111"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="98"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="112"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="C120" s="109"/>
-      <c r="D120" s="112"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="103"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="53">
@@ -12035,370 +12035,370 @@
       <c r="B121" s="54" t="s">
         <v>856</v>
       </c>
-      <c r="C121" s="115" t="s">
+      <c r="C121" s="95" t="s">
         <v>857</v>
       </c>
-      <c r="D121" s="114">
+      <c r="D121" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="101">
+      <c r="A122" s="93">
         <v>10.1</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>858</v>
       </c>
-      <c r="C122" s="108"/>
-      <c r="D122" s="111"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="98"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="102"/>
+      <c r="A123" s="94"/>
       <c r="B123" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="C123" s="108"/>
-      <c r="D123" s="111"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="98"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="102"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C124" s="108"/>
-      <c r="D124" s="111"/>
+      <c r="C124" s="96"/>
+      <c r="D124" s="98"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="102"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="C125" s="108"/>
-      <c r="D125" s="111"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="98"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="102"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C126" s="108"/>
-      <c r="D126" s="111"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="98"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="102"/>
+      <c r="A127" s="94"/>
       <c r="B127" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="108"/>
-      <c r="D127" s="111"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="98"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="102"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="C128" s="108"/>
-      <c r="D128" s="111"/>
+      <c r="C128" s="96"/>
+      <c r="D128" s="98"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="102"/>
+      <c r="A129" s="94"/>
       <c r="B129" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="C129" s="108"/>
-      <c r="D129" s="111"/>
+      <c r="C129" s="96"/>
+      <c r="D129" s="98"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="102"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="57" t="s">
         <v>866</v>
       </c>
-      <c r="C130" s="108"/>
-      <c r="D130" s="111"/>
+      <c r="C130" s="96"/>
+      <c r="D130" s="98"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="102"/>
+      <c r="A131" s="94"/>
       <c r="B131" s="57" t="s">
         <v>867</v>
       </c>
-      <c r="C131" s="108"/>
-      <c r="D131" s="111"/>
+      <c r="C131" s="96"/>
+      <c r="D131" s="98"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="102"/>
+      <c r="A132" s="94"/>
       <c r="B132" s="57" t="s">
         <v>868</v>
       </c>
-      <c r="C132" s="108"/>
-      <c r="D132" s="111"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="98"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="102"/>
+      <c r="A133" s="94"/>
       <c r="B133" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="C133" s="108"/>
-      <c r="D133" s="111"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="98"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="102"/>
+      <c r="A134" s="94"/>
       <c r="B134" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="C134" s="108"/>
-      <c r="D134" s="111"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="98"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="102"/>
+      <c r="A135" s="94"/>
       <c r="B135" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="C135" s="108"/>
-      <c r="D135" s="111"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="98"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="102"/>
+      <c r="A136" s="94"/>
       <c r="B136" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="C136" s="108"/>
-      <c r="D136" s="111"/>
+      <c r="C136" s="96"/>
+      <c r="D136" s="98"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="102"/>
+      <c r="A137" s="94"/>
       <c r="B137" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="C137" s="108"/>
-      <c r="D137" s="111"/>
+      <c r="C137" s="96"/>
+      <c r="D137" s="98"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="102"/>
+      <c r="A138" s="94"/>
       <c r="B138" s="57" t="s">
         <v>874</v>
       </c>
-      <c r="C138" s="108"/>
-      <c r="D138" s="111"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="98"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="102"/>
+      <c r="A139" s="94"/>
       <c r="B139" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C139" s="108"/>
-      <c r="D139" s="111"/>
+      <c r="C139" s="96"/>
+      <c r="D139" s="98"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="102"/>
+      <c r="A140" s="94"/>
       <c r="B140" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C140" s="108"/>
-      <c r="D140" s="111"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="98"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="102"/>
+      <c r="A141" s="94"/>
       <c r="B141" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="C141" s="108"/>
-      <c r="D141" s="111"/>
+      <c r="C141" s="96"/>
+      <c r="D141" s="98"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="101">
+      <c r="A142" s="93">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="C142" s="108"/>
-      <c r="D142" s="111"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="98"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="102"/>
+      <c r="A143" s="94"/>
       <c r="B143" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="C143" s="108"/>
-      <c r="D143" s="111"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="98"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="102"/>
+      <c r="A144" s="94"/>
       <c r="B144" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="C144" s="108"/>
-      <c r="D144" s="111"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="98"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="102"/>
+      <c r="A145" s="94"/>
       <c r="B145" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="C145" s="108"/>
-      <c r="D145" s="111"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="98"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="102"/>
+      <c r="A146" s="94"/>
       <c r="B146" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="C146" s="108"/>
-      <c r="D146" s="111"/>
+      <c r="C146" s="96"/>
+      <c r="D146" s="98"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="102"/>
+      <c r="A147" s="94"/>
       <c r="B147" s="52" t="s">
         <v>883</v>
       </c>
-      <c r="C147" s="108"/>
-      <c r="D147" s="111"/>
+      <c r="C147" s="96"/>
+      <c r="D147" s="98"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="102"/>
+      <c r="A148" s="94"/>
       <c r="B148" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="C148" s="108"/>
-      <c r="D148" s="111"/>
+      <c r="C148" s="96"/>
+      <c r="D148" s="98"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="102"/>
+      <c r="A149" s="94"/>
       <c r="B149" s="62" t="s">
         <v>885</v>
       </c>
-      <c r="C149" s="108"/>
-      <c r="D149" s="111"/>
+      <c r="C149" s="96"/>
+      <c r="D149" s="98"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="102"/>
+      <c r="A150" s="94"/>
       <c r="B150" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="C150" s="108"/>
-      <c r="D150" s="111"/>
+      <c r="C150" s="96"/>
+      <c r="D150" s="98"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="102"/>
+      <c r="A151" s="94"/>
       <c r="B151" s="52" t="s">
         <v>887</v>
       </c>
-      <c r="C151" s="108"/>
-      <c r="D151" s="111"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="98"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="102"/>
+      <c r="A152" s="94"/>
       <c r="B152" s="62" t="s">
         <v>888</v>
       </c>
-      <c r="C152" s="108"/>
-      <c r="D152" s="111"/>
+      <c r="C152" s="96"/>
+      <c r="D152" s="98"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="102"/>
+      <c r="A153" s="94"/>
       <c r="B153" s="62" t="s">
         <v>889</v>
       </c>
-      <c r="C153" s="108"/>
-      <c r="D153" s="111"/>
+      <c r="C153" s="96"/>
+      <c r="D153" s="98"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="113"/>
+      <c r="A154" s="104"/>
       <c r="B154" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="C154" s="109"/>
-      <c r="D154" s="112"/>
+      <c r="C154" s="101"/>
+      <c r="D154" s="103"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="101">
+      <c r="A155" s="93">
         <v>10.3</v>
       </c>
       <c r="B155" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="C155" s="115" t="s">
+      <c r="C155" s="95" t="s">
         <v>892</v>
       </c>
-      <c r="D155" s="114">
+      <c r="D155" s="97">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="102"/>
+      <c r="A156" s="94"/>
       <c r="B156" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="C156" s="108"/>
-      <c r="D156" s="111"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="98"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="102"/>
+      <c r="A157" s="94"/>
       <c r="B157" s="60" t="s">
         <v>894</v>
       </c>
-      <c r="C157" s="108"/>
-      <c r="D157" s="111"/>
+      <c r="C157" s="96"/>
+      <c r="D157" s="98"/>
     </row>
     <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="101">
+      <c r="A158" s="93">
         <v>10.4</v>
       </c>
       <c r="B158" s="61" t="s">
         <v>895</v>
       </c>
-      <c r="C158" s="115" t="s">
+      <c r="C158" s="95" t="s">
         <v>896</v>
       </c>
-      <c r="D158" s="114">
+      <c r="D158" s="97">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="102"/>
+      <c r="A159" s="94"/>
       <c r="B159" s="60" t="s">
         <v>897</v>
       </c>
-      <c r="C159" s="108"/>
-      <c r="D159" s="111"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="98"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="102"/>
+      <c r="A160" s="94"/>
       <c r="B160" s="60" t="s">
         <v>898</v>
       </c>
-      <c r="C160" s="108"/>
-      <c r="D160" s="111"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="98"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="101">
+      <c r="A161" s="93">
         <v>10.5</v>
       </c>
       <c r="B161" s="61" t="s">
         <v>899</v>
       </c>
-      <c r="C161" s="115" t="s">
+      <c r="C161" s="95" t="s">
         <v>900</v>
       </c>
-      <c r="D161" s="114">
+      <c r="D161" s="97">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="102"/>
+      <c r="A162" s="94"/>
       <c r="B162" s="60" t="s">
         <v>901</v>
       </c>
-      <c r="C162" s="108"/>
-      <c r="D162" s="111"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="98"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="102"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="60" t="s">
         <v>902</v>
       </c>
-      <c r="C163" s="108"/>
-      <c r="D163" s="111"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="98"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="9">
@@ -12410,7 +12410,7 @@
       <c r="C164" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="D164" s="106">
+      <c r="D164" s="99">
         <v>0.5</v>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
         <v>380</v>
       </c>
       <c r="C165" s="76"/>
-      <c r="D165" s="106"/>
+      <c r="D165" s="99"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="7">
@@ -12432,7 +12432,7 @@
         <v>381</v>
       </c>
       <c r="C166" s="76"/>
-      <c r="D166" s="106"/>
+      <c r="D166" s="99"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="75">
@@ -12442,7 +12442,7 @@
         <v>382</v>
       </c>
       <c r="C167" s="76"/>
-      <c r="D167" s="106"/>
+      <c r="D167" s="99"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="75"/>
@@ -12450,7 +12450,7 @@
         <v>383</v>
       </c>
       <c r="C168" s="76"/>
-      <c r="D168" s="106"/>
+      <c r="D168" s="99"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="9">
@@ -12462,7 +12462,7 @@
       <c r="C169" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="D169" s="116">
+      <c r="D169" s="92">
         <v>0.75</v>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
         <v>386</v>
       </c>
       <c r="C170" s="77"/>
-      <c r="D170" s="116"/>
+      <c r="D170" s="92"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="75"/>
@@ -12482,7 +12482,7 @@
         <v>387</v>
       </c>
       <c r="C171" s="77"/>
-      <c r="D171" s="116"/>
+      <c r="D171" s="92"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="75"/>
@@ -12490,7 +12490,7 @@
         <v>388</v>
       </c>
       <c r="C172" s="77"/>
-      <c r="D172" s="116"/>
+      <c r="D172" s="92"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="75">
@@ -12500,7 +12500,7 @@
         <v>389</v>
       </c>
       <c r="C173" s="77"/>
-      <c r="D173" s="116"/>
+      <c r="D173" s="92"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="75"/>
@@ -12508,7 +12508,7 @@
         <v>390</v>
       </c>
       <c r="C174" s="77"/>
-      <c r="D174" s="116"/>
+      <c r="D174" s="92"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="75"/>
@@ -12516,7 +12516,7 @@
         <v>391</v>
       </c>
       <c r="C175" s="77"/>
-      <c r="D175" s="116"/>
+      <c r="D175" s="92"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="75">
@@ -12526,7 +12526,7 @@
         <v>392</v>
       </c>
       <c r="C176" s="77"/>
-      <c r="D176" s="116"/>
+      <c r="D176" s="92"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="75"/>
@@ -12534,7 +12534,7 @@
         <v>393</v>
       </c>
       <c r="C177" s="77"/>
-      <c r="D177" s="116"/>
+      <c r="D177" s="92"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="75"/>
@@ -12542,7 +12542,7 @@
         <v>394</v>
       </c>
       <c r="C178" s="77"/>
-      <c r="D178" s="116"/>
+      <c r="D178" s="92"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="75"/>
@@ -12550,7 +12550,7 @@
         <v>395</v>
       </c>
       <c r="C179" s="77"/>
-      <c r="D179" s="116"/>
+      <c r="D179" s="92"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="75"/>
@@ -12558,7 +12558,7 @@
         <v>396</v>
       </c>
       <c r="C180" s="77"/>
-      <c r="D180" s="116"/>
+      <c r="D180" s="92"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="9">
@@ -12570,7 +12570,7 @@
       <c r="C181" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D181" s="117">
+      <c r="D181" s="91">
         <v>0.75</v>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
         <v>399</v>
       </c>
       <c r="C182" s="77"/>
-      <c r="D182" s="117"/>
+      <c r="D182" s="91"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="75"/>
@@ -12590,7 +12590,7 @@
         <v>400</v>
       </c>
       <c r="C183" s="77"/>
-      <c r="D183" s="117"/>
+      <c r="D183" s="91"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="75"/>
@@ -12598,7 +12598,7 @@
         <v>401</v>
       </c>
       <c r="C184" s="77"/>
-      <c r="D184" s="117"/>
+      <c r="D184" s="91"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="75">
@@ -12608,7 +12608,7 @@
         <v>402</v>
       </c>
       <c r="C185" s="77"/>
-      <c r="D185" s="117"/>
+      <c r="D185" s="91"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="75"/>
@@ -12616,7 +12616,7 @@
         <v>403</v>
       </c>
       <c r="C186" s="77"/>
-      <c r="D186" s="117"/>
+      <c r="D186" s="91"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="75"/>
@@ -12624,7 +12624,7 @@
         <v>404</v>
       </c>
       <c r="C187" s="77"/>
-      <c r="D187" s="117"/>
+      <c r="D187" s="91"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="75">
@@ -12634,7 +12634,7 @@
         <v>405</v>
       </c>
       <c r="C188" s="77"/>
-      <c r="D188" s="117"/>
+      <c r="D188" s="91"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="75"/>
@@ -12642,7 +12642,7 @@
         <v>903</v>
       </c>
       <c r="C189" s="77"/>
-      <c r="D189" s="117"/>
+      <c r="D189" s="91"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="9">
@@ -12652,7 +12652,7 @@
         <v>406</v>
       </c>
       <c r="C190" s="77"/>
-      <c r="D190" s="117"/>
+      <c r="D190" s="91"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="7">
@@ -12662,7 +12662,7 @@
         <v>407</v>
       </c>
       <c r="C191" s="77"/>
-      <c r="D191" s="117"/>
+      <c r="D191" s="91"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="7">
@@ -12672,7 +12672,7 @@
         <v>408</v>
       </c>
       <c r="C192" s="77"/>
-      <c r="D192" s="117"/>
+      <c r="D192" s="91"/>
     </row>
     <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="9">
@@ -12684,7 +12684,7 @@
       <c r="C193" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="117">
+      <c r="D193" s="91">
         <v>0.75</v>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
         <v>411</v>
       </c>
       <c r="C194" s="70"/>
-      <c r="D194" s="117"/>
+      <c r="D194" s="91"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="75"/>
@@ -12704,7 +12704,7 @@
         <v>412</v>
       </c>
       <c r="C195" s="70"/>
-      <c r="D195" s="117"/>
+      <c r="D195" s="91"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="75"/>
@@ -12712,7 +12712,7 @@
         <v>413</v>
       </c>
       <c r="C196" s="70"/>
-      <c r="D196" s="117"/>
+      <c r="D196" s="91"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="75"/>
@@ -12720,7 +12720,7 @@
         <v>414</v>
       </c>
       <c r="C197" s="70"/>
-      <c r="D197" s="117"/>
+      <c r="D197" s="91"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="75"/>
@@ -12728,7 +12728,7 @@
         <v>415</v>
       </c>
       <c r="C198" s="70"/>
-      <c r="D198" s="117"/>
+      <c r="D198" s="91"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="75">
@@ -12738,7 +12738,7 @@
         <v>416</v>
       </c>
       <c r="C199" s="70"/>
-      <c r="D199" s="117"/>
+      <c r="D199" s="91"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="75"/>
@@ -12746,7 +12746,7 @@
         <v>417</v>
       </c>
       <c r="C200" s="70"/>
-      <c r="D200" s="117"/>
+      <c r="D200" s="91"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="75"/>
@@ -12754,7 +12754,7 @@
         <v>418</v>
       </c>
       <c r="C201" s="70"/>
-      <c r="D201" s="117"/>
+      <c r="D201" s="91"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="75"/>
@@ -12762,7 +12762,7 @@
         <v>419</v>
       </c>
       <c r="C202" s="70"/>
-      <c r="D202" s="117"/>
+      <c r="D202" s="91"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="75"/>
@@ -12770,7 +12770,7 @@
         <v>420</v>
       </c>
       <c r="C203" s="71"/>
-      <c r="D203" s="117"/>
+      <c r="D203" s="91"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="9">
@@ -12782,7 +12782,7 @@
       <c r="C204" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="D204" s="117">
+      <c r="D204" s="91">
         <v>0.5</v>
       </c>
     </row>
@@ -12794,7 +12794,7 @@
         <v>423</v>
       </c>
       <c r="C205" s="77"/>
-      <c r="D205" s="117"/>
+      <c r="D205" s="91"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="75"/>
@@ -12802,7 +12802,7 @@
         <v>424</v>
       </c>
       <c r="C206" s="77"/>
-      <c r="D206" s="117"/>
+      <c r="D206" s="91"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="75"/>
@@ -12810,7 +12810,7 @@
         <v>425</v>
       </c>
       <c r="C207" s="77"/>
-      <c r="D207" s="117"/>
+      <c r="D207" s="91"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="75"/>
@@ -12818,7 +12818,7 @@
         <v>426</v>
       </c>
       <c r="C208" s="77"/>
-      <c r="D208" s="117"/>
+      <c r="D208" s="91"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="75"/>
@@ -12826,7 +12826,7 @@
         <v>427</v>
       </c>
       <c r="C209" s="77"/>
-      <c r="D209" s="117"/>
+      <c r="D209" s="91"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="75">
@@ -12836,7 +12836,7 @@
         <v>428</v>
       </c>
       <c r="C210" s="77"/>
-      <c r="D210" s="117"/>
+      <c r="D210" s="91"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="75"/>
@@ -12844,7 +12844,7 @@
         <v>429</v>
       </c>
       <c r="C211" s="77"/>
-      <c r="D211" s="117"/>
+      <c r="D211" s="91"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="75"/>
@@ -12852,7 +12852,7 @@
         <v>430</v>
       </c>
       <c r="C212" s="77"/>
-      <c r="D212" s="117"/>
+      <c r="D212" s="91"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="75"/>
@@ -12860,7 +12860,7 @@
         <v>431</v>
       </c>
       <c r="C213" s="77"/>
-      <c r="D213" s="117"/>
+      <c r="D213" s="91"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="75"/>
@@ -12868,7 +12868,7 @@
         <v>432</v>
       </c>
       <c r="C214" s="77"/>
-      <c r="D214" s="117"/>
+      <c r="D214" s="91"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="75"/>
@@ -12876,7 +12876,7 @@
         <v>433</v>
       </c>
       <c r="C215" s="77"/>
-      <c r="D215" s="117"/>
+      <c r="D215" s="91"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="75">
@@ -12886,7 +12886,7 @@
         <v>434</v>
       </c>
       <c r="C216" s="77"/>
-      <c r="D216" s="117"/>
+      <c r="D216" s="91"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="75"/>
@@ -12894,7 +12894,7 @@
         <v>435</v>
       </c>
       <c r="C217" s="77"/>
-      <c r="D217" s="117"/>
+      <c r="D217" s="91"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="75"/>
@@ -12902,7 +12902,7 @@
         <v>436</v>
       </c>
       <c r="C218" s="77"/>
-      <c r="D218" s="117"/>
+      <c r="D218" s="91"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="75"/>
@@ -12910,7 +12910,7 @@
         <v>437</v>
       </c>
       <c r="C219" s="77"/>
-      <c r="D219" s="117"/>
+      <c r="D219" s="91"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="75"/>
@@ -12918,7 +12918,7 @@
         <v>438</v>
       </c>
       <c r="C220" s="77"/>
-      <c r="D220" s="117"/>
+      <c r="D220" s="91"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="9">
@@ -12930,7 +12930,7 @@
       <c r="C221" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="D221" s="117">
+      <c r="D221" s="91">
         <v>0.25</v>
       </c>
     </row>
@@ -12942,7 +12942,7 @@
         <v>441</v>
       </c>
       <c r="C222" s="77"/>
-      <c r="D222" s="117"/>
+      <c r="D222" s="91"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="75"/>
@@ -12950,7 +12950,7 @@
         <v>442</v>
       </c>
       <c r="C223" s="77"/>
-      <c r="D223" s="117"/>
+      <c r="D223" s="91"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="75"/>
@@ -12958,7 +12958,7 @@
         <v>443</v>
       </c>
       <c r="C224" s="77"/>
-      <c r="D224" s="117"/>
+      <c r="D224" s="91"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="75">
@@ -12968,7 +12968,7 @@
         <v>444</v>
       </c>
       <c r="C225" s="77"/>
-      <c r="D225" s="117"/>
+      <c r="D225" s="91"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="75"/>
@@ -12976,7 +12976,7 @@
         <v>445</v>
       </c>
       <c r="C226" s="77"/>
-      <c r="D226" s="117"/>
+      <c r="D226" s="91"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="75"/>
@@ -12984,7 +12984,7 @@
         <v>446</v>
       </c>
       <c r="C227" s="77"/>
-      <c r="D227" s="117"/>
+      <c r="D227" s="91"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="75">
@@ -12994,7 +12994,7 @@
         <v>447</v>
       </c>
       <c r="C228" s="77"/>
-      <c r="D228" s="117"/>
+      <c r="D228" s="91"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="75"/>
@@ -13002,7 +13002,7 @@
         <v>448</v>
       </c>
       <c r="C229" s="77"/>
-      <c r="D229" s="117"/>
+      <c r="D229" s="91"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="75"/>
@@ -13010,7 +13010,7 @@
         <v>449</v>
       </c>
       <c r="C230" s="77"/>
-      <c r="D230" s="117"/>
+      <c r="D230" s="91"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="9">
@@ -13022,7 +13022,7 @@
       <c r="C231" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="D231" s="117">
+      <c r="D231" s="91">
         <v>1</v>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
         <v>103</v>
       </c>
       <c r="C232" s="77"/>
-      <c r="D232" s="117"/>
+      <c r="D232" s="91"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="75"/>
@@ -13042,7 +13042,7 @@
         <v>452</v>
       </c>
       <c r="C233" s="77"/>
-      <c r="D233" s="117"/>
+      <c r="D233" s="91"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="75"/>
@@ -13050,7 +13050,7 @@
         <v>453</v>
       </c>
       <c r="C234" s="77"/>
-      <c r="D234" s="117"/>
+      <c r="D234" s="91"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="75">
@@ -13060,7 +13060,7 @@
         <v>104</v>
       </c>
       <c r="C235" s="77"/>
-      <c r="D235" s="117"/>
+      <c r="D235" s="91"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="75"/>
@@ -13068,7 +13068,7 @@
         <v>454</v>
       </c>
       <c r="C236" s="77"/>
-      <c r="D236" s="117"/>
+      <c r="D236" s="91"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="75"/>
@@ -13076,7 +13076,7 @@
         <v>455</v>
       </c>
       <c r="C237" s="77"/>
-      <c r="D237" s="117"/>
+      <c r="D237" s="91"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="75">
@@ -13086,7 +13086,7 @@
         <v>105</v>
       </c>
       <c r="C238" s="77"/>
-      <c r="D238" s="117"/>
+      <c r="D238" s="91"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="75"/>
@@ -13094,7 +13094,7 @@
         <v>456</v>
       </c>
       <c r="C239" s="77"/>
-      <c r="D239" s="117"/>
+      <c r="D239" s="91"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="75"/>
@@ -13102,7 +13102,7 @@
         <v>457</v>
       </c>
       <c r="C240" s="77"/>
-      <c r="D240" s="117"/>
+      <c r="D240" s="91"/>
     </row>
     <row r="241" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="9">
@@ -13114,7 +13114,7 @@
       <c r="C241" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="D241" s="117">
+      <c r="D241" s="91">
         <v>0.5</v>
       </c>
     </row>
@@ -13126,7 +13126,7 @@
         <v>460</v>
       </c>
       <c r="C242" s="77"/>
-      <c r="D242" s="117"/>
+      <c r="D242" s="91"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="75"/>
@@ -13134,7 +13134,7 @@
         <v>461</v>
       </c>
       <c r="C243" s="77"/>
-      <c r="D243" s="117"/>
+      <c r="D243" s="91"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="75"/>
@@ -13142,7 +13142,7 @@
         <v>462</v>
       </c>
       <c r="C244" s="77"/>
-      <c r="D244" s="117"/>
+      <c r="D244" s="91"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="75"/>
@@ -13150,7 +13150,7 @@
         <v>463</v>
       </c>
       <c r="C245" s="77"/>
-      <c r="D245" s="117"/>
+      <c r="D245" s="91"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="75">
@@ -13160,7 +13160,7 @@
         <v>464</v>
       </c>
       <c r="C246" s="77"/>
-      <c r="D246" s="117"/>
+      <c r="D246" s="91"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="75"/>
@@ -13168,7 +13168,7 @@
         <v>465</v>
       </c>
       <c r="C247" s="77"/>
-      <c r="D247" s="117"/>
+      <c r="D247" s="91"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="75"/>
@@ -13176,7 +13176,7 @@
         <v>466</v>
       </c>
       <c r="C248" s="77"/>
-      <c r="D248" s="117"/>
+      <c r="D248" s="91"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="75"/>
@@ -13184,7 +13184,7 @@
         <v>467</v>
       </c>
       <c r="C249" s="77"/>
-      <c r="D249" s="117"/>
+      <c r="D249" s="91"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="75"/>
@@ -13192,7 +13192,7 @@
         <v>468</v>
       </c>
       <c r="C250" s="77"/>
-      <c r="D250" s="117"/>
+      <c r="D250" s="91"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="75">
@@ -13202,7 +13202,7 @@
         <v>469</v>
       </c>
       <c r="C251" s="77"/>
-      <c r="D251" s="117"/>
+      <c r="D251" s="91"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="75"/>
@@ -13210,7 +13210,7 @@
         <v>470</v>
       </c>
       <c r="C252" s="77"/>
-      <c r="D252" s="117"/>
+      <c r="D252" s="91"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="75"/>
@@ -13218,7 +13218,7 @@
         <v>471</v>
       </c>
       <c r="C253" s="77"/>
-      <c r="D253" s="117"/>
+      <c r="D253" s="91"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="75"/>
@@ -13226,7 +13226,7 @@
         <v>472</v>
       </c>
       <c r="C254" s="77"/>
-      <c r="D254" s="117"/>
+      <c r="D254" s="91"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="75"/>
@@ -13234,7 +13234,7 @@
         <v>473</v>
       </c>
       <c r="C255" s="77"/>
-      <c r="D255" s="117"/>
+      <c r="D255" s="91"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="75">
@@ -13244,7 +13244,7 @@
         <v>474</v>
       </c>
       <c r="C256" s="77"/>
-      <c r="D256" s="117"/>
+      <c r="D256" s="91"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="75"/>
@@ -13252,7 +13252,7 @@
         <v>475</v>
       </c>
       <c r="C257" s="77"/>
-      <c r="D257" s="117"/>
+      <c r="D257" s="91"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="75"/>
@@ -13260,7 +13260,7 @@
         <v>476</v>
       </c>
       <c r="C258" s="77"/>
-      <c r="D258" s="117"/>
+      <c r="D258" s="91"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="75"/>
@@ -13268,178 +13268,158 @@
         <v>477</v>
       </c>
       <c r="C259" s="77"/>
-      <c r="D259" s="117"/>
+      <c r="D259" s="91"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="117">
+      <c r="A260" s="91">
         <v>14.5</v>
       </c>
       <c r="B260" s="47" t="s">
         <v>478</v>
       </c>
       <c r="C260" s="77"/>
-      <c r="D260" s="117"/>
+      <c r="D260" s="91"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" s="117"/>
+      <c r="A261" s="91"/>
       <c r="B261" s="48" t="s">
         <v>479</v>
       </c>
       <c r="C261" s="77"/>
-      <c r="D261" s="117"/>
+      <c r="D261" s="91"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" s="117"/>
+      <c r="A262" s="91"/>
       <c r="B262" s="48" t="s">
         <v>480</v>
       </c>
       <c r="C262" s="77"/>
-      <c r="D262" s="117"/>
+      <c r="D262" s="91"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" s="117"/>
+      <c r="A263" s="91"/>
       <c r="B263" s="48" t="s">
         <v>481</v>
       </c>
       <c r="C263" s="77"/>
-      <c r="D263" s="117"/>
+      <c r="D263" s="91"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" s="117">
+      <c r="A264" s="91">
         <v>14.6</v>
       </c>
       <c r="B264" s="47" t="s">
         <v>482</v>
       </c>
       <c r="C264" s="77"/>
-      <c r="D264" s="117"/>
+      <c r="D264" s="91"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" s="117"/>
+      <c r="A265" s="91"/>
       <c r="B265" s="48" t="s">
         <v>483</v>
       </c>
       <c r="C265" s="77"/>
-      <c r="D265" s="117"/>
+      <c r="D265" s="91"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" s="117"/>
+      <c r="A266" s="91"/>
       <c r="B266" s="48" t="s">
         <v>484</v>
       </c>
       <c r="C266" s="77"/>
-      <c r="D266" s="117"/>
+      <c r="D266" s="91"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" s="117"/>
+      <c r="A267" s="91"/>
       <c r="B267" s="48" t="s">
         <v>485</v>
       </c>
       <c r="C267" s="77"/>
-      <c r="D267" s="117"/>
+      <c r="D267" s="91"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="117"/>
+      <c r="A268" s="91"/>
       <c r="B268" s="48" t="s">
         <v>486</v>
       </c>
       <c r="C268" s="77"/>
-      <c r="D268" s="117"/>
+      <c r="D268" s="91"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="117">
+      <c r="A269" s="91">
         <v>14.7</v>
       </c>
       <c r="B269" s="47" t="s">
         <v>487</v>
       </c>
       <c r="C269" s="77"/>
-      <c r="D269" s="117"/>
+      <c r="D269" s="91"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="117"/>
+      <c r="A270" s="91"/>
       <c r="B270" s="48" t="s">
         <v>488</v>
       </c>
       <c r="C270" s="77"/>
-      <c r="D270" s="117"/>
+      <c r="D270" s="91"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="117"/>
+      <c r="A271" s="91"/>
       <c r="B271" s="48" t="s">
         <v>489</v>
       </c>
       <c r="C271" s="77"/>
-      <c r="D271" s="117"/>
+      <c r="D271" s="91"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="117"/>
+      <c r="A272" s="91"/>
       <c r="B272" s="48" t="s">
         <v>490</v>
       </c>
       <c r="C272" s="77"/>
-      <c r="D272" s="117"/>
+      <c r="D272" s="91"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="117"/>
+      <c r="A273" s="91"/>
       <c r="B273" s="48" t="s">
         <v>491</v>
       </c>
       <c r="C273" s="77"/>
-      <c r="D273" s="117"/>
+      <c r="D273" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="C241:C273"/>
-    <mergeCell ref="D241:D273"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="A256:A259"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A269:A273"/>
-    <mergeCell ref="C221:C230"/>
-    <mergeCell ref="D221:D230"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="D231:D240"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="C193:C203"/>
-    <mergeCell ref="D193:D203"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="C204:C220"/>
-    <mergeCell ref="D204:D220"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="C169:C180"/>
-    <mergeCell ref="D169:D180"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="C181:C192"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="D53:D67"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
     <mergeCell ref="C79:C96"/>
     <mergeCell ref="D79:D96"/>
     <mergeCell ref="A80:A86"/>
@@ -13462,36 +13442,56 @@
     <mergeCell ref="D106:D115"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A115"/>
-    <mergeCell ref="C53:C67"/>
-    <mergeCell ref="D53:D67"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="D18:D30"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="C169:C180"/>
+    <mergeCell ref="D169:D180"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="C181:C192"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="C193:C203"/>
+    <mergeCell ref="D193:D203"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="C204:C220"/>
+    <mergeCell ref="D204:D220"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="C221:C230"/>
+    <mergeCell ref="D221:D230"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="D231:D240"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="C241:C273"/>
+    <mergeCell ref="D241:D273"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A273"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14175,15 +14175,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C30:C67"/>
     <mergeCell ref="D30:D67"/>
     <mergeCell ref="E30:E67"/>
@@ -14196,6 +14187,15 @@
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15222,6 +15222,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046A31122186B324295ACC58F7AF02D2C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b617112a4bb9debf8776548e623995">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52ef429a-33cb-47a2-9df9-548aca62905c" xmlns:ns3="3780c0a3-9b63-4393-8bfa-e0381b24f108" xmlns:ns4="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a03cb1a3de72c882342d9ed0946efa9f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52ef429a-33cb-47a2-9df9-548aca62905c"/>
@@ -15455,27 +15475,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
+    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87F4909E-1BA8-41EF-A085-CE3BD974F0BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15493,23 +15512,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
-    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CP_Platform_Solution_Java_v1.4.xlsx
+++ b/CP_Platform_Solution_Java_v1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271347B7-F642-401A-9413-D73085F08A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29292A89-0AE9-4023-A462-468BD6426088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="5" activeTab="5" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
@@ -5419,69 +5419,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5499,6 +5436,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6632,6 +6632,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C20:C38"/>
+    <mergeCell ref="D20:D38"/>
+    <mergeCell ref="C5:C19"/>
+    <mergeCell ref="D5:D19"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A38"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="D54:D67"/>
     <mergeCell ref="A55:A58"/>
@@ -6641,16 +6651,6 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A38"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C20:C38"/>
-    <mergeCell ref="D20:D38"/>
-    <mergeCell ref="C5:C19"/>
-    <mergeCell ref="D5:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8127,25 +8127,31 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C23:C38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C39:C56"/>
-    <mergeCell ref="D39:D56"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C150:C163"/>
+    <mergeCell ref="D150:D163"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C131:C149"/>
+    <mergeCell ref="D131:D149"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C112:C130"/>
+    <mergeCell ref="D112:D130"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="C99:C111"/>
     <mergeCell ref="D99:D111"/>
     <mergeCell ref="A100:A103"/>
@@ -8162,31 +8168,25 @@
     <mergeCell ref="C82:C98"/>
     <mergeCell ref="D82:D98"/>
     <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C150:C163"/>
-    <mergeCell ref="D150:D163"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C131:C149"/>
-    <mergeCell ref="D131:D149"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C112:C130"/>
-    <mergeCell ref="D112:D130"/>
+    <mergeCell ref="C39:C56"/>
+    <mergeCell ref="D39:D56"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C23:C38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10900,11 +10900,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="D45:D57"/>
     <mergeCell ref="E45:E57"/>
     <mergeCell ref="C45:C57"/>
@@ -10913,11 +10913,11 @@
     <mergeCell ref="E5:E25"/>
     <mergeCell ref="D26:D44"/>
     <mergeCell ref="E26:E44"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10932,8 +10932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F55229-B443-49D0-8BFD-4739B86F2805}">
   <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -10987,7 +10987,7 @@
       <c r="B5" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="91" t="s">
         <v>784</v>
       </c>
       <c r="D5" s="88">
@@ -10995,105 +10995,105 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="114">
+      <c r="A6" s="93">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="115"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="115"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="C8" s="113"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="115"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C9" s="113"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="115"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C10" s="113"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="114">
+      <c r="A11" s="93">
         <v>1.2</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="115"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="C12" s="113"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="115"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C13" s="113"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="114">
+      <c r="A14" s="93">
         <v>1.4</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="113"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="115"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="C15" s="113"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="115"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="116"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -11106,111 +11106,111 @@
       <c r="C18" s="76" t="s">
         <v>798</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="96">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="114">
+      <c r="A19" s="93">
         <v>2.1</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>799</v>
       </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="117"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="115"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="48" t="s">
         <v>800</v>
       </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="117"/>
+      <c r="D20" s="96"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="115"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="48" t="s">
         <v>801</v>
       </c>
       <c r="C21" s="77"/>
-      <c r="D21" s="117"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="116"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="48" t="s">
         <v>802</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="117"/>
+      <c r="D22" s="96"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="114">
+      <c r="A23" s="93">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="117"/>
+      <c r="D23" s="96"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="115"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="48" t="s">
         <v>804</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="117"/>
+      <c r="D24" s="96"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="115"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="48" t="s">
         <v>805</v>
       </c>
       <c r="C25" s="77"/>
-      <c r="D25" s="117"/>
+      <c r="D25" s="96"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="116"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="48" t="s">
         <v>806</v>
       </c>
       <c r="C26" s="77"/>
-      <c r="D26" s="117"/>
+      <c r="D26" s="96"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="114">
+      <c r="A27" s="93">
         <v>2.6</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>807</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="117"/>
+      <c r="D27" s="96"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="115"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="48" t="s">
         <v>808</v>
       </c>
       <c r="C28" s="77"/>
-      <c r="D28" s="117"/>
+      <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="115"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="48" t="s">
         <v>809</v>
       </c>
       <c r="C29" s="77"/>
-      <c r="D29" s="117"/>
+      <c r="D29" s="96"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="116"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="48" t="s">
         <v>810</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="117"/>
+      <c r="D30" s="96"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
@@ -11219,7 +11219,7 @@
       <c r="B31" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="97" t="s">
         <v>733</v>
       </c>
       <c r="D31" s="82">
@@ -11233,7 +11233,7 @@
       <c r="B32" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="106"/>
+      <c r="C32" s="98"/>
       <c r="D32" s="83"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -11241,7 +11241,7 @@
       <c r="B33" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C33" s="106"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="83"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -11249,7 +11249,7 @@
       <c r="B34" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="106"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="83"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -11259,7 +11259,7 @@
       <c r="B35" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="106"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="83"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -11267,7 +11267,7 @@
       <c r="B36" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="C36" s="106"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="83"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -11275,7 +11275,7 @@
       <c r="B37" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C37" s="106"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="83"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -11283,7 +11283,7 @@
       <c r="B38" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="C38" s="106"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="83"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -11293,7 +11293,7 @@
       <c r="B39" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="107"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="90"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -11303,7 +11303,7 @@
       <c r="B40" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="100" t="s">
         <v>742</v>
       </c>
       <c r="D40" s="82">
@@ -11311,61 +11311,61 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="93">
+      <c r="A41" s="101">
         <v>4.2</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C41" s="106"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="83"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="94"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="98"/>
       <c r="D42" s="83"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="94"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="C43" s="106"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="83"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="94"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="106"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="83"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="94"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C45" s="106"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="83"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="94"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="C46" s="106"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="83"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="109"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="C47" s="106"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="83"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -11375,7 +11375,7 @@
       <c r="B48" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="106"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="83"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -11385,7 +11385,7 @@
       <c r="B49" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="C49" s="107"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="83"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -11395,27 +11395,27 @@
       <c r="B50" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="C50" s="108" t="s">
+      <c r="C50" s="100" t="s">
         <v>753</v>
       </c>
       <c r="D50" s="83"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="110">
+      <c r="A51" s="104">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C51" s="106"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="83"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="111"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="C52" s="107"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="90"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -11425,7 +11425,7 @@
       <c r="B53" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="97" t="s">
         <v>757</v>
       </c>
       <c r="D53" s="82">
@@ -11439,7 +11439,7 @@
       <c r="B54" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="C54" s="106"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="83"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -11447,7 +11447,7 @@
       <c r="B55" s="48" t="s">
         <v>759</v>
       </c>
-      <c r="C55" s="106"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="83"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -11455,7 +11455,7 @@
       <c r="B56" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="C56" s="106"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="83"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -11463,7 +11463,7 @@
       <c r="B57" s="48" t="s">
         <v>761</v>
       </c>
-      <c r="C57" s="106"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="83"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -11471,7 +11471,7 @@
       <c r="B58" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="C58" s="106"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="83"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -11479,7 +11479,7 @@
       <c r="B59" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="C59" s="106"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="83"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -11489,7 +11489,7 @@
       <c r="B60" s="47" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="106"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="83"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -11497,7 +11497,7 @@
       <c r="B61" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="C61" s="106"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="83"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -11505,7 +11505,7 @@
       <c r="B62" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="C62" s="106"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="83"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -11513,7 +11513,7 @@
       <c r="B63" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="C63" s="106"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="83"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -11523,7 +11523,7 @@
       <c r="B64" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="106"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="83"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -11533,7 +11533,7 @@
       <c r="B65" s="47" t="s">
         <v>768</v>
       </c>
-      <c r="C65" s="106"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="83"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -11541,7 +11541,7 @@
       <c r="B66" s="47" t="s">
         <v>769</v>
       </c>
-      <c r="C66" s="106"/>
+      <c r="C66" s="98"/>
       <c r="D66" s="83"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -11549,7 +11549,7 @@
       <c r="B67" s="47" t="s">
         <v>770</v>
       </c>
-      <c r="C67" s="107"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="90"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -11562,7 +11562,7 @@
       <c r="C68" s="76" t="s">
         <v>772</v>
       </c>
-      <c r="D68" s="99">
+      <c r="D68" s="106">
         <v>1.5</v>
       </c>
     </row>
@@ -11574,7 +11574,7 @@
         <v>773</v>
       </c>
       <c r="C69" s="76"/>
-      <c r="D69" s="99"/>
+      <c r="D69" s="106"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="75"/>
@@ -11582,7 +11582,7 @@
         <v>774</v>
       </c>
       <c r="C70" s="76"/>
-      <c r="D70" s="99"/>
+      <c r="D70" s="106"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="75"/>
@@ -11590,7 +11590,7 @@
         <v>775</v>
       </c>
       <c r="C71" s="76"/>
-      <c r="D71" s="99"/>
+      <c r="D71" s="106"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="75">
@@ -11600,7 +11600,7 @@
         <v>776</v>
       </c>
       <c r="C72" s="76"/>
-      <c r="D72" s="99"/>
+      <c r="D72" s="106"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="75"/>
@@ -11608,7 +11608,7 @@
         <v>777</v>
       </c>
       <c r="C73" s="76"/>
-      <c r="D73" s="99"/>
+      <c r="D73" s="106"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="75"/>
@@ -11616,7 +11616,7 @@
         <v>778</v>
       </c>
       <c r="C74" s="76"/>
-      <c r="D74" s="99"/>
+      <c r="D74" s="106"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="75">
@@ -11626,7 +11626,7 @@
         <v>779</v>
       </c>
       <c r="C75" s="76"/>
-      <c r="D75" s="99"/>
+      <c r="D75" s="106"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="75"/>
@@ -11634,7 +11634,7 @@
         <v>780</v>
       </c>
       <c r="C76" s="76"/>
-      <c r="D76" s="99"/>
+      <c r="D76" s="106"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="75"/>
@@ -11642,7 +11642,7 @@
         <v>781</v>
       </c>
       <c r="C77" s="76"/>
-      <c r="D77" s="99"/>
+      <c r="D77" s="106"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
@@ -11652,7 +11652,7 @@
         <v>782</v>
       </c>
       <c r="C78" s="76"/>
-      <c r="D78" s="99"/>
+      <c r="D78" s="106"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="53">
@@ -11661,372 +11661,372 @@
       <c r="B79" s="54" t="s">
         <v>811</v>
       </c>
-      <c r="C79" s="100" t="s">
+      <c r="C79" s="107" t="s">
         <v>812</v>
       </c>
-      <c r="D79" s="102">
+      <c r="D79" s="110">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="93">
+      <c r="A80" s="101">
         <v>9.1</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="C80" s="96"/>
-      <c r="D80" s="98"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="111"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="94"/>
+      <c r="A81" s="102"/>
       <c r="B81" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="C81" s="96"/>
-      <c r="D81" s="98"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="111"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="94"/>
+      <c r="A82" s="102"/>
       <c r="B82" s="56" t="s">
         <v>815</v>
       </c>
-      <c r="C82" s="96"/>
-      <c r="D82" s="98"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="111"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="94"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="C83" s="96"/>
-      <c r="D83" s="98"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="111"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="94"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="C84" s="96"/>
-      <c r="D84" s="98"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="111"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="94"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="56" t="s">
         <v>818</v>
       </c>
-      <c r="C85" s="96"/>
-      <c r="D85" s="98"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="111"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="104"/>
+      <c r="A86" s="113"/>
       <c r="B86" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="98"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="111"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="93">
+      <c r="A87" s="101">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="C87" s="96"/>
-      <c r="D87" s="98"/>
+      <c r="C87" s="108"/>
+      <c r="D87" s="111"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="94"/>
+      <c r="A88" s="102"/>
       <c r="B88" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="C88" s="96"/>
-      <c r="D88" s="98"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="111"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="94"/>
+      <c r="A89" s="102"/>
       <c r="B89" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="C89" s="96"/>
-      <c r="D89" s="98"/>
+      <c r="C89" s="108"/>
+      <c r="D89" s="111"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="104"/>
+      <c r="A90" s="113"/>
       <c r="B90" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="C90" s="96"/>
-      <c r="D90" s="98"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="111"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="93">
+      <c r="A91" s="101">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="C91" s="96"/>
-      <c r="D91" s="98"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="111"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="94"/>
+      <c r="A92" s="102"/>
       <c r="B92" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="96"/>
-      <c r="D92" s="98"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="111"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="104"/>
+      <c r="A93" s="113"/>
       <c r="B93" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="C93" s="96"/>
-      <c r="D93" s="98"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="111"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="93">
+      <c r="A94" s="101">
         <v>9.4</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>826</v>
       </c>
-      <c r="C94" s="96"/>
-      <c r="D94" s="98"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="111"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="94"/>
+      <c r="A95" s="102"/>
       <c r="B95" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="C95" s="96"/>
-      <c r="D95" s="98"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="111"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="104"/>
+      <c r="A96" s="113"/>
       <c r="B96" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="C96" s="101"/>
-      <c r="D96" s="103"/>
+      <c r="C96" s="109"/>
+      <c r="D96" s="112"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="93">
+      <c r="A97" s="101">
         <v>9.5</v>
       </c>
       <c r="B97" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="C97" s="95" t="s">
+      <c r="C97" s="115" t="s">
         <v>830</v>
       </c>
-      <c r="D97" s="97">
+      <c r="D97" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="94"/>
+      <c r="A98" s="102"/>
       <c r="B98" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="C98" s="96"/>
-      <c r="D98" s="98"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="111"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="94"/>
+      <c r="A99" s="102"/>
       <c r="B99" s="60" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="96"/>
-      <c r="D99" s="98"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="111"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="104"/>
+      <c r="A100" s="113"/>
       <c r="B100" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="C100" s="96"/>
-      <c r="D100" s="98"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="111"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="93">
+      <c r="A101" s="101">
         <v>9.6</v>
       </c>
       <c r="B101" s="59" t="s">
         <v>834</v>
       </c>
-      <c r="C101" s="96"/>
-      <c r="D101" s="98"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="111"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="94"/>
+      <c r="A102" s="102"/>
       <c r="B102" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="C102" s="96"/>
-      <c r="D102" s="98"/>
+      <c r="C102" s="108"/>
+      <c r="D102" s="111"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="94"/>
+      <c r="A103" s="102"/>
       <c r="B103" s="60" t="s">
         <v>836</v>
       </c>
-      <c r="C103" s="96"/>
-      <c r="D103" s="98"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="111"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="94"/>
+      <c r="A104" s="102"/>
       <c r="B104" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="C104" s="96"/>
-      <c r="D104" s="98"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="111"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="104"/>
+      <c r="A105" s="113"/>
       <c r="B105" s="60" t="s">
         <v>838</v>
       </c>
-      <c r="C105" s="101"/>
-      <c r="D105" s="103"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="112"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="93">
+      <c r="A106" s="101">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>839</v>
       </c>
-      <c r="C106" s="95" t="s">
+      <c r="C106" s="115" t="s">
         <v>840</v>
       </c>
-      <c r="D106" s="97">
+      <c r="D106" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="94"/>
+      <c r="A107" s="102"/>
       <c r="B107" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="98"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="111"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="104"/>
+      <c r="A108" s="113"/>
       <c r="B108" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="C108" s="96"/>
-      <c r="D108" s="98"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="111"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="93">
+      <c r="A109" s="101">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="C109" s="96"/>
-      <c r="D109" s="98"/>
+      <c r="C109" s="108"/>
+      <c r="D109" s="111"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="94"/>
+      <c r="A110" s="102"/>
       <c r="B110" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="98"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="111"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="104"/>
+      <c r="A111" s="113"/>
       <c r="B111" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="C111" s="96"/>
-      <c r="D111" s="98"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="111"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="93">
+      <c r="A112" s="101">
         <v>9.9</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="C112" s="96"/>
-      <c r="D112" s="98"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="111"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="94"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="C113" s="96"/>
-      <c r="D113" s="98"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="111"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="94"/>
+      <c r="A114" s="102"/>
       <c r="B114" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="C114" s="96"/>
-      <c r="D114" s="98"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="111"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="104"/>
+      <c r="A115" s="113"/>
       <c r="B115" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="C115" s="101"/>
-      <c r="D115" s="103"/>
+      <c r="C115" s="109"/>
+      <c r="D115" s="112"/>
     </row>
     <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="97">
+      <c r="A116" s="114">
         <v>9.1</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="C116" s="95" t="s">
+      <c r="C116" s="115" t="s">
         <v>851</v>
       </c>
-      <c r="D116" s="97">
+      <c r="D116" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="98"/>
+      <c r="A117" s="111"/>
       <c r="B117" s="60" t="s">
         <v>852</v>
       </c>
-      <c r="C117" s="96"/>
-      <c r="D117" s="98"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="111"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="98"/>
+      <c r="A118" s="111"/>
       <c r="B118" s="60" t="s">
         <v>853</v>
       </c>
-      <c r="C118" s="96"/>
-      <c r="D118" s="98"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="111"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="98"/>
+      <c r="A119" s="111"/>
       <c r="B119" s="60" t="s">
         <v>854</v>
       </c>
-      <c r="C119" s="96"/>
-      <c r="D119" s="98"/>
+      <c r="C119" s="108"/>
+      <c r="D119" s="111"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="103"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="C120" s="101"/>
-      <c r="D120" s="103"/>
+      <c r="C120" s="109"/>
+      <c r="D120" s="112"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="53">
@@ -12035,370 +12035,370 @@
       <c r="B121" s="54" t="s">
         <v>856</v>
       </c>
-      <c r="C121" s="95" t="s">
+      <c r="C121" s="115" t="s">
         <v>857</v>
       </c>
-      <c r="D121" s="97">
+      <c r="D121" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="93">
+      <c r="A122" s="101">
         <v>10.1</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>858</v>
       </c>
-      <c r="C122" s="96"/>
-      <c r="D122" s="98"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="111"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="94"/>
+      <c r="A123" s="102"/>
       <c r="B123" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="C123" s="96"/>
-      <c r="D123" s="98"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="111"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="94"/>
+      <c r="A124" s="102"/>
       <c r="B124" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C124" s="96"/>
-      <c r="D124" s="98"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="111"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="94"/>
+      <c r="A125" s="102"/>
       <c r="B125" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="C125" s="96"/>
-      <c r="D125" s="98"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="111"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="94"/>
+      <c r="A126" s="102"/>
       <c r="B126" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C126" s="96"/>
-      <c r="D126" s="98"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="111"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="94"/>
+      <c r="A127" s="102"/>
       <c r="B127" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="96"/>
-      <c r="D127" s="98"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="111"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="94"/>
+      <c r="A128" s="102"/>
       <c r="B128" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="C128" s="96"/>
-      <c r="D128" s="98"/>
+      <c r="C128" s="108"/>
+      <c r="D128" s="111"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="94"/>
+      <c r="A129" s="102"/>
       <c r="B129" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="C129" s="96"/>
-      <c r="D129" s="98"/>
+      <c r="C129" s="108"/>
+      <c r="D129" s="111"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="94"/>
+      <c r="A130" s="102"/>
       <c r="B130" s="57" t="s">
         <v>866</v>
       </c>
-      <c r="C130" s="96"/>
-      <c r="D130" s="98"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="111"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="94"/>
+      <c r="A131" s="102"/>
       <c r="B131" s="57" t="s">
         <v>867</v>
       </c>
-      <c r="C131" s="96"/>
-      <c r="D131" s="98"/>
+      <c r="C131" s="108"/>
+      <c r="D131" s="111"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="94"/>
+      <c r="A132" s="102"/>
       <c r="B132" s="57" t="s">
         <v>868</v>
       </c>
-      <c r="C132" s="96"/>
-      <c r="D132" s="98"/>
+      <c r="C132" s="108"/>
+      <c r="D132" s="111"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="94"/>
+      <c r="A133" s="102"/>
       <c r="B133" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="C133" s="96"/>
-      <c r="D133" s="98"/>
+      <c r="C133" s="108"/>
+      <c r="D133" s="111"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="94"/>
+      <c r="A134" s="102"/>
       <c r="B134" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="C134" s="96"/>
-      <c r="D134" s="98"/>
+      <c r="C134" s="108"/>
+      <c r="D134" s="111"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="94"/>
+      <c r="A135" s="102"/>
       <c r="B135" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="C135" s="96"/>
-      <c r="D135" s="98"/>
+      <c r="C135" s="108"/>
+      <c r="D135" s="111"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="94"/>
+      <c r="A136" s="102"/>
       <c r="B136" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="C136" s="96"/>
-      <c r="D136" s="98"/>
+      <c r="C136" s="108"/>
+      <c r="D136" s="111"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="94"/>
+      <c r="A137" s="102"/>
       <c r="B137" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="C137" s="96"/>
-      <c r="D137" s="98"/>
+      <c r="C137" s="108"/>
+      <c r="D137" s="111"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="94"/>
+      <c r="A138" s="102"/>
       <c r="B138" s="57" t="s">
         <v>874</v>
       </c>
-      <c r="C138" s="96"/>
-      <c r="D138" s="98"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="111"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="94"/>
+      <c r="A139" s="102"/>
       <c r="B139" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C139" s="96"/>
-      <c r="D139" s="98"/>
+      <c r="C139" s="108"/>
+      <c r="D139" s="111"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="94"/>
+      <c r="A140" s="102"/>
       <c r="B140" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C140" s="96"/>
-      <c r="D140" s="98"/>
+      <c r="C140" s="108"/>
+      <c r="D140" s="111"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="94"/>
+      <c r="A141" s="102"/>
       <c r="B141" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="C141" s="96"/>
-      <c r="D141" s="98"/>
+      <c r="C141" s="108"/>
+      <c r="D141" s="111"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="93">
+      <c r="A142" s="101">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="C142" s="96"/>
-      <c r="D142" s="98"/>
+      <c r="C142" s="108"/>
+      <c r="D142" s="111"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="94"/>
+      <c r="A143" s="102"/>
       <c r="B143" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="C143" s="96"/>
-      <c r="D143" s="98"/>
+      <c r="C143" s="108"/>
+      <c r="D143" s="111"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="94"/>
+      <c r="A144" s="102"/>
       <c r="B144" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="C144" s="96"/>
-      <c r="D144" s="98"/>
+      <c r="C144" s="108"/>
+      <c r="D144" s="111"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="94"/>
+      <c r="A145" s="102"/>
       <c r="B145" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="C145" s="96"/>
-      <c r="D145" s="98"/>
+      <c r="C145" s="108"/>
+      <c r="D145" s="111"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="94"/>
+      <c r="A146" s="102"/>
       <c r="B146" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="C146" s="96"/>
-      <c r="D146" s="98"/>
+      <c r="C146" s="108"/>
+      <c r="D146" s="111"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="94"/>
+      <c r="A147" s="102"/>
       <c r="B147" s="52" t="s">
         <v>883</v>
       </c>
-      <c r="C147" s="96"/>
-      <c r="D147" s="98"/>
+      <c r="C147" s="108"/>
+      <c r="D147" s="111"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="94"/>
+      <c r="A148" s="102"/>
       <c r="B148" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="C148" s="96"/>
-      <c r="D148" s="98"/>
+      <c r="C148" s="108"/>
+      <c r="D148" s="111"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="94"/>
+      <c r="A149" s="102"/>
       <c r="B149" s="62" t="s">
         <v>885</v>
       </c>
-      <c r="C149" s="96"/>
-      <c r="D149" s="98"/>
+      <c r="C149" s="108"/>
+      <c r="D149" s="111"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="94"/>
+      <c r="A150" s="102"/>
       <c r="B150" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="C150" s="96"/>
-      <c r="D150" s="98"/>
+      <c r="C150" s="108"/>
+      <c r="D150" s="111"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="94"/>
+      <c r="A151" s="102"/>
       <c r="B151" s="52" t="s">
         <v>887</v>
       </c>
-      <c r="C151" s="96"/>
-      <c r="D151" s="98"/>
+      <c r="C151" s="108"/>
+      <c r="D151" s="111"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="94"/>
+      <c r="A152" s="102"/>
       <c r="B152" s="62" t="s">
         <v>888</v>
       </c>
-      <c r="C152" s="96"/>
-      <c r="D152" s="98"/>
+      <c r="C152" s="108"/>
+      <c r="D152" s="111"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="94"/>
+      <c r="A153" s="102"/>
       <c r="B153" s="62" t="s">
         <v>889</v>
       </c>
-      <c r="C153" s="96"/>
-      <c r="D153" s="98"/>
+      <c r="C153" s="108"/>
+      <c r="D153" s="111"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="104"/>
+      <c r="A154" s="113"/>
       <c r="B154" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="C154" s="101"/>
-      <c r="D154" s="103"/>
+      <c r="C154" s="109"/>
+      <c r="D154" s="112"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="93">
+      <c r="A155" s="101">
         <v>10.3</v>
       </c>
       <c r="B155" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="C155" s="95" t="s">
+      <c r="C155" s="115" t="s">
         <v>892</v>
       </c>
-      <c r="D155" s="97">
+      <c r="D155" s="114">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="94"/>
+      <c r="A156" s="102"/>
       <c r="B156" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="C156" s="96"/>
-      <c r="D156" s="98"/>
+      <c r="C156" s="108"/>
+      <c r="D156" s="111"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="94"/>
+      <c r="A157" s="102"/>
       <c r="B157" s="60" t="s">
         <v>894</v>
       </c>
-      <c r="C157" s="96"/>
-      <c r="D157" s="98"/>
+      <c r="C157" s="108"/>
+      <c r="D157" s="111"/>
     </row>
     <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="93">
+      <c r="A158" s="101">
         <v>10.4</v>
       </c>
       <c r="B158" s="61" t="s">
         <v>895</v>
       </c>
-      <c r="C158" s="95" t="s">
+      <c r="C158" s="115" t="s">
         <v>896</v>
       </c>
-      <c r="D158" s="97">
+      <c r="D158" s="114">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="94"/>
+      <c r="A159" s="102"/>
       <c r="B159" s="60" t="s">
         <v>897</v>
       </c>
-      <c r="C159" s="96"/>
-      <c r="D159" s="98"/>
+      <c r="C159" s="108"/>
+      <c r="D159" s="111"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="94"/>
+      <c r="A160" s="102"/>
       <c r="B160" s="60" t="s">
         <v>898</v>
       </c>
-      <c r="C160" s="96"/>
-      <c r="D160" s="98"/>
+      <c r="C160" s="108"/>
+      <c r="D160" s="111"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="93">
+      <c r="A161" s="101">
         <v>10.5</v>
       </c>
       <c r="B161" s="61" t="s">
         <v>899</v>
       </c>
-      <c r="C161" s="95" t="s">
+      <c r="C161" s="115" t="s">
         <v>900</v>
       </c>
-      <c r="D161" s="97">
+      <c r="D161" s="114">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="94"/>
+      <c r="A162" s="102"/>
       <c r="B162" s="60" t="s">
         <v>901</v>
       </c>
-      <c r="C162" s="96"/>
-      <c r="D162" s="98"/>
+      <c r="C162" s="108"/>
+      <c r="D162" s="111"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="94"/>
+      <c r="A163" s="102"/>
       <c r="B163" s="60" t="s">
         <v>902</v>
       </c>
-      <c r="C163" s="96"/>
-      <c r="D163" s="98"/>
+      <c r="C163" s="108"/>
+      <c r="D163" s="111"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="9">
@@ -12410,7 +12410,7 @@
       <c r="C164" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="D164" s="99">
+      <c r="D164" s="106">
         <v>0.5</v>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
         <v>380</v>
       </c>
       <c r="C165" s="76"/>
-      <c r="D165" s="99"/>
+      <c r="D165" s="106"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="7">
@@ -12432,7 +12432,7 @@
         <v>381</v>
       </c>
       <c r="C166" s="76"/>
-      <c r="D166" s="99"/>
+      <c r="D166" s="106"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="75">
@@ -12442,7 +12442,7 @@
         <v>382</v>
       </c>
       <c r="C167" s="76"/>
-      <c r="D167" s="99"/>
+      <c r="D167" s="106"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="75"/>
@@ -12450,7 +12450,7 @@
         <v>383</v>
       </c>
       <c r="C168" s="76"/>
-      <c r="D168" s="99"/>
+      <c r="D168" s="106"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="9">
@@ -12462,7 +12462,7 @@
       <c r="C169" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="D169" s="92">
+      <c r="D169" s="116">
         <v>0.75</v>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
         <v>386</v>
       </c>
       <c r="C170" s="77"/>
-      <c r="D170" s="92"/>
+      <c r="D170" s="116"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="75"/>
@@ -12482,7 +12482,7 @@
         <v>387</v>
       </c>
       <c r="C171" s="77"/>
-      <c r="D171" s="92"/>
+      <c r="D171" s="116"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="75"/>
@@ -12490,7 +12490,7 @@
         <v>388</v>
       </c>
       <c r="C172" s="77"/>
-      <c r="D172" s="92"/>
+      <c r="D172" s="116"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="75">
@@ -12500,7 +12500,7 @@
         <v>389</v>
       </c>
       <c r="C173" s="77"/>
-      <c r="D173" s="92"/>
+      <c r="D173" s="116"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="75"/>
@@ -12508,7 +12508,7 @@
         <v>390</v>
       </c>
       <c r="C174" s="77"/>
-      <c r="D174" s="92"/>
+      <c r="D174" s="116"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="75"/>
@@ -12516,7 +12516,7 @@
         <v>391</v>
       </c>
       <c r="C175" s="77"/>
-      <c r="D175" s="92"/>
+      <c r="D175" s="116"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="75">
@@ -12526,7 +12526,7 @@
         <v>392</v>
       </c>
       <c r="C176" s="77"/>
-      <c r="D176" s="92"/>
+      <c r="D176" s="116"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="75"/>
@@ -12534,7 +12534,7 @@
         <v>393</v>
       </c>
       <c r="C177" s="77"/>
-      <c r="D177" s="92"/>
+      <c r="D177" s="116"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="75"/>
@@ -12542,7 +12542,7 @@
         <v>394</v>
       </c>
       <c r="C178" s="77"/>
-      <c r="D178" s="92"/>
+      <c r="D178" s="116"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="75"/>
@@ -12550,7 +12550,7 @@
         <v>395</v>
       </c>
       <c r="C179" s="77"/>
-      <c r="D179" s="92"/>
+      <c r="D179" s="116"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="75"/>
@@ -12558,7 +12558,7 @@
         <v>396</v>
       </c>
       <c r="C180" s="77"/>
-      <c r="D180" s="92"/>
+      <c r="D180" s="116"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="9">
@@ -12570,7 +12570,7 @@
       <c r="C181" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D181" s="91">
+      <c r="D181" s="117">
         <v>0.75</v>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
         <v>399</v>
       </c>
       <c r="C182" s="77"/>
-      <c r="D182" s="91"/>
+      <c r="D182" s="117"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="75"/>
@@ -12590,7 +12590,7 @@
         <v>400</v>
       </c>
       <c r="C183" s="77"/>
-      <c r="D183" s="91"/>
+      <c r="D183" s="117"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="75"/>
@@ -12598,7 +12598,7 @@
         <v>401</v>
       </c>
       <c r="C184" s="77"/>
-      <c r="D184" s="91"/>
+      <c r="D184" s="117"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="75">
@@ -12608,7 +12608,7 @@
         <v>402</v>
       </c>
       <c r="C185" s="77"/>
-      <c r="D185" s="91"/>
+      <c r="D185" s="117"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="75"/>
@@ -12616,7 +12616,7 @@
         <v>403</v>
       </c>
       <c r="C186" s="77"/>
-      <c r="D186" s="91"/>
+      <c r="D186" s="117"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="75"/>
@@ -12624,7 +12624,7 @@
         <v>404</v>
       </c>
       <c r="C187" s="77"/>
-      <c r="D187" s="91"/>
+      <c r="D187" s="117"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="75">
@@ -12634,7 +12634,7 @@
         <v>405</v>
       </c>
       <c r="C188" s="77"/>
-      <c r="D188" s="91"/>
+      <c r="D188" s="117"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="75"/>
@@ -12642,7 +12642,7 @@
         <v>903</v>
       </c>
       <c r="C189" s="77"/>
-      <c r="D189" s="91"/>
+      <c r="D189" s="117"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="9">
@@ -12652,7 +12652,7 @@
         <v>406</v>
       </c>
       <c r="C190" s="77"/>
-      <c r="D190" s="91"/>
+      <c r="D190" s="117"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="7">
@@ -12662,7 +12662,7 @@
         <v>407</v>
       </c>
       <c r="C191" s="77"/>
-      <c r="D191" s="91"/>
+      <c r="D191" s="117"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="7">
@@ -12672,7 +12672,7 @@
         <v>408</v>
       </c>
       <c r="C192" s="77"/>
-      <c r="D192" s="91"/>
+      <c r="D192" s="117"/>
     </row>
     <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="9">
@@ -12684,7 +12684,7 @@
       <c r="C193" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="91">
+      <c r="D193" s="117">
         <v>0.75</v>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
         <v>411</v>
       </c>
       <c r="C194" s="70"/>
-      <c r="D194" s="91"/>
+      <c r="D194" s="117"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="75"/>
@@ -12704,7 +12704,7 @@
         <v>412</v>
       </c>
       <c r="C195" s="70"/>
-      <c r="D195" s="91"/>
+      <c r="D195" s="117"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="75"/>
@@ -12712,7 +12712,7 @@
         <v>413</v>
       </c>
       <c r="C196" s="70"/>
-      <c r="D196" s="91"/>
+      <c r="D196" s="117"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="75"/>
@@ -12720,7 +12720,7 @@
         <v>414</v>
       </c>
       <c r="C197" s="70"/>
-      <c r="D197" s="91"/>
+      <c r="D197" s="117"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="75"/>
@@ -12728,7 +12728,7 @@
         <v>415</v>
       </c>
       <c r="C198" s="70"/>
-      <c r="D198" s="91"/>
+      <c r="D198" s="117"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="75">
@@ -12738,7 +12738,7 @@
         <v>416</v>
       </c>
       <c r="C199" s="70"/>
-      <c r="D199" s="91"/>
+      <c r="D199" s="117"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="75"/>
@@ -12746,7 +12746,7 @@
         <v>417</v>
       </c>
       <c r="C200" s="70"/>
-      <c r="D200" s="91"/>
+      <c r="D200" s="117"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="75"/>
@@ -12754,7 +12754,7 @@
         <v>418</v>
       </c>
       <c r="C201" s="70"/>
-      <c r="D201" s="91"/>
+      <c r="D201" s="117"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="75"/>
@@ -12762,7 +12762,7 @@
         <v>419</v>
       </c>
       <c r="C202" s="70"/>
-      <c r="D202" s="91"/>
+      <c r="D202" s="117"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="75"/>
@@ -12770,7 +12770,7 @@
         <v>420</v>
       </c>
       <c r="C203" s="71"/>
-      <c r="D203" s="91"/>
+      <c r="D203" s="117"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="9">
@@ -12782,7 +12782,7 @@
       <c r="C204" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="D204" s="91">
+      <c r="D204" s="117">
         <v>0.5</v>
       </c>
     </row>
@@ -12794,7 +12794,7 @@
         <v>423</v>
       </c>
       <c r="C205" s="77"/>
-      <c r="D205" s="91"/>
+      <c r="D205" s="117"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="75"/>
@@ -12802,7 +12802,7 @@
         <v>424</v>
       </c>
       <c r="C206" s="77"/>
-      <c r="D206" s="91"/>
+      <c r="D206" s="117"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="75"/>
@@ -12810,7 +12810,7 @@
         <v>425</v>
       </c>
       <c r="C207" s="77"/>
-      <c r="D207" s="91"/>
+      <c r="D207" s="117"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="75"/>
@@ -12818,7 +12818,7 @@
         <v>426</v>
       </c>
       <c r="C208" s="77"/>
-      <c r="D208" s="91"/>
+      <c r="D208" s="117"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="75"/>
@@ -12826,7 +12826,7 @@
         <v>427</v>
       </c>
       <c r="C209" s="77"/>
-      <c r="D209" s="91"/>
+      <c r="D209" s="117"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="75">
@@ -12836,7 +12836,7 @@
         <v>428</v>
       </c>
       <c r="C210" s="77"/>
-      <c r="D210" s="91"/>
+      <c r="D210" s="117"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="75"/>
@@ -12844,7 +12844,7 @@
         <v>429</v>
       </c>
       <c r="C211" s="77"/>
-      <c r="D211" s="91"/>
+      <c r="D211" s="117"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="75"/>
@@ -12852,7 +12852,7 @@
         <v>430</v>
       </c>
       <c r="C212" s="77"/>
-      <c r="D212" s="91"/>
+      <c r="D212" s="117"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="75"/>
@@ -12860,7 +12860,7 @@
         <v>431</v>
       </c>
       <c r="C213" s="77"/>
-      <c r="D213" s="91"/>
+      <c r="D213" s="117"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="75"/>
@@ -12868,7 +12868,7 @@
         <v>432</v>
       </c>
       <c r="C214" s="77"/>
-      <c r="D214" s="91"/>
+      <c r="D214" s="117"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="75"/>
@@ -12876,7 +12876,7 @@
         <v>433</v>
       </c>
       <c r="C215" s="77"/>
-      <c r="D215" s="91"/>
+      <c r="D215" s="117"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="75">
@@ -12886,7 +12886,7 @@
         <v>434</v>
       </c>
       <c r="C216" s="77"/>
-      <c r="D216" s="91"/>
+      <c r="D216" s="117"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="75"/>
@@ -12894,7 +12894,7 @@
         <v>435</v>
       </c>
       <c r="C217" s="77"/>
-      <c r="D217" s="91"/>
+      <c r="D217" s="117"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="75"/>
@@ -12902,7 +12902,7 @@
         <v>436</v>
       </c>
       <c r="C218" s="77"/>
-      <c r="D218" s="91"/>
+      <c r="D218" s="117"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="75"/>
@@ -12910,7 +12910,7 @@
         <v>437</v>
       </c>
       <c r="C219" s="77"/>
-      <c r="D219" s="91"/>
+      <c r="D219" s="117"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="75"/>
@@ -12918,7 +12918,7 @@
         <v>438</v>
       </c>
       <c r="C220" s="77"/>
-      <c r="D220" s="91"/>
+      <c r="D220" s="117"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="9">
@@ -12930,7 +12930,7 @@
       <c r="C221" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="D221" s="91">
+      <c r="D221" s="117">
         <v>0.25</v>
       </c>
     </row>
@@ -12942,7 +12942,7 @@
         <v>441</v>
       </c>
       <c r="C222" s="77"/>
-      <c r="D222" s="91"/>
+      <c r="D222" s="117"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="75"/>
@@ -12950,7 +12950,7 @@
         <v>442</v>
       </c>
       <c r="C223" s="77"/>
-      <c r="D223" s="91"/>
+      <c r="D223" s="117"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="75"/>
@@ -12958,7 +12958,7 @@
         <v>443</v>
       </c>
       <c r="C224" s="77"/>
-      <c r="D224" s="91"/>
+      <c r="D224" s="117"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="75">
@@ -12968,7 +12968,7 @@
         <v>444</v>
       </c>
       <c r="C225" s="77"/>
-      <c r="D225" s="91"/>
+      <c r="D225" s="117"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="75"/>
@@ -12976,7 +12976,7 @@
         <v>445</v>
       </c>
       <c r="C226" s="77"/>
-      <c r="D226" s="91"/>
+      <c r="D226" s="117"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="75"/>
@@ -12984,7 +12984,7 @@
         <v>446</v>
       </c>
       <c r="C227" s="77"/>
-      <c r="D227" s="91"/>
+      <c r="D227" s="117"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="75">
@@ -12994,7 +12994,7 @@
         <v>447</v>
       </c>
       <c r="C228" s="77"/>
-      <c r="D228" s="91"/>
+      <c r="D228" s="117"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="75"/>
@@ -13002,7 +13002,7 @@
         <v>448</v>
       </c>
       <c r="C229" s="77"/>
-      <c r="D229" s="91"/>
+      <c r="D229" s="117"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="75"/>
@@ -13010,7 +13010,7 @@
         <v>449</v>
       </c>
       <c r="C230" s="77"/>
-      <c r="D230" s="91"/>
+      <c r="D230" s="117"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="9">
@@ -13022,7 +13022,7 @@
       <c r="C231" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="D231" s="91">
+      <c r="D231" s="117">
         <v>1</v>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
         <v>103</v>
       </c>
       <c r="C232" s="77"/>
-      <c r="D232" s="91"/>
+      <c r="D232" s="117"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="75"/>
@@ -13042,7 +13042,7 @@
         <v>452</v>
       </c>
       <c r="C233" s="77"/>
-      <c r="D233" s="91"/>
+      <c r="D233" s="117"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="75"/>
@@ -13050,7 +13050,7 @@
         <v>453</v>
       </c>
       <c r="C234" s="77"/>
-      <c r="D234" s="91"/>
+      <c r="D234" s="117"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="75">
@@ -13060,7 +13060,7 @@
         <v>104</v>
       </c>
       <c r="C235" s="77"/>
-      <c r="D235" s="91"/>
+      <c r="D235" s="117"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="75"/>
@@ -13068,7 +13068,7 @@
         <v>454</v>
       </c>
       <c r="C236" s="77"/>
-      <c r="D236" s="91"/>
+      <c r="D236" s="117"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="75"/>
@@ -13076,7 +13076,7 @@
         <v>455</v>
       </c>
       <c r="C237" s="77"/>
-      <c r="D237" s="91"/>
+      <c r="D237" s="117"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="75">
@@ -13086,7 +13086,7 @@
         <v>105</v>
       </c>
       <c r="C238" s="77"/>
-      <c r="D238" s="91"/>
+      <c r="D238" s="117"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="75"/>
@@ -13094,7 +13094,7 @@
         <v>456</v>
       </c>
       <c r="C239" s="77"/>
-      <c r="D239" s="91"/>
+      <c r="D239" s="117"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="75"/>
@@ -13102,7 +13102,7 @@
         <v>457</v>
       </c>
       <c r="C240" s="77"/>
-      <c r="D240" s="91"/>
+      <c r="D240" s="117"/>
     </row>
     <row r="241" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="9">
@@ -13114,7 +13114,7 @@
       <c r="C241" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="D241" s="91">
+      <c r="D241" s="117">
         <v>0.5</v>
       </c>
     </row>
@@ -13126,7 +13126,7 @@
         <v>460</v>
       </c>
       <c r="C242" s="77"/>
-      <c r="D242" s="91"/>
+      <c r="D242" s="117"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="75"/>
@@ -13134,7 +13134,7 @@
         <v>461</v>
       </c>
       <c r="C243" s="77"/>
-      <c r="D243" s="91"/>
+      <c r="D243" s="117"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="75"/>
@@ -13142,7 +13142,7 @@
         <v>462</v>
       </c>
       <c r="C244" s="77"/>
-      <c r="D244" s="91"/>
+      <c r="D244" s="117"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="75"/>
@@ -13150,7 +13150,7 @@
         <v>463</v>
       </c>
       <c r="C245" s="77"/>
-      <c r="D245" s="91"/>
+      <c r="D245" s="117"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="75">
@@ -13160,7 +13160,7 @@
         <v>464</v>
       </c>
       <c r="C246" s="77"/>
-      <c r="D246" s="91"/>
+      <c r="D246" s="117"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="75"/>
@@ -13168,7 +13168,7 @@
         <v>465</v>
       </c>
       <c r="C247" s="77"/>
-      <c r="D247" s="91"/>
+      <c r="D247" s="117"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="75"/>
@@ -13176,7 +13176,7 @@
         <v>466</v>
       </c>
       <c r="C248" s="77"/>
-      <c r="D248" s="91"/>
+      <c r="D248" s="117"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="75"/>
@@ -13184,7 +13184,7 @@
         <v>467</v>
       </c>
       <c r="C249" s="77"/>
-      <c r="D249" s="91"/>
+      <c r="D249" s="117"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="75"/>
@@ -13192,7 +13192,7 @@
         <v>468</v>
       </c>
       <c r="C250" s="77"/>
-      <c r="D250" s="91"/>
+      <c r="D250" s="117"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="75">
@@ -13202,7 +13202,7 @@
         <v>469</v>
       </c>
       <c r="C251" s="77"/>
-      <c r="D251" s="91"/>
+      <c r="D251" s="117"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="75"/>
@@ -13210,7 +13210,7 @@
         <v>470</v>
       </c>
       <c r="C252" s="77"/>
-      <c r="D252" s="91"/>
+      <c r="D252" s="117"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="75"/>
@@ -13218,7 +13218,7 @@
         <v>471</v>
       </c>
       <c r="C253" s="77"/>
-      <c r="D253" s="91"/>
+      <c r="D253" s="117"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="75"/>
@@ -13226,7 +13226,7 @@
         <v>472</v>
       </c>
       <c r="C254" s="77"/>
-      <c r="D254" s="91"/>
+      <c r="D254" s="117"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="75"/>
@@ -13234,7 +13234,7 @@
         <v>473</v>
       </c>
       <c r="C255" s="77"/>
-      <c r="D255" s="91"/>
+      <c r="D255" s="117"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="75">
@@ -13244,7 +13244,7 @@
         <v>474</v>
       </c>
       <c r="C256" s="77"/>
-      <c r="D256" s="91"/>
+      <c r="D256" s="117"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="75"/>
@@ -13252,7 +13252,7 @@
         <v>475</v>
       </c>
       <c r="C257" s="77"/>
-      <c r="D257" s="91"/>
+      <c r="D257" s="117"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="75"/>
@@ -13260,7 +13260,7 @@
         <v>476</v>
       </c>
       <c r="C258" s="77"/>
-      <c r="D258" s="91"/>
+      <c r="D258" s="117"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="75"/>
@@ -13268,158 +13268,178 @@
         <v>477</v>
       </c>
       <c r="C259" s="77"/>
-      <c r="D259" s="91"/>
+      <c r="D259" s="117"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="91">
+      <c r="A260" s="117">
         <v>14.5</v>
       </c>
       <c r="B260" s="47" t="s">
         <v>478</v>
       </c>
       <c r="C260" s="77"/>
-      <c r="D260" s="91"/>
+      <c r="D260" s="117"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" s="91"/>
+      <c r="A261" s="117"/>
       <c r="B261" s="48" t="s">
         <v>479</v>
       </c>
       <c r="C261" s="77"/>
-      <c r="D261" s="91"/>
+      <c r="D261" s="117"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" s="91"/>
+      <c r="A262" s="117"/>
       <c r="B262" s="48" t="s">
         <v>480</v>
       </c>
       <c r="C262" s="77"/>
-      <c r="D262" s="91"/>
+      <c r="D262" s="117"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" s="91"/>
+      <c r="A263" s="117"/>
       <c r="B263" s="48" t="s">
         <v>481</v>
       </c>
       <c r="C263" s="77"/>
-      <c r="D263" s="91"/>
+      <c r="D263" s="117"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" s="91">
+      <c r="A264" s="117">
         <v>14.6</v>
       </c>
       <c r="B264" s="47" t="s">
         <v>482</v>
       </c>
       <c r="C264" s="77"/>
-      <c r="D264" s="91"/>
+      <c r="D264" s="117"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" s="91"/>
+      <c r="A265" s="117"/>
       <c r="B265" s="48" t="s">
         <v>483</v>
       </c>
       <c r="C265" s="77"/>
-      <c r="D265" s="91"/>
+      <c r="D265" s="117"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" s="91"/>
+      <c r="A266" s="117"/>
       <c r="B266" s="48" t="s">
         <v>484</v>
       </c>
       <c r="C266" s="77"/>
-      <c r="D266" s="91"/>
+      <c r="D266" s="117"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" s="91"/>
+      <c r="A267" s="117"/>
       <c r="B267" s="48" t="s">
         <v>485</v>
       </c>
       <c r="C267" s="77"/>
-      <c r="D267" s="91"/>
+      <c r="D267" s="117"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="91"/>
+      <c r="A268" s="117"/>
       <c r="B268" s="48" t="s">
         <v>486</v>
       </c>
       <c r="C268" s="77"/>
-      <c r="D268" s="91"/>
+      <c r="D268" s="117"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="91">
+      <c r="A269" s="117">
         <v>14.7</v>
       </c>
       <c r="B269" s="47" t="s">
         <v>487</v>
       </c>
       <c r="C269" s="77"/>
-      <c r="D269" s="91"/>
+      <c r="D269" s="117"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="91"/>
+      <c r="A270" s="117"/>
       <c r="B270" s="48" t="s">
         <v>488</v>
       </c>
       <c r="C270" s="77"/>
-      <c r="D270" s="91"/>
+      <c r="D270" s="117"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="91"/>
+      <c r="A271" s="117"/>
       <c r="B271" s="48" t="s">
         <v>489</v>
       </c>
       <c r="C271" s="77"/>
-      <c r="D271" s="91"/>
+      <c r="D271" s="117"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="91"/>
+      <c r="A272" s="117"/>
       <c r="B272" s="48" t="s">
         <v>490</v>
       </c>
       <c r="C272" s="77"/>
-      <c r="D272" s="91"/>
+      <c r="D272" s="117"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="91"/>
+      <c r="A273" s="117"/>
       <c r="B273" s="48" t="s">
         <v>491</v>
       </c>
       <c r="C273" s="77"/>
-      <c r="D273" s="91"/>
+      <c r="D273" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="D18:D30"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C53:C67"/>
-    <mergeCell ref="D53:D67"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C241:C273"/>
+    <mergeCell ref="D241:D273"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="C221:C230"/>
+    <mergeCell ref="D221:D230"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="D231:D240"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="C193:C203"/>
+    <mergeCell ref="D193:D203"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="C204:C220"/>
+    <mergeCell ref="D204:D220"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="C169:C180"/>
+    <mergeCell ref="D169:D180"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="C181:C192"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
     <mergeCell ref="C79:C96"/>
     <mergeCell ref="D79:D96"/>
     <mergeCell ref="A80:A86"/>
@@ -13442,56 +13462,36 @@
     <mergeCell ref="D106:D115"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="C169:C180"/>
-    <mergeCell ref="D169:D180"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="C181:C192"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="C193:C203"/>
-    <mergeCell ref="D193:D203"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="C204:C220"/>
-    <mergeCell ref="D204:D220"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="C221:C230"/>
-    <mergeCell ref="D221:D230"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="D231:D240"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="C241:C273"/>
-    <mergeCell ref="D241:D273"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="A256:A259"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="D53:D67"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14175,6 +14175,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C30:C67"/>
     <mergeCell ref="D30:D67"/>
     <mergeCell ref="E30:E67"/>
@@ -14187,15 +14196,6 @@
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15222,26 +15222,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046A31122186B324295ACC58F7AF02D2C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b617112a4bb9debf8776548e623995">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52ef429a-33cb-47a2-9df9-548aca62905c" xmlns:ns3="3780c0a3-9b63-4393-8bfa-e0381b24f108" xmlns:ns4="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a03cb1a3de72c882342d9ed0946efa9f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52ef429a-33cb-47a2-9df9-548aca62905c"/>
@@ -15475,26 +15455,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
-    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87F4909E-1BA8-41EF-A085-CE3BD974F0BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15512,4 +15493,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
+    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CP_Platform_Solution_Java_v1.4.xlsx
+++ b/CP_Platform_Solution_Java_v1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29292A89-0AE9-4023-A462-468BD6426088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448D1807-69E2-4653-8EC1-3B9819F97ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="5" activeTab="5" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
@@ -5419,6 +5419,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5436,69 +5499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6632,16 +6632,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C20:C38"/>
-    <mergeCell ref="D20:D38"/>
-    <mergeCell ref="C5:C19"/>
-    <mergeCell ref="D5:D19"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A38"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="D54:D67"/>
     <mergeCell ref="A55:A58"/>
@@ -6651,6 +6641,16 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A38"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C20:C38"/>
+    <mergeCell ref="D20:D38"/>
+    <mergeCell ref="C5:C19"/>
+    <mergeCell ref="D5:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8127,6 +8127,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C23:C38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C39:C56"/>
+    <mergeCell ref="D39:D56"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C99:C111"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="D57:D72"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="D73:D81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C82:C98"/>
+    <mergeCell ref="D82:D98"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="C150:C163"/>
     <mergeCell ref="D150:D163"/>
     <mergeCell ref="A151:A156"/>
@@ -8143,50 +8187,6 @@
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="C112:C130"/>
     <mergeCell ref="D112:D130"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C99:C111"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="D57:D72"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="D73:D81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C82:C98"/>
-    <mergeCell ref="D82:D98"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="C39:C56"/>
-    <mergeCell ref="D39:D56"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="C23:C38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10900,11 +10900,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A57"/>
     <mergeCell ref="D45:D57"/>
     <mergeCell ref="E45:E57"/>
     <mergeCell ref="C45:C57"/>
@@ -10913,11 +10913,11 @@
     <mergeCell ref="E5:E25"/>
     <mergeCell ref="D26:D44"/>
     <mergeCell ref="E26:E44"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -10932,8 +10932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F55229-B443-49D0-8BFD-4739B86F2805}">
   <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -10987,7 +10987,7 @@
       <c r="B5" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="112" t="s">
         <v>784</v>
       </c>
       <c r="D5" s="88">
@@ -10995,105 +10995,105 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="93">
+      <c r="A6" s="114">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="94"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="94"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="94"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="94"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="93">
+      <c r="A11" s="114">
         <v>1.2</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="94"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="94"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="93">
+      <c r="A14" s="114">
         <v>1.4</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="94"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="94"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="95"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -11106,111 +11106,111 @@
       <c r="C18" s="76" t="s">
         <v>798</v>
       </c>
-      <c r="D18" s="96">
+      <c r="D18" s="117">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="93">
+      <c r="A19" s="114">
         <v>2.1</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>799</v>
       </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="96"/>
+      <c r="D19" s="117"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="48" t="s">
         <v>800</v>
       </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="96"/>
+      <c r="D20" s="117"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="94"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="48" t="s">
         <v>801</v>
       </c>
       <c r="C21" s="77"/>
-      <c r="D21" s="96"/>
+      <c r="D21" s="117"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="95"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="48" t="s">
         <v>802</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="96"/>
+      <c r="D22" s="117"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="93">
+      <c r="A23" s="114">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="96"/>
+      <c r="D23" s="117"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="94"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="48" t="s">
         <v>804</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="96"/>
+      <c r="D24" s="117"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="94"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="48" t="s">
         <v>805</v>
       </c>
       <c r="C25" s="77"/>
-      <c r="D25" s="96"/>
+      <c r="D25" s="117"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="95"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="48" t="s">
         <v>806</v>
       </c>
       <c r="C26" s="77"/>
-      <c r="D26" s="96"/>
+      <c r="D26" s="117"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="93">
+      <c r="A27" s="114">
         <v>2.6</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>807</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="96"/>
+      <c r="D27" s="117"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="94"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="48" t="s">
         <v>808</v>
       </c>
       <c r="C28" s="77"/>
-      <c r="D28" s="96"/>
+      <c r="D28" s="117"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="94"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="48" t="s">
         <v>809</v>
       </c>
       <c r="C29" s="77"/>
-      <c r="D29" s="96"/>
+      <c r="D29" s="117"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="95"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="48" t="s">
         <v>810</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="96"/>
+      <c r="D30" s="117"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
@@ -11219,7 +11219,7 @@
       <c r="B31" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="105" t="s">
         <v>733</v>
       </c>
       <c r="D31" s="82">
@@ -11233,7 +11233,7 @@
       <c r="B32" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="98"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="83"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -11241,7 +11241,7 @@
       <c r="B33" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C33" s="98"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="83"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -11249,7 +11249,7 @@
       <c r="B34" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="98"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="83"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -11259,7 +11259,7 @@
       <c r="B35" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="98"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="83"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -11267,7 +11267,7 @@
       <c r="B36" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="C36" s="98"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="83"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -11275,7 +11275,7 @@
       <c r="B37" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C37" s="98"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="83"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -11283,7 +11283,7 @@
       <c r="B38" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="C38" s="98"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="83"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -11293,7 +11293,7 @@
       <c r="B39" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="99"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="90"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -11303,7 +11303,7 @@
       <c r="B40" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="108" t="s">
         <v>742</v>
       </c>
       <c r="D40" s="82">
@@ -11311,61 +11311,61 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="101">
+      <c r="A41" s="93">
         <v>4.2</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C41" s="98"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="83"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="102"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="98"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="83"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="102"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="C43" s="98"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="83"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="102"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="98"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="83"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="102"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C45" s="98"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="83"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="102"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="C46" s="98"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="83"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="103"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="C47" s="98"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="83"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -11375,7 +11375,7 @@
       <c r="B48" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="98"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="83"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -11385,7 +11385,7 @@
       <c r="B49" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="C49" s="99"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="83"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -11395,27 +11395,27 @@
       <c r="B50" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="108" t="s">
         <v>753</v>
       </c>
       <c r="D50" s="83"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="104">
+      <c r="A51" s="110">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C51" s="98"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="83"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="105"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="C52" s="99"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="90"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -11425,7 +11425,7 @@
       <c r="B53" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="105" t="s">
         <v>757</v>
       </c>
       <c r="D53" s="82">
@@ -11439,7 +11439,7 @@
       <c r="B54" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="C54" s="98"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="83"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -11447,7 +11447,7 @@
       <c r="B55" s="48" t="s">
         <v>759</v>
       </c>
-      <c r="C55" s="98"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="83"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -11455,7 +11455,7 @@
       <c r="B56" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="C56" s="98"/>
+      <c r="C56" s="106"/>
       <c r="D56" s="83"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -11463,7 +11463,7 @@
       <c r="B57" s="48" t="s">
         <v>761</v>
       </c>
-      <c r="C57" s="98"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="83"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -11471,7 +11471,7 @@
       <c r="B58" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="C58" s="98"/>
+      <c r="C58" s="106"/>
       <c r="D58" s="83"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -11479,7 +11479,7 @@
       <c r="B59" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="C59" s="98"/>
+      <c r="C59" s="106"/>
       <c r="D59" s="83"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -11489,7 +11489,7 @@
       <c r="B60" s="47" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="98"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="83"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -11497,7 +11497,7 @@
       <c r="B61" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="C61" s="98"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="83"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -11505,7 +11505,7 @@
       <c r="B62" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="C62" s="98"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="83"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -11513,7 +11513,7 @@
       <c r="B63" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="C63" s="98"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="83"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -11523,7 +11523,7 @@
       <c r="B64" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="98"/>
+      <c r="C64" s="106"/>
       <c r="D64" s="83"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -11533,7 +11533,7 @@
       <c r="B65" s="47" t="s">
         <v>768</v>
       </c>
-      <c r="C65" s="98"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="83"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -11541,7 +11541,7 @@
       <c r="B66" s="47" t="s">
         <v>769</v>
       </c>
-      <c r="C66" s="98"/>
+      <c r="C66" s="106"/>
       <c r="D66" s="83"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -11549,7 +11549,7 @@
       <c r="B67" s="47" t="s">
         <v>770</v>
       </c>
-      <c r="C67" s="99"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="90"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -11562,7 +11562,7 @@
       <c r="C68" s="76" t="s">
         <v>772</v>
       </c>
-      <c r="D68" s="106">
+      <c r="D68" s="99">
         <v>1.5</v>
       </c>
     </row>
@@ -11574,7 +11574,7 @@
         <v>773</v>
       </c>
       <c r="C69" s="76"/>
-      <c r="D69" s="106"/>
+      <c r="D69" s="99"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="75"/>
@@ -11582,7 +11582,7 @@
         <v>774</v>
       </c>
       <c r="C70" s="76"/>
-      <c r="D70" s="106"/>
+      <c r="D70" s="99"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="75"/>
@@ -11590,7 +11590,7 @@
         <v>775</v>
       </c>
       <c r="C71" s="76"/>
-      <c r="D71" s="106"/>
+      <c r="D71" s="99"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="75">
@@ -11600,7 +11600,7 @@
         <v>776</v>
       </c>
       <c r="C72" s="76"/>
-      <c r="D72" s="106"/>
+      <c r="D72" s="99"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="75"/>
@@ -11608,7 +11608,7 @@
         <v>777</v>
       </c>
       <c r="C73" s="76"/>
-      <c r="D73" s="106"/>
+      <c r="D73" s="99"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="75"/>
@@ -11616,7 +11616,7 @@
         <v>778</v>
       </c>
       <c r="C74" s="76"/>
-      <c r="D74" s="106"/>
+      <c r="D74" s="99"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="75">
@@ -11626,7 +11626,7 @@
         <v>779</v>
       </c>
       <c r="C75" s="76"/>
-      <c r="D75" s="106"/>
+      <c r="D75" s="99"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="75"/>
@@ -11634,7 +11634,7 @@
         <v>780</v>
       </c>
       <c r="C76" s="76"/>
-      <c r="D76" s="106"/>
+      <c r="D76" s="99"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="75"/>
@@ -11642,7 +11642,7 @@
         <v>781</v>
       </c>
       <c r="C77" s="76"/>
-      <c r="D77" s="106"/>
+      <c r="D77" s="99"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
@@ -11652,7 +11652,7 @@
         <v>782</v>
       </c>
       <c r="C78" s="76"/>
-      <c r="D78" s="106"/>
+      <c r="D78" s="99"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="53">
@@ -11661,372 +11661,372 @@
       <c r="B79" s="54" t="s">
         <v>811</v>
       </c>
-      <c r="C79" s="107" t="s">
+      <c r="C79" s="100" t="s">
         <v>812</v>
       </c>
-      <c r="D79" s="110">
+      <c r="D79" s="102">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="101">
+      <c r="A80" s="93">
         <v>9.1</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="C80" s="108"/>
-      <c r="D80" s="111"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="98"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="102"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="C81" s="108"/>
-      <c r="D81" s="111"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="98"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="102"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="56" t="s">
         <v>815</v>
       </c>
-      <c r="C82" s="108"/>
-      <c r="D82" s="111"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="98"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="102"/>
+      <c r="A83" s="94"/>
       <c r="B83" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="111"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="98"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="102"/>
+      <c r="A84" s="94"/>
       <c r="B84" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="C84" s="108"/>
-      <c r="D84" s="111"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="98"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="102"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="56" t="s">
         <v>818</v>
       </c>
-      <c r="C85" s="108"/>
-      <c r="D85" s="111"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="98"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="113"/>
+      <c r="A86" s="104"/>
       <c r="B86" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="C86" s="108"/>
-      <c r="D86" s="111"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="98"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="101">
+      <c r="A87" s="93">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="C87" s="108"/>
-      <c r="D87" s="111"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="98"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="102"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="C88" s="108"/>
-      <c r="D88" s="111"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="98"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="102"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="C89" s="108"/>
-      <c r="D89" s="111"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="98"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="113"/>
+      <c r="A90" s="104"/>
       <c r="B90" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="C90" s="108"/>
-      <c r="D90" s="111"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="98"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="101">
+      <c r="A91" s="93">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="C91" s="108"/>
-      <c r="D91" s="111"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="98"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="102"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="108"/>
-      <c r="D92" s="111"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="98"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="113"/>
+      <c r="A93" s="104"/>
       <c r="B93" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="C93" s="108"/>
-      <c r="D93" s="111"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="98"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="101">
+      <c r="A94" s="93">
         <v>9.4</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>826</v>
       </c>
-      <c r="C94" s="108"/>
-      <c r="D94" s="111"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="98"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="102"/>
+      <c r="A95" s="94"/>
       <c r="B95" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="C95" s="108"/>
-      <c r="D95" s="111"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="98"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="113"/>
+      <c r="A96" s="104"/>
       <c r="B96" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="C96" s="109"/>
-      <c r="D96" s="112"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="103"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="101">
+      <c r="A97" s="93">
         <v>9.5</v>
       </c>
       <c r="B97" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="C97" s="115" t="s">
+      <c r="C97" s="95" t="s">
         <v>830</v>
       </c>
-      <c r="D97" s="114">
+      <c r="D97" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="102"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="C98" s="108"/>
-      <c r="D98" s="111"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="98"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="102"/>
+      <c r="A99" s="94"/>
       <c r="B99" s="60" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="108"/>
-      <c r="D99" s="111"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="98"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="113"/>
+      <c r="A100" s="104"/>
       <c r="B100" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="C100" s="108"/>
-      <c r="D100" s="111"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="98"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="101">
+      <c r="A101" s="93">
         <v>9.6</v>
       </c>
       <c r="B101" s="59" t="s">
         <v>834</v>
       </c>
-      <c r="C101" s="108"/>
-      <c r="D101" s="111"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="98"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="102"/>
+      <c r="A102" s="94"/>
       <c r="B102" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="C102" s="108"/>
-      <c r="D102" s="111"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="98"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="102"/>
+      <c r="A103" s="94"/>
       <c r="B103" s="60" t="s">
         <v>836</v>
       </c>
-      <c r="C103" s="108"/>
-      <c r="D103" s="111"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="98"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="102"/>
+      <c r="A104" s="94"/>
       <c r="B104" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="C104" s="108"/>
-      <c r="D104" s="111"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="98"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="113"/>
+      <c r="A105" s="104"/>
       <c r="B105" s="60" t="s">
         <v>838</v>
       </c>
-      <c r="C105" s="109"/>
-      <c r="D105" s="112"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="103"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="101">
+      <c r="A106" s="93">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>839</v>
       </c>
-      <c r="C106" s="115" t="s">
+      <c r="C106" s="95" t="s">
         <v>840</v>
       </c>
-      <c r="D106" s="114">
+      <c r="D106" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="102"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="C107" s="108"/>
-      <c r="D107" s="111"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="98"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="113"/>
+      <c r="A108" s="104"/>
       <c r="B108" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="C108" s="108"/>
-      <c r="D108" s="111"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="98"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="101">
+      <c r="A109" s="93">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="C109" s="108"/>
-      <c r="D109" s="111"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="98"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="102"/>
+      <c r="A110" s="94"/>
       <c r="B110" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="C110" s="108"/>
-      <c r="D110" s="111"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="98"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="113"/>
+      <c r="A111" s="104"/>
       <c r="B111" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="C111" s="108"/>
-      <c r="D111" s="111"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="98"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="101">
+      <c r="A112" s="93">
         <v>9.9</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="C112" s="108"/>
-      <c r="D112" s="111"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="98"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="102"/>
+      <c r="A113" s="94"/>
       <c r="B113" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="C113" s="108"/>
-      <c r="D113" s="111"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="98"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="102"/>
+      <c r="A114" s="94"/>
       <c r="B114" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="C114" s="108"/>
-      <c r="D114" s="111"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="98"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="113"/>
+      <c r="A115" s="104"/>
       <c r="B115" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="C115" s="109"/>
-      <c r="D115" s="112"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="103"/>
     </row>
     <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="114">
+      <c r="A116" s="97">
         <v>9.1</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="C116" s="115" t="s">
+      <c r="C116" s="95" t="s">
         <v>851</v>
       </c>
-      <c r="D116" s="114">
+      <c r="D116" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="111"/>
+      <c r="A117" s="98"/>
       <c r="B117" s="60" t="s">
         <v>852</v>
       </c>
-      <c r="C117" s="108"/>
-      <c r="D117" s="111"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="98"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="111"/>
+      <c r="A118" s="98"/>
       <c r="B118" s="60" t="s">
         <v>853</v>
       </c>
-      <c r="C118" s="108"/>
-      <c r="D118" s="111"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="98"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="111"/>
+      <c r="A119" s="98"/>
       <c r="B119" s="60" t="s">
         <v>854</v>
       </c>
-      <c r="C119" s="108"/>
-      <c r="D119" s="111"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="98"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="112"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="C120" s="109"/>
-      <c r="D120" s="112"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="103"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="53">
@@ -12035,370 +12035,370 @@
       <c r="B121" s="54" t="s">
         <v>856</v>
       </c>
-      <c r="C121" s="115" t="s">
+      <c r="C121" s="95" t="s">
         <v>857</v>
       </c>
-      <c r="D121" s="114">
+      <c r="D121" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="101">
+      <c r="A122" s="93">
         <v>10.1</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>858</v>
       </c>
-      <c r="C122" s="108"/>
-      <c r="D122" s="111"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="98"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="102"/>
+      <c r="A123" s="94"/>
       <c r="B123" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="C123" s="108"/>
-      <c r="D123" s="111"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="98"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="102"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C124" s="108"/>
-      <c r="D124" s="111"/>
+      <c r="C124" s="96"/>
+      <c r="D124" s="98"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="102"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="C125" s="108"/>
-      <c r="D125" s="111"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="98"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="102"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C126" s="108"/>
-      <c r="D126" s="111"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="98"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="102"/>
+      <c r="A127" s="94"/>
       <c r="B127" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="108"/>
-      <c r="D127" s="111"/>
+      <c r="C127" s="96"/>
+      <c r="D127" s="98"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="102"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="C128" s="108"/>
-      <c r="D128" s="111"/>
+      <c r="C128" s="96"/>
+      <c r="D128" s="98"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="102"/>
+      <c r="A129" s="94"/>
       <c r="B129" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="C129" s="108"/>
-      <c r="D129" s="111"/>
+      <c r="C129" s="96"/>
+      <c r="D129" s="98"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="102"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="57" t="s">
         <v>866</v>
       </c>
-      <c r="C130" s="108"/>
-      <c r="D130" s="111"/>
+      <c r="C130" s="96"/>
+      <c r="D130" s="98"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="102"/>
+      <c r="A131" s="94"/>
       <c r="B131" s="57" t="s">
         <v>867</v>
       </c>
-      <c r="C131" s="108"/>
-      <c r="D131" s="111"/>
+      <c r="C131" s="96"/>
+      <c r="D131" s="98"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="102"/>
+      <c r="A132" s="94"/>
       <c r="B132" s="57" t="s">
         <v>868</v>
       </c>
-      <c r="C132" s="108"/>
-      <c r="D132" s="111"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="98"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="102"/>
+      <c r="A133" s="94"/>
       <c r="B133" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="C133" s="108"/>
-      <c r="D133" s="111"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="98"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="102"/>
+      <c r="A134" s="94"/>
       <c r="B134" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="C134" s="108"/>
-      <c r="D134" s="111"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="98"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="102"/>
+      <c r="A135" s="94"/>
       <c r="B135" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="C135" s="108"/>
-      <c r="D135" s="111"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="98"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="102"/>
+      <c r="A136" s="94"/>
       <c r="B136" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="C136" s="108"/>
-      <c r="D136" s="111"/>
+      <c r="C136" s="96"/>
+      <c r="D136" s="98"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="102"/>
+      <c r="A137" s="94"/>
       <c r="B137" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="C137" s="108"/>
-      <c r="D137" s="111"/>
+      <c r="C137" s="96"/>
+      <c r="D137" s="98"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="102"/>
+      <c r="A138" s="94"/>
       <c r="B138" s="57" t="s">
         <v>874</v>
       </c>
-      <c r="C138" s="108"/>
-      <c r="D138" s="111"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="98"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="102"/>
+      <c r="A139" s="94"/>
       <c r="B139" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C139" s="108"/>
-      <c r="D139" s="111"/>
+      <c r="C139" s="96"/>
+      <c r="D139" s="98"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="102"/>
+      <c r="A140" s="94"/>
       <c r="B140" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C140" s="108"/>
-      <c r="D140" s="111"/>
+      <c r="C140" s="96"/>
+      <c r="D140" s="98"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="102"/>
+      <c r="A141" s="94"/>
       <c r="B141" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="C141" s="108"/>
-      <c r="D141" s="111"/>
+      <c r="C141" s="96"/>
+      <c r="D141" s="98"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="101">
+      <c r="A142" s="93">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="C142" s="108"/>
-      <c r="D142" s="111"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="98"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="102"/>
+      <c r="A143" s="94"/>
       <c r="B143" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="C143" s="108"/>
-      <c r="D143" s="111"/>
+      <c r="C143" s="96"/>
+      <c r="D143" s="98"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="102"/>
+      <c r="A144" s="94"/>
       <c r="B144" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="C144" s="108"/>
-      <c r="D144" s="111"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="98"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="102"/>
+      <c r="A145" s="94"/>
       <c r="B145" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="C145" s="108"/>
-      <c r="D145" s="111"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="98"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="102"/>
+      <c r="A146" s="94"/>
       <c r="B146" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="C146" s="108"/>
-      <c r="D146" s="111"/>
+      <c r="C146" s="96"/>
+      <c r="D146" s="98"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="102"/>
+      <c r="A147" s="94"/>
       <c r="B147" s="52" t="s">
         <v>883</v>
       </c>
-      <c r="C147" s="108"/>
-      <c r="D147" s="111"/>
+      <c r="C147" s="96"/>
+      <c r="D147" s="98"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="102"/>
+      <c r="A148" s="94"/>
       <c r="B148" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="C148" s="108"/>
-      <c r="D148" s="111"/>
+      <c r="C148" s="96"/>
+      <c r="D148" s="98"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="102"/>
+      <c r="A149" s="94"/>
       <c r="B149" s="62" t="s">
         <v>885</v>
       </c>
-      <c r="C149" s="108"/>
-      <c r="D149" s="111"/>
+      <c r="C149" s="96"/>
+      <c r="D149" s="98"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="102"/>
+      <c r="A150" s="94"/>
       <c r="B150" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="C150" s="108"/>
-      <c r="D150" s="111"/>
+      <c r="C150" s="96"/>
+      <c r="D150" s="98"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="102"/>
+      <c r="A151" s="94"/>
       <c r="B151" s="52" t="s">
         <v>887</v>
       </c>
-      <c r="C151" s="108"/>
-      <c r="D151" s="111"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="98"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="102"/>
+      <c r="A152" s="94"/>
       <c r="B152" s="62" t="s">
         <v>888</v>
       </c>
-      <c r="C152" s="108"/>
-      <c r="D152" s="111"/>
+      <c r="C152" s="96"/>
+      <c r="D152" s="98"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="102"/>
+      <c r="A153" s="94"/>
       <c r="B153" s="62" t="s">
         <v>889</v>
       </c>
-      <c r="C153" s="108"/>
-      <c r="D153" s="111"/>
+      <c r="C153" s="96"/>
+      <c r="D153" s="98"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="113"/>
+      <c r="A154" s="104"/>
       <c r="B154" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="C154" s="109"/>
-      <c r="D154" s="112"/>
+      <c r="C154" s="101"/>
+      <c r="D154" s="103"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="101">
+      <c r="A155" s="93">
         <v>10.3</v>
       </c>
       <c r="B155" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="C155" s="115" t="s">
+      <c r="C155" s="95" t="s">
         <v>892</v>
       </c>
-      <c r="D155" s="114">
+      <c r="D155" s="97">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="102"/>
+      <c r="A156" s="94"/>
       <c r="B156" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="C156" s="108"/>
-      <c r="D156" s="111"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="98"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="102"/>
+      <c r="A157" s="94"/>
       <c r="B157" s="60" t="s">
         <v>894</v>
       </c>
-      <c r="C157" s="108"/>
-      <c r="D157" s="111"/>
+      <c r="C157" s="96"/>
+      <c r="D157" s="98"/>
     </row>
     <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="101">
+      <c r="A158" s="93">
         <v>10.4</v>
       </c>
       <c r="B158" s="61" t="s">
         <v>895</v>
       </c>
-      <c r="C158" s="115" t="s">
+      <c r="C158" s="95" t="s">
         <v>896</v>
       </c>
-      <c r="D158" s="114">
+      <c r="D158" s="97">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="102"/>
+      <c r="A159" s="94"/>
       <c r="B159" s="60" t="s">
         <v>897</v>
       </c>
-      <c r="C159" s="108"/>
-      <c r="D159" s="111"/>
+      <c r="C159" s="96"/>
+      <c r="D159" s="98"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="102"/>
+      <c r="A160" s="94"/>
       <c r="B160" s="60" t="s">
         <v>898</v>
       </c>
-      <c r="C160" s="108"/>
-      <c r="D160" s="111"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="98"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="101">
+      <c r="A161" s="93">
         <v>10.5</v>
       </c>
       <c r="B161" s="61" t="s">
         <v>899</v>
       </c>
-      <c r="C161" s="115" t="s">
+      <c r="C161" s="95" t="s">
         <v>900</v>
       </c>
-      <c r="D161" s="114">
+      <c r="D161" s="97">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="102"/>
+      <c r="A162" s="94"/>
       <c r="B162" s="60" t="s">
         <v>901</v>
       </c>
-      <c r="C162" s="108"/>
-      <c r="D162" s="111"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="98"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="102"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="60" t="s">
         <v>902</v>
       </c>
-      <c r="C163" s="108"/>
-      <c r="D163" s="111"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="98"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="9">
@@ -12410,7 +12410,7 @@
       <c r="C164" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="D164" s="106">
+      <c r="D164" s="99">
         <v>0.5</v>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
         <v>380</v>
       </c>
       <c r="C165" s="76"/>
-      <c r="D165" s="106"/>
+      <c r="D165" s="99"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="7">
@@ -12432,7 +12432,7 @@
         <v>381</v>
       </c>
       <c r="C166" s="76"/>
-      <c r="D166" s="106"/>
+      <c r="D166" s="99"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="75">
@@ -12442,7 +12442,7 @@
         <v>382</v>
       </c>
       <c r="C167" s="76"/>
-      <c r="D167" s="106"/>
+      <c r="D167" s="99"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="75"/>
@@ -12450,7 +12450,7 @@
         <v>383</v>
       </c>
       <c r="C168" s="76"/>
-      <c r="D168" s="106"/>
+      <c r="D168" s="99"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="9">
@@ -12462,7 +12462,7 @@
       <c r="C169" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="D169" s="116">
+      <c r="D169" s="92">
         <v>0.75</v>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
         <v>386</v>
       </c>
       <c r="C170" s="77"/>
-      <c r="D170" s="116"/>
+      <c r="D170" s="92"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="75"/>
@@ -12482,7 +12482,7 @@
         <v>387</v>
       </c>
       <c r="C171" s="77"/>
-      <c r="D171" s="116"/>
+      <c r="D171" s="92"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="75"/>
@@ -12490,7 +12490,7 @@
         <v>388</v>
       </c>
       <c r="C172" s="77"/>
-      <c r="D172" s="116"/>
+      <c r="D172" s="92"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="75">
@@ -12500,7 +12500,7 @@
         <v>389</v>
       </c>
       <c r="C173" s="77"/>
-      <c r="D173" s="116"/>
+      <c r="D173" s="92"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="75"/>
@@ -12508,7 +12508,7 @@
         <v>390</v>
       </c>
       <c r="C174" s="77"/>
-      <c r="D174" s="116"/>
+      <c r="D174" s="92"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="75"/>
@@ -12516,7 +12516,7 @@
         <v>391</v>
       </c>
       <c r="C175" s="77"/>
-      <c r="D175" s="116"/>
+      <c r="D175" s="92"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="75">
@@ -12526,7 +12526,7 @@
         <v>392</v>
       </c>
       <c r="C176" s="77"/>
-      <c r="D176" s="116"/>
+      <c r="D176" s="92"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="75"/>
@@ -12534,7 +12534,7 @@
         <v>393</v>
       </c>
       <c r="C177" s="77"/>
-      <c r="D177" s="116"/>
+      <c r="D177" s="92"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="75"/>
@@ -12542,7 +12542,7 @@
         <v>394</v>
       </c>
       <c r="C178" s="77"/>
-      <c r="D178" s="116"/>
+      <c r="D178" s="92"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="75"/>
@@ -12550,7 +12550,7 @@
         <v>395</v>
       </c>
       <c r="C179" s="77"/>
-      <c r="D179" s="116"/>
+      <c r="D179" s="92"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="75"/>
@@ -12558,7 +12558,7 @@
         <v>396</v>
       </c>
       <c r="C180" s="77"/>
-      <c r="D180" s="116"/>
+      <c r="D180" s="92"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="9">
@@ -12570,7 +12570,7 @@
       <c r="C181" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D181" s="117">
+      <c r="D181" s="91">
         <v>0.75</v>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
         <v>399</v>
       </c>
       <c r="C182" s="77"/>
-      <c r="D182" s="117"/>
+      <c r="D182" s="91"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="75"/>
@@ -12590,7 +12590,7 @@
         <v>400</v>
       </c>
       <c r="C183" s="77"/>
-      <c r="D183" s="117"/>
+      <c r="D183" s="91"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="75"/>
@@ -12598,7 +12598,7 @@
         <v>401</v>
       </c>
       <c r="C184" s="77"/>
-      <c r="D184" s="117"/>
+      <c r="D184" s="91"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="75">
@@ -12608,7 +12608,7 @@
         <v>402</v>
       </c>
       <c r="C185" s="77"/>
-      <c r="D185" s="117"/>
+      <c r="D185" s="91"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="75"/>
@@ -12616,7 +12616,7 @@
         <v>403</v>
       </c>
       <c r="C186" s="77"/>
-      <c r="D186" s="117"/>
+      <c r="D186" s="91"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="75"/>
@@ -12624,7 +12624,7 @@
         <v>404</v>
       </c>
       <c r="C187" s="77"/>
-      <c r="D187" s="117"/>
+      <c r="D187" s="91"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="75">
@@ -12634,7 +12634,7 @@
         <v>405</v>
       </c>
       <c r="C188" s="77"/>
-      <c r="D188" s="117"/>
+      <c r="D188" s="91"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="75"/>
@@ -12642,7 +12642,7 @@
         <v>903</v>
       </c>
       <c r="C189" s="77"/>
-      <c r="D189" s="117"/>
+      <c r="D189" s="91"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="9">
@@ -12652,7 +12652,7 @@
         <v>406</v>
       </c>
       <c r="C190" s="77"/>
-      <c r="D190" s="117"/>
+      <c r="D190" s="91"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="7">
@@ -12662,7 +12662,7 @@
         <v>407</v>
       </c>
       <c r="C191" s="77"/>
-      <c r="D191" s="117"/>
+      <c r="D191" s="91"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="7">
@@ -12672,7 +12672,7 @@
         <v>408</v>
       </c>
       <c r="C192" s="77"/>
-      <c r="D192" s="117"/>
+      <c r="D192" s="91"/>
     </row>
     <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="9">
@@ -12684,7 +12684,7 @@
       <c r="C193" s="69" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="117">
+      <c r="D193" s="91">
         <v>0.75</v>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
         <v>411</v>
       </c>
       <c r="C194" s="70"/>
-      <c r="D194" s="117"/>
+      <c r="D194" s="91"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="75"/>
@@ -12704,7 +12704,7 @@
         <v>412</v>
       </c>
       <c r="C195" s="70"/>
-      <c r="D195" s="117"/>
+      <c r="D195" s="91"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="75"/>
@@ -12712,7 +12712,7 @@
         <v>413</v>
       </c>
       <c r="C196" s="70"/>
-      <c r="D196" s="117"/>
+      <c r="D196" s="91"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="75"/>
@@ -12720,7 +12720,7 @@
         <v>414</v>
       </c>
       <c r="C197" s="70"/>
-      <c r="D197" s="117"/>
+      <c r="D197" s="91"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="75"/>
@@ -12728,7 +12728,7 @@
         <v>415</v>
       </c>
       <c r="C198" s="70"/>
-      <c r="D198" s="117"/>
+      <c r="D198" s="91"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="75">
@@ -12738,7 +12738,7 @@
         <v>416</v>
       </c>
       <c r="C199" s="70"/>
-      <c r="D199" s="117"/>
+      <c r="D199" s="91"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="75"/>
@@ -12746,7 +12746,7 @@
         <v>417</v>
       </c>
       <c r="C200" s="70"/>
-      <c r="D200" s="117"/>
+      <c r="D200" s="91"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="75"/>
@@ -12754,7 +12754,7 @@
         <v>418</v>
       </c>
       <c r="C201" s="70"/>
-      <c r="D201" s="117"/>
+      <c r="D201" s="91"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="75"/>
@@ -12762,7 +12762,7 @@
         <v>419</v>
       </c>
       <c r="C202" s="70"/>
-      <c r="D202" s="117"/>
+      <c r="D202" s="91"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="75"/>
@@ -12770,7 +12770,7 @@
         <v>420</v>
       </c>
       <c r="C203" s="71"/>
-      <c r="D203" s="117"/>
+      <c r="D203" s="91"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="9">
@@ -12782,7 +12782,7 @@
       <c r="C204" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="D204" s="117">
+      <c r="D204" s="91">
         <v>0.5</v>
       </c>
     </row>
@@ -12794,7 +12794,7 @@
         <v>423</v>
       </c>
       <c r="C205" s="77"/>
-      <c r="D205" s="117"/>
+      <c r="D205" s="91"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="75"/>
@@ -12802,7 +12802,7 @@
         <v>424</v>
       </c>
       <c r="C206" s="77"/>
-      <c r="D206" s="117"/>
+      <c r="D206" s="91"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="75"/>
@@ -12810,7 +12810,7 @@
         <v>425</v>
       </c>
       <c r="C207" s="77"/>
-      <c r="D207" s="117"/>
+      <c r="D207" s="91"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="75"/>
@@ -12818,7 +12818,7 @@
         <v>426</v>
       </c>
       <c r="C208" s="77"/>
-      <c r="D208" s="117"/>
+      <c r="D208" s="91"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="75"/>
@@ -12826,7 +12826,7 @@
         <v>427</v>
       </c>
       <c r="C209" s="77"/>
-      <c r="D209" s="117"/>
+      <c r="D209" s="91"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="75">
@@ -12836,7 +12836,7 @@
         <v>428</v>
       </c>
       <c r="C210" s="77"/>
-      <c r="D210" s="117"/>
+      <c r="D210" s="91"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="75"/>
@@ -12844,7 +12844,7 @@
         <v>429</v>
       </c>
       <c r="C211" s="77"/>
-      <c r="D211" s="117"/>
+      <c r="D211" s="91"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="75"/>
@@ -12852,7 +12852,7 @@
         <v>430</v>
       </c>
       <c r="C212" s="77"/>
-      <c r="D212" s="117"/>
+      <c r="D212" s="91"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="75"/>
@@ -12860,7 +12860,7 @@
         <v>431</v>
       </c>
       <c r="C213" s="77"/>
-      <c r="D213" s="117"/>
+      <c r="D213" s="91"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="75"/>
@@ -12868,7 +12868,7 @@
         <v>432</v>
       </c>
       <c r="C214" s="77"/>
-      <c r="D214" s="117"/>
+      <c r="D214" s="91"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="75"/>
@@ -12876,7 +12876,7 @@
         <v>433</v>
       </c>
       <c r="C215" s="77"/>
-      <c r="D215" s="117"/>
+      <c r="D215" s="91"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="75">
@@ -12886,7 +12886,7 @@
         <v>434</v>
       </c>
       <c r="C216" s="77"/>
-      <c r="D216" s="117"/>
+      <c r="D216" s="91"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="75"/>
@@ -12894,7 +12894,7 @@
         <v>435</v>
       </c>
       <c r="C217" s="77"/>
-      <c r="D217" s="117"/>
+      <c r="D217" s="91"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="75"/>
@@ -12902,7 +12902,7 @@
         <v>436</v>
       </c>
       <c r="C218" s="77"/>
-      <c r="D218" s="117"/>
+      <c r="D218" s="91"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="75"/>
@@ -12910,7 +12910,7 @@
         <v>437</v>
       </c>
       <c r="C219" s="77"/>
-      <c r="D219" s="117"/>
+      <c r="D219" s="91"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="75"/>
@@ -12918,7 +12918,7 @@
         <v>438</v>
       </c>
       <c r="C220" s="77"/>
-      <c r="D220" s="117"/>
+      <c r="D220" s="91"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="9">
@@ -12930,7 +12930,7 @@
       <c r="C221" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="D221" s="117">
+      <c r="D221" s="91">
         <v>0.25</v>
       </c>
     </row>
@@ -12942,7 +12942,7 @@
         <v>441</v>
       </c>
       <c r="C222" s="77"/>
-      <c r="D222" s="117"/>
+      <c r="D222" s="91"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="75"/>
@@ -12950,7 +12950,7 @@
         <v>442</v>
       </c>
       <c r="C223" s="77"/>
-      <c r="D223" s="117"/>
+      <c r="D223" s="91"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="75"/>
@@ -12958,7 +12958,7 @@
         <v>443</v>
       </c>
       <c r="C224" s="77"/>
-      <c r="D224" s="117"/>
+      <c r="D224" s="91"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="75">
@@ -12968,7 +12968,7 @@
         <v>444</v>
       </c>
       <c r="C225" s="77"/>
-      <c r="D225" s="117"/>
+      <c r="D225" s="91"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="75"/>
@@ -12976,7 +12976,7 @@
         <v>445</v>
       </c>
       <c r="C226" s="77"/>
-      <c r="D226" s="117"/>
+      <c r="D226" s="91"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="75"/>
@@ -12984,7 +12984,7 @@
         <v>446</v>
       </c>
       <c r="C227" s="77"/>
-      <c r="D227" s="117"/>
+      <c r="D227" s="91"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="75">
@@ -12994,7 +12994,7 @@
         <v>447</v>
       </c>
       <c r="C228" s="77"/>
-      <c r="D228" s="117"/>
+      <c r="D228" s="91"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="75"/>
@@ -13002,7 +13002,7 @@
         <v>448</v>
       </c>
       <c r="C229" s="77"/>
-      <c r="D229" s="117"/>
+      <c r="D229" s="91"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="75"/>
@@ -13010,7 +13010,7 @@
         <v>449</v>
       </c>
       <c r="C230" s="77"/>
-      <c r="D230" s="117"/>
+      <c r="D230" s="91"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="9">
@@ -13022,7 +13022,7 @@
       <c r="C231" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="D231" s="117">
+      <c r="D231" s="91">
         <v>1</v>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
         <v>103</v>
       </c>
       <c r="C232" s="77"/>
-      <c r="D232" s="117"/>
+      <c r="D232" s="91"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="75"/>
@@ -13042,7 +13042,7 @@
         <v>452</v>
       </c>
       <c r="C233" s="77"/>
-      <c r="D233" s="117"/>
+      <c r="D233" s="91"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="75"/>
@@ -13050,7 +13050,7 @@
         <v>453</v>
       </c>
       <c r="C234" s="77"/>
-      <c r="D234" s="117"/>
+      <c r="D234" s="91"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="75">
@@ -13060,7 +13060,7 @@
         <v>104</v>
       </c>
       <c r="C235" s="77"/>
-      <c r="D235" s="117"/>
+      <c r="D235" s="91"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="75"/>
@@ -13068,7 +13068,7 @@
         <v>454</v>
       </c>
       <c r="C236" s="77"/>
-      <c r="D236" s="117"/>
+      <c r="D236" s="91"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="75"/>
@@ -13076,7 +13076,7 @@
         <v>455</v>
       </c>
       <c r="C237" s="77"/>
-      <c r="D237" s="117"/>
+      <c r="D237" s="91"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="75">
@@ -13086,7 +13086,7 @@
         <v>105</v>
       </c>
       <c r="C238" s="77"/>
-      <c r="D238" s="117"/>
+      <c r="D238" s="91"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="75"/>
@@ -13094,7 +13094,7 @@
         <v>456</v>
       </c>
       <c r="C239" s="77"/>
-      <c r="D239" s="117"/>
+      <c r="D239" s="91"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="75"/>
@@ -13102,7 +13102,7 @@
         <v>457</v>
       </c>
       <c r="C240" s="77"/>
-      <c r="D240" s="117"/>
+      <c r="D240" s="91"/>
     </row>
     <row r="241" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="9">
@@ -13114,7 +13114,7 @@
       <c r="C241" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="D241" s="117">
+      <c r="D241" s="91">
         <v>0.5</v>
       </c>
     </row>
@@ -13126,7 +13126,7 @@
         <v>460</v>
       </c>
       <c r="C242" s="77"/>
-      <c r="D242" s="117"/>
+      <c r="D242" s="91"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="75"/>
@@ -13134,7 +13134,7 @@
         <v>461</v>
       </c>
       <c r="C243" s="77"/>
-      <c r="D243" s="117"/>
+      <c r="D243" s="91"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="75"/>
@@ -13142,7 +13142,7 @@
         <v>462</v>
       </c>
       <c r="C244" s="77"/>
-      <c r="D244" s="117"/>
+      <c r="D244" s="91"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="75"/>
@@ -13150,7 +13150,7 @@
         <v>463</v>
       </c>
       <c r="C245" s="77"/>
-      <c r="D245" s="117"/>
+      <c r="D245" s="91"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="75">
@@ -13160,7 +13160,7 @@
         <v>464</v>
       </c>
       <c r="C246" s="77"/>
-      <c r="D246" s="117"/>
+      <c r="D246" s="91"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="75"/>
@@ -13168,7 +13168,7 @@
         <v>465</v>
       </c>
       <c r="C247" s="77"/>
-      <c r="D247" s="117"/>
+      <c r="D247" s="91"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="75"/>
@@ -13176,7 +13176,7 @@
         <v>466</v>
       </c>
       <c r="C248" s="77"/>
-      <c r="D248" s="117"/>
+      <c r="D248" s="91"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="75"/>
@@ -13184,7 +13184,7 @@
         <v>467</v>
       </c>
       <c r="C249" s="77"/>
-      <c r="D249" s="117"/>
+      <c r="D249" s="91"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="75"/>
@@ -13192,7 +13192,7 @@
         <v>468</v>
       </c>
       <c r="C250" s="77"/>
-      <c r="D250" s="117"/>
+      <c r="D250" s="91"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="75">
@@ -13202,7 +13202,7 @@
         <v>469</v>
       </c>
       <c r="C251" s="77"/>
-      <c r="D251" s="117"/>
+      <c r="D251" s="91"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="75"/>
@@ -13210,7 +13210,7 @@
         <v>470</v>
       </c>
       <c r="C252" s="77"/>
-      <c r="D252" s="117"/>
+      <c r="D252" s="91"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="75"/>
@@ -13218,7 +13218,7 @@
         <v>471</v>
       </c>
       <c r="C253" s="77"/>
-      <c r="D253" s="117"/>
+      <c r="D253" s="91"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="75"/>
@@ -13226,7 +13226,7 @@
         <v>472</v>
       </c>
       <c r="C254" s="77"/>
-      <c r="D254" s="117"/>
+      <c r="D254" s="91"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="75"/>
@@ -13234,7 +13234,7 @@
         <v>473</v>
       </c>
       <c r="C255" s="77"/>
-      <c r="D255" s="117"/>
+      <c r="D255" s="91"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="75">
@@ -13244,7 +13244,7 @@
         <v>474</v>
       </c>
       <c r="C256" s="77"/>
-      <c r="D256" s="117"/>
+      <c r="D256" s="91"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="75"/>
@@ -13252,7 +13252,7 @@
         <v>475</v>
       </c>
       <c r="C257" s="77"/>
-      <c r="D257" s="117"/>
+      <c r="D257" s="91"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="75"/>
@@ -13260,7 +13260,7 @@
         <v>476</v>
       </c>
       <c r="C258" s="77"/>
-      <c r="D258" s="117"/>
+      <c r="D258" s="91"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="75"/>
@@ -13268,178 +13268,158 @@
         <v>477</v>
       </c>
       <c r="C259" s="77"/>
-      <c r="D259" s="117"/>
+      <c r="D259" s="91"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="117">
+      <c r="A260" s="91">
         <v>14.5</v>
       </c>
       <c r="B260" s="47" t="s">
         <v>478</v>
       </c>
       <c r="C260" s="77"/>
-      <c r="D260" s="117"/>
+      <c r="D260" s="91"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A261" s="117"/>
+      <c r="A261" s="91"/>
       <c r="B261" s="48" t="s">
         <v>479</v>
       </c>
       <c r="C261" s="77"/>
-      <c r="D261" s="117"/>
+      <c r="D261" s="91"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A262" s="117"/>
+      <c r="A262" s="91"/>
       <c r="B262" s="48" t="s">
         <v>480</v>
       </c>
       <c r="C262" s="77"/>
-      <c r="D262" s="117"/>
+      <c r="D262" s="91"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A263" s="117"/>
+      <c r="A263" s="91"/>
       <c r="B263" s="48" t="s">
         <v>481</v>
       </c>
       <c r="C263" s="77"/>
-      <c r="D263" s="117"/>
+      <c r="D263" s="91"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A264" s="117">
+      <c r="A264" s="91">
         <v>14.6</v>
       </c>
       <c r="B264" s="47" t="s">
         <v>482</v>
       </c>
       <c r="C264" s="77"/>
-      <c r="D264" s="117"/>
+      <c r="D264" s="91"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A265" s="117"/>
+      <c r="A265" s="91"/>
       <c r="B265" s="48" t="s">
         <v>483</v>
       </c>
       <c r="C265" s="77"/>
-      <c r="D265" s="117"/>
+      <c r="D265" s="91"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A266" s="117"/>
+      <c r="A266" s="91"/>
       <c r="B266" s="48" t="s">
         <v>484</v>
       </c>
       <c r="C266" s="77"/>
-      <c r="D266" s="117"/>
+      <c r="D266" s="91"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A267" s="117"/>
+      <c r="A267" s="91"/>
       <c r="B267" s="48" t="s">
         <v>485</v>
       </c>
       <c r="C267" s="77"/>
-      <c r="D267" s="117"/>
+      <c r="D267" s="91"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A268" s="117"/>
+      <c r="A268" s="91"/>
       <c r="B268" s="48" t="s">
         <v>486</v>
       </c>
       <c r="C268" s="77"/>
-      <c r="D268" s="117"/>
+      <c r="D268" s="91"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A269" s="117">
+      <c r="A269" s="91">
         <v>14.7</v>
       </c>
       <c r="B269" s="47" t="s">
         <v>487</v>
       </c>
       <c r="C269" s="77"/>
-      <c r="D269" s="117"/>
+      <c r="D269" s="91"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A270" s="117"/>
+      <c r="A270" s="91"/>
       <c r="B270" s="48" t="s">
         <v>488</v>
       </c>
       <c r="C270" s="77"/>
-      <c r="D270" s="117"/>
+      <c r="D270" s="91"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A271" s="117"/>
+      <c r="A271" s="91"/>
       <c r="B271" s="48" t="s">
         <v>489</v>
       </c>
       <c r="C271" s="77"/>
-      <c r="D271" s="117"/>
+      <c r="D271" s="91"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A272" s="117"/>
+      <c r="A272" s="91"/>
       <c r="B272" s="48" t="s">
         <v>490</v>
       </c>
       <c r="C272" s="77"/>
-      <c r="D272" s="117"/>
+      <c r="D272" s="91"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A273" s="117"/>
+      <c r="A273" s="91"/>
       <c r="B273" s="48" t="s">
         <v>491</v>
       </c>
       <c r="C273" s="77"/>
-      <c r="D273" s="117"/>
+      <c r="D273" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="C241:C273"/>
-    <mergeCell ref="D241:D273"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="A256:A259"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A269:A273"/>
-    <mergeCell ref="C221:C230"/>
-    <mergeCell ref="D221:D230"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="D231:D240"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="C193:C203"/>
-    <mergeCell ref="D193:D203"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="C204:C220"/>
-    <mergeCell ref="D204:D220"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="C169:C180"/>
-    <mergeCell ref="D169:D180"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="C181:C192"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="D53:D67"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
     <mergeCell ref="C79:C96"/>
     <mergeCell ref="D79:D96"/>
     <mergeCell ref="A80:A86"/>
@@ -13462,36 +13442,56 @@
     <mergeCell ref="D106:D115"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A115"/>
-    <mergeCell ref="C53:C67"/>
-    <mergeCell ref="D53:D67"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="D18:D30"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="C169:C180"/>
+    <mergeCell ref="D169:D180"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="C181:C192"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="C193:C203"/>
+    <mergeCell ref="D193:D203"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="C204:C220"/>
+    <mergeCell ref="D204:D220"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="C221:C230"/>
+    <mergeCell ref="D221:D230"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="D231:D240"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="C241:C273"/>
+    <mergeCell ref="D241:D273"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A273"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14175,15 +14175,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C30:C67"/>
     <mergeCell ref="D30:D67"/>
     <mergeCell ref="E30:E67"/>
@@ -14196,6 +14187,15 @@
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15222,6 +15222,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046A31122186B324295ACC58F7AF02D2C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b617112a4bb9debf8776548e623995">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52ef429a-33cb-47a2-9df9-548aca62905c" xmlns:ns3="3780c0a3-9b63-4393-8bfa-e0381b24f108" xmlns:ns4="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a03cb1a3de72c882342d9ed0946efa9f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52ef429a-33cb-47a2-9df9-548aca62905c"/>
@@ -15455,27 +15475,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
+    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52ef429a-33cb-47a2-9df9-548aca62905c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87F4909E-1BA8-41EF-A085-CE3BD974F0BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15493,23 +15512,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
-    <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CP_Platform_Solution_Java_v1.4.xlsx
+++ b/CP_Platform_Solution_Java_v1.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1EE66-E03A-4A4B-9535-20936F05889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B5D36-FCB2-4E11-82EE-06DD934BEE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="5" activeTab="5" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="5" activeTab="6" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="14" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="931">
   <si>
     <t>Computer Architecture - Hardware, Network and Software</t>
   </si>
@@ -4974,6 +4974,9 @@
   </si>
   <si>
     <t>Sri Dikshitha</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -5481,80 +5484,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5580,26 +5529,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7668,16 +7671,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C20:C38"/>
-    <mergeCell ref="D20:D38"/>
-    <mergeCell ref="C5:C19"/>
-    <mergeCell ref="D5:D19"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A38"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="D54:D67"/>
     <mergeCell ref="A55:A58"/>
@@ -7687,6 +7680,16 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A38"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C20:C38"/>
+    <mergeCell ref="D20:D38"/>
+    <mergeCell ref="C5:C19"/>
+    <mergeCell ref="D5:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9163,6 +9166,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C23:C38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C39:C56"/>
+    <mergeCell ref="D39:D56"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C99:C111"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="C57:C72"/>
+    <mergeCell ref="D57:D72"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="C73:C81"/>
+    <mergeCell ref="D73:D81"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C82:C98"/>
+    <mergeCell ref="D82:D98"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="C150:C163"/>
     <mergeCell ref="D150:D163"/>
     <mergeCell ref="A151:A156"/>
@@ -9179,50 +9226,6 @@
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="C112:C130"/>
     <mergeCell ref="D112:D130"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C99:C111"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="C57:C72"/>
-    <mergeCell ref="D57:D72"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="C73:C81"/>
-    <mergeCell ref="D73:D81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C82:C98"/>
-    <mergeCell ref="D82:D98"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="C39:C56"/>
-    <mergeCell ref="D39:D56"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="C23:C38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -11936,11 +11939,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A57"/>
     <mergeCell ref="D45:D57"/>
     <mergeCell ref="E45:E57"/>
     <mergeCell ref="C45:C57"/>
@@ -11949,11 +11952,11 @@
     <mergeCell ref="E5:E25"/>
     <mergeCell ref="D26:D44"/>
     <mergeCell ref="E26:E44"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -11968,8 +11971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F55229-B443-49D0-8BFD-4739B86F2805}">
   <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -12023,7 +12026,7 @@
       <c r="B5" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="133" t="s">
         <v>784</v>
       </c>
       <c r="D5" s="96">
@@ -12031,105 +12034,105 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="101">
+      <c r="A6" s="135">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="102"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="100"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="102"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="C8" s="100"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="97"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="102"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C9" s="100"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="97"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="102"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C10" s="100"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="97"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="101">
+      <c r="A11" s="135">
         <v>1.2</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="C11" s="100"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="97"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="102"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="C12" s="100"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="97"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="102"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C13" s="100"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="97"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="101">
+      <c r="A14" s="135">
         <v>1.4</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="100"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="97"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="102"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="97"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="102"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="100"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="97"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="103"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="100"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="97"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -12142,111 +12145,111 @@
       <c r="C18" s="84" t="s">
         <v>798</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="138">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="101">
+      <c r="A19" s="135">
         <v>2.1</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>799</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="104"/>
+      <c r="D19" s="138"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="102"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="48" t="s">
         <v>800</v>
       </c>
       <c r="C20" s="85"/>
-      <c r="D20" s="104"/>
+      <c r="D20" s="138"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="102"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="48" t="s">
         <v>801</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="104"/>
+      <c r="D21" s="138"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="103"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="48" t="s">
         <v>802</v>
       </c>
       <c r="C22" s="85"/>
-      <c r="D22" s="104"/>
+      <c r="D22" s="138"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="101">
+      <c r="A23" s="135">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="104"/>
+      <c r="D23" s="138"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="102"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="48" t="s">
         <v>804</v>
       </c>
       <c r="C24" s="85"/>
-      <c r="D24" s="104"/>
+      <c r="D24" s="138"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="102"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="48" t="s">
         <v>805</v>
       </c>
       <c r="C25" s="85"/>
-      <c r="D25" s="104"/>
+      <c r="D25" s="138"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="103"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="48" t="s">
         <v>806</v>
       </c>
       <c r="C26" s="85"/>
-      <c r="D26" s="104"/>
+      <c r="D26" s="138"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="101">
+      <c r="A27" s="135">
         <v>2.6</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>807</v>
       </c>
       <c r="C27" s="85"/>
-      <c r="D27" s="104"/>
+      <c r="D27" s="138"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="102"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="48" t="s">
         <v>808</v>
       </c>
       <c r="C28" s="85"/>
-      <c r="D28" s="104"/>
+      <c r="D28" s="138"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="102"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="48" t="s">
         <v>809</v>
       </c>
       <c r="C29" s="85"/>
-      <c r="D29" s="104"/>
+      <c r="D29" s="138"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="103"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="48" t="s">
         <v>810</v>
       </c>
       <c r="C30" s="85"/>
-      <c r="D30" s="104"/>
+      <c r="D30" s="138"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
@@ -12255,7 +12258,7 @@
       <c r="B31" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="125" t="s">
         <v>733</v>
       </c>
       <c r="D31" s="90">
@@ -12269,7 +12272,7 @@
       <c r="B32" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="106"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="91"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -12277,7 +12280,7 @@
       <c r="B33" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C33" s="106"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="91"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -12285,7 +12288,7 @@
       <c r="B34" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="106"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="91"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -12295,7 +12298,7 @@
       <c r="B35" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="106"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="91"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -12303,7 +12306,7 @@
       <c r="B36" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="C36" s="106"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="91"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -12311,7 +12314,7 @@
       <c r="B37" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C37" s="106"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="91"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -12319,7 +12322,7 @@
       <c r="B38" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="C38" s="106"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="91"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -12329,7 +12332,7 @@
       <c r="B39" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="107"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="98"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -12339,7 +12342,7 @@
       <c r="B40" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="129" t="s">
         <v>742</v>
       </c>
       <c r="D40" s="90">
@@ -12347,61 +12350,61 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="109">
+      <c r="A41" s="114">
         <v>4.2</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C41" s="106"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="91"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="110"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="91"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="110"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="C43" s="106"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="91"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="110"/>
+      <c r="A44" s="115"/>
       <c r="B44" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="106"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="110"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C45" s="106"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="110"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="C46" s="106"/>
+      <c r="C46" s="126"/>
       <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="111"/>
+      <c r="A47" s="130"/>
       <c r="B47" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="C47" s="106"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -12411,7 +12414,7 @@
       <c r="B48" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="106"/>
+      <c r="C48" s="126"/>
       <c r="D48" s="91"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -12421,7 +12424,7 @@
       <c r="B49" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="C49" s="107"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="91"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -12431,27 +12434,27 @@
       <c r="B50" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="C50" s="108" t="s">
+      <c r="C50" s="129" t="s">
         <v>753</v>
       </c>
       <c r="D50" s="91"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="112">
+      <c r="A51" s="131">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C51" s="106"/>
+      <c r="C51" s="126"/>
       <c r="D51" s="91"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="113"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="C52" s="107"/>
+      <c r="C52" s="127"/>
       <c r="D52" s="98"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -12461,7 +12464,7 @@
       <c r="B53" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="125" t="s">
         <v>757</v>
       </c>
       <c r="D53" s="90">
@@ -12475,7 +12478,7 @@
       <c r="B54" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="C54" s="106"/>
+      <c r="C54" s="126"/>
       <c r="D54" s="91"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -12483,7 +12486,7 @@
       <c r="B55" s="48" t="s">
         <v>759</v>
       </c>
-      <c r="C55" s="106"/>
+      <c r="C55" s="126"/>
       <c r="D55" s="91"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -12491,7 +12494,7 @@
       <c r="B56" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="C56" s="106"/>
+      <c r="C56" s="126"/>
       <c r="D56" s="91"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -12499,7 +12502,7 @@
       <c r="B57" s="48" t="s">
         <v>761</v>
       </c>
-      <c r="C57" s="106"/>
+      <c r="C57" s="126"/>
       <c r="D57" s="91"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -12507,7 +12510,7 @@
       <c r="B58" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="C58" s="106"/>
+      <c r="C58" s="126"/>
       <c r="D58" s="91"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -12515,7 +12518,7 @@
       <c r="B59" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="C59" s="106"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="91"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -12525,7 +12528,7 @@
       <c r="B60" s="47" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="106"/>
+      <c r="C60" s="126"/>
       <c r="D60" s="91"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -12533,7 +12536,7 @@
       <c r="B61" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="C61" s="106"/>
+      <c r="C61" s="126"/>
       <c r="D61" s="91"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -12541,7 +12544,7 @@
       <c r="B62" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="C62" s="106"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="91"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -12549,7 +12552,7 @@
       <c r="B63" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="C63" s="106"/>
+      <c r="C63" s="126"/>
       <c r="D63" s="91"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -12559,7 +12562,7 @@
       <c r="B64" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="106"/>
+      <c r="C64" s="126"/>
       <c r="D64" s="91"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -12569,7 +12572,7 @@
       <c r="B65" s="47" t="s">
         <v>768</v>
       </c>
-      <c r="C65" s="106"/>
+      <c r="C65" s="126"/>
       <c r="D65" s="91"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -12577,7 +12580,7 @@
       <c r="B66" s="47" t="s">
         <v>769</v>
       </c>
-      <c r="C66" s="106"/>
+      <c r="C66" s="126"/>
       <c r="D66" s="91"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -12585,7 +12588,7 @@
       <c r="B67" s="47" t="s">
         <v>770</v>
       </c>
-      <c r="C67" s="107"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="98"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -12598,7 +12601,7 @@
       <c r="C68" s="84" t="s">
         <v>772</v>
       </c>
-      <c r="D68" s="114">
+      <c r="D68" s="128">
         <v>1.5</v>
       </c>
     </row>
@@ -12610,7 +12613,7 @@
         <v>773</v>
       </c>
       <c r="C69" s="84"/>
-      <c r="D69" s="114"/>
+      <c r="D69" s="128"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="83"/>
@@ -12618,7 +12621,7 @@
         <v>774</v>
       </c>
       <c r="C70" s="84"/>
-      <c r="D70" s="114"/>
+      <c r="D70" s="128"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="83"/>
@@ -12626,7 +12629,7 @@
         <v>775</v>
       </c>
       <c r="C71" s="84"/>
-      <c r="D71" s="114"/>
+      <c r="D71" s="128"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="83">
@@ -12636,7 +12639,7 @@
         <v>776</v>
       </c>
       <c r="C72" s="84"/>
-      <c r="D72" s="114"/>
+      <c r="D72" s="128"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="83"/>
@@ -12644,7 +12647,7 @@
         <v>777</v>
       </c>
       <c r="C73" s="84"/>
-      <c r="D73" s="114"/>
+      <c r="D73" s="128"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="83"/>
@@ -12652,7 +12655,7 @@
         <v>778</v>
       </c>
       <c r="C74" s="84"/>
-      <c r="D74" s="114"/>
+      <c r="D74" s="128"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="83">
@@ -12662,7 +12665,7 @@
         <v>779</v>
       </c>
       <c r="C75" s="84"/>
-      <c r="D75" s="114"/>
+      <c r="D75" s="128"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="83"/>
@@ -12670,7 +12673,7 @@
         <v>780</v>
       </c>
       <c r="C76" s="84"/>
-      <c r="D76" s="114"/>
+      <c r="D76" s="128"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="83"/>
@@ -12678,7 +12681,7 @@
         <v>781</v>
       </c>
       <c r="C77" s="84"/>
-      <c r="D77" s="114"/>
+      <c r="D77" s="128"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
@@ -12688,7 +12691,7 @@
         <v>782</v>
       </c>
       <c r="C78" s="84"/>
-      <c r="D78" s="114"/>
+      <c r="D78" s="128"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="53">
@@ -12697,338 +12700,338 @@
       <c r="B79" s="54" t="s">
         <v>811</v>
       </c>
-      <c r="C79" s="115" t="s">
+      <c r="C79" s="120" t="s">
         <v>812</v>
       </c>
-      <c r="D79" s="118">
+      <c r="D79" s="122">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="109">
+      <c r="A80" s="114">
         <v>9.1</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="C80" s="116"/>
+      <c r="C80" s="117"/>
       <c r="D80" s="119"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="110"/>
+      <c r="A81" s="115"/>
       <c r="B81" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="C81" s="116"/>
+      <c r="C81" s="117"/>
       <c r="D81" s="119"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="110"/>
+      <c r="A82" s="115"/>
       <c r="B82" s="56" t="s">
         <v>815</v>
       </c>
-      <c r="C82" s="116"/>
+      <c r="C82" s="117"/>
       <c r="D82" s="119"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="110"/>
+      <c r="A83" s="115"/>
       <c r="B83" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="C83" s="116"/>
+      <c r="C83" s="117"/>
       <c r="D83" s="119"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="110"/>
+      <c r="A84" s="115"/>
       <c r="B84" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="C84" s="116"/>
+      <c r="C84" s="117"/>
       <c r="D84" s="119"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="110"/>
+      <c r="A85" s="115"/>
       <c r="B85" s="56" t="s">
         <v>818</v>
       </c>
-      <c r="C85" s="116"/>
+      <c r="C85" s="117"/>
       <c r="D85" s="119"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="121"/>
+      <c r="A86" s="124"/>
       <c r="B86" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="C86" s="116"/>
+      <c r="C86" s="117"/>
       <c r="D86" s="119"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="109">
+      <c r="A87" s="114">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="C87" s="116"/>
+      <c r="C87" s="117"/>
       <c r="D87" s="119"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="110"/>
+      <c r="A88" s="115"/>
       <c r="B88" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="C88" s="116"/>
+      <c r="C88" s="117"/>
       <c r="D88" s="119"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="110"/>
+      <c r="A89" s="115"/>
       <c r="B89" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="C89" s="116"/>
+      <c r="C89" s="117"/>
       <c r="D89" s="119"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="121"/>
+      <c r="A90" s="124"/>
       <c r="B90" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="C90" s="116"/>
+      <c r="C90" s="117"/>
       <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="109">
+      <c r="A91" s="114">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="C91" s="116"/>
+      <c r="C91" s="117"/>
       <c r="D91" s="119"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="110"/>
+      <c r="A92" s="115"/>
       <c r="B92" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="116"/>
+      <c r="C92" s="117"/>
       <c r="D92" s="119"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="121"/>
+      <c r="A93" s="124"/>
       <c r="B93" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="C93" s="116"/>
+      <c r="C93" s="117"/>
       <c r="D93" s="119"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="109">
+      <c r="A94" s="114">
         <v>9.4</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>826</v>
       </c>
-      <c r="C94" s="116"/>
+      <c r="C94" s="117"/>
       <c r="D94" s="119"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="110"/>
+      <c r="A95" s="115"/>
       <c r="B95" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="C95" s="116"/>
+      <c r="C95" s="117"/>
       <c r="D95" s="119"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="121"/>
+      <c r="A96" s="124"/>
       <c r="B96" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="C96" s="117"/>
-      <c r="D96" s="120"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="123"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="109">
+      <c r="A97" s="114">
         <v>9.5</v>
       </c>
       <c r="B97" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="C97" s="123" t="s">
+      <c r="C97" s="116" t="s">
         <v>830</v>
       </c>
-      <c r="D97" s="122">
+      <c r="D97" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="110"/>
+      <c r="A98" s="115"/>
       <c r="B98" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="C98" s="116"/>
+      <c r="C98" s="117"/>
       <c r="D98" s="119"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="110"/>
+      <c r="A99" s="115"/>
       <c r="B99" s="60" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="116"/>
+      <c r="C99" s="117"/>
       <c r="D99" s="119"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="121"/>
+      <c r="A100" s="124"/>
       <c r="B100" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="C100" s="116"/>
+      <c r="C100" s="117"/>
       <c r="D100" s="119"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="109">
+      <c r="A101" s="114">
         <v>9.6</v>
       </c>
       <c r="B101" s="59" t="s">
         <v>834</v>
       </c>
-      <c r="C101" s="116"/>
+      <c r="C101" s="117"/>
       <c r="D101" s="119"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="110"/>
+      <c r="A102" s="115"/>
       <c r="B102" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="C102" s="116"/>
+      <c r="C102" s="117"/>
       <c r="D102" s="119"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="110"/>
+      <c r="A103" s="115"/>
       <c r="B103" s="60" t="s">
         <v>836</v>
       </c>
-      <c r="C103" s="116"/>
+      <c r="C103" s="117"/>
       <c r="D103" s="119"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="110"/>
+      <c r="A104" s="115"/>
       <c r="B104" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="C104" s="116"/>
+      <c r="C104" s="117"/>
       <c r="D104" s="119"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="121"/>
+      <c r="A105" s="124"/>
       <c r="B105" s="60" t="s">
         <v>838</v>
       </c>
-      <c r="C105" s="117"/>
-      <c r="D105" s="120"/>
+      <c r="C105" s="121"/>
+      <c r="D105" s="123"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="109">
+      <c r="A106" s="114">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>839</v>
       </c>
-      <c r="C106" s="123" t="s">
+      <c r="C106" s="116" t="s">
         <v>840</v>
       </c>
-      <c r="D106" s="122">
+      <c r="D106" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="110"/>
+      <c r="A107" s="115"/>
       <c r="B107" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="C107" s="116"/>
+      <c r="C107" s="117"/>
       <c r="D107" s="119"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="121"/>
+      <c r="A108" s="124"/>
       <c r="B108" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="C108" s="116"/>
+      <c r="C108" s="117"/>
       <c r="D108" s="119"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="109">
+      <c r="A109" s="114">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="C109" s="116"/>
+      <c r="C109" s="117"/>
       <c r="D109" s="119"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="110"/>
+      <c r="A110" s="115"/>
       <c r="B110" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="C110" s="116"/>
+      <c r="C110" s="117"/>
       <c r="D110" s="119"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="121"/>
+      <c r="A111" s="124"/>
       <c r="B111" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="C111" s="116"/>
+      <c r="C111" s="117"/>
       <c r="D111" s="119"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="109">
+      <c r="A112" s="114">
         <v>9.9</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="C112" s="116"/>
+      <c r="C112" s="117"/>
       <c r="D112" s="119"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="110"/>
+      <c r="A113" s="115"/>
       <c r="B113" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="C113" s="116"/>
+      <c r="C113" s="117"/>
       <c r="D113" s="119"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="110"/>
+      <c r="A114" s="115"/>
       <c r="B114" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="C114" s="116"/>
+      <c r="C114" s="117"/>
       <c r="D114" s="119"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="121"/>
+      <c r="A115" s="124"/>
       <c r="B115" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="C115" s="117"/>
-      <c r="D115" s="120"/>
+      <c r="C115" s="121"/>
+      <c r="D115" s="123"/>
     </row>
     <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="122">
+      <c r="A116" s="118">
         <v>9.1</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="C116" s="123" t="s">
+      <c r="C116" s="116" t="s">
         <v>851</v>
       </c>
-      <c r="D116" s="122">
+      <c r="D116" s="118">
         <v>1</v>
       </c>
     </row>
@@ -13037,7 +13040,7 @@
       <c r="B117" s="60" t="s">
         <v>852</v>
       </c>
-      <c r="C117" s="116"/>
+      <c r="C117" s="117"/>
       <c r="D117" s="119"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -13045,7 +13048,7 @@
       <c r="B118" s="60" t="s">
         <v>853</v>
       </c>
-      <c r="C118" s="116"/>
+      <c r="C118" s="117"/>
       <c r="D118" s="119"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -13053,16 +13056,16 @@
       <c r="B119" s="60" t="s">
         <v>854</v>
       </c>
-      <c r="C119" s="116"/>
+      <c r="C119" s="117"/>
       <c r="D119" s="119"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="120"/>
+      <c r="A120" s="123"/>
       <c r="B120" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="C120" s="117"/>
-      <c r="D120" s="120"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="123"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="53">
@@ -13071,370 +13074,370 @@
       <c r="B121" s="54" t="s">
         <v>856</v>
       </c>
-      <c r="C121" s="123" t="s">
+      <c r="C121" s="116" t="s">
         <v>857</v>
       </c>
-      <c r="D121" s="122">
+      <c r="D121" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="109">
+      <c r="A122" s="114">
         <v>10.1</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>858</v>
       </c>
-      <c r="C122" s="116"/>
+      <c r="C122" s="117"/>
       <c r="D122" s="119"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="110"/>
+      <c r="A123" s="115"/>
       <c r="B123" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="C123" s="116"/>
+      <c r="C123" s="117"/>
       <c r="D123" s="119"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="110"/>
+      <c r="A124" s="115"/>
       <c r="B124" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C124" s="116"/>
+      <c r="C124" s="117"/>
       <c r="D124" s="119"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="110"/>
+      <c r="A125" s="115"/>
       <c r="B125" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="C125" s="116"/>
+      <c r="C125" s="117"/>
       <c r="D125" s="119"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="110"/>
+      <c r="A126" s="115"/>
       <c r="B126" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C126" s="116"/>
+      <c r="C126" s="117"/>
       <c r="D126" s="119"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="110"/>
+      <c r="A127" s="115"/>
       <c r="B127" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="116"/>
+      <c r="C127" s="117"/>
       <c r="D127" s="119"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="110"/>
+      <c r="A128" s="115"/>
       <c r="B128" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="C128" s="116"/>
+      <c r="C128" s="117"/>
       <c r="D128" s="119"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="110"/>
+      <c r="A129" s="115"/>
       <c r="B129" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="C129" s="116"/>
+      <c r="C129" s="117"/>
       <c r="D129" s="119"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="110"/>
+      <c r="A130" s="115"/>
       <c r="B130" s="57" t="s">
         <v>866</v>
       </c>
-      <c r="C130" s="116"/>
+      <c r="C130" s="117"/>
       <c r="D130" s="119"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="110"/>
+      <c r="A131" s="115"/>
       <c r="B131" s="57" t="s">
         <v>867</v>
       </c>
-      <c r="C131" s="116"/>
+      <c r="C131" s="117"/>
       <c r="D131" s="119"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="110"/>
+      <c r="A132" s="115"/>
       <c r="B132" s="57" t="s">
         <v>868</v>
       </c>
-      <c r="C132" s="116"/>
+      <c r="C132" s="117"/>
       <c r="D132" s="119"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="110"/>
+      <c r="A133" s="115"/>
       <c r="B133" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="C133" s="116"/>
+      <c r="C133" s="117"/>
       <c r="D133" s="119"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="110"/>
+      <c r="A134" s="115"/>
       <c r="B134" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="C134" s="116"/>
+      <c r="C134" s="117"/>
       <c r="D134" s="119"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="110"/>
+      <c r="A135" s="115"/>
       <c r="B135" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="C135" s="116"/>
+      <c r="C135" s="117"/>
       <c r="D135" s="119"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="110"/>
+      <c r="A136" s="115"/>
       <c r="B136" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="C136" s="116"/>
+      <c r="C136" s="117"/>
       <c r="D136" s="119"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="110"/>
+      <c r="A137" s="115"/>
       <c r="B137" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="C137" s="116"/>
+      <c r="C137" s="117"/>
       <c r="D137" s="119"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="110"/>
+      <c r="A138" s="115"/>
       <c r="B138" s="57" t="s">
         <v>874</v>
       </c>
-      <c r="C138" s="116"/>
+      <c r="C138" s="117"/>
       <c r="D138" s="119"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="110"/>
+      <c r="A139" s="115"/>
       <c r="B139" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C139" s="116"/>
+      <c r="C139" s="117"/>
       <c r="D139" s="119"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="110"/>
+      <c r="A140" s="115"/>
       <c r="B140" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C140" s="116"/>
+      <c r="C140" s="117"/>
       <c r="D140" s="119"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="110"/>
+      <c r="A141" s="115"/>
       <c r="B141" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="C141" s="116"/>
+      <c r="C141" s="117"/>
       <c r="D141" s="119"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="109">
+      <c r="A142" s="114">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="C142" s="116"/>
+      <c r="C142" s="117"/>
       <c r="D142" s="119"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="110"/>
+      <c r="A143" s="115"/>
       <c r="B143" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="C143" s="116"/>
+      <c r="C143" s="117"/>
       <c r="D143" s="119"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="110"/>
+      <c r="A144" s="115"/>
       <c r="B144" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="C144" s="116"/>
+      <c r="C144" s="117"/>
       <c r="D144" s="119"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="110"/>
+      <c r="A145" s="115"/>
       <c r="B145" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="C145" s="116"/>
+      <c r="C145" s="117"/>
       <c r="D145" s="119"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="110"/>
+      <c r="A146" s="115"/>
       <c r="B146" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="C146" s="116"/>
+      <c r="C146" s="117"/>
       <c r="D146" s="119"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="110"/>
+      <c r="A147" s="115"/>
       <c r="B147" s="52" t="s">
         <v>883</v>
       </c>
-      <c r="C147" s="116"/>
+      <c r="C147" s="117"/>
       <c r="D147" s="119"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="110"/>
+      <c r="A148" s="115"/>
       <c r="B148" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="C148" s="116"/>
+      <c r="C148" s="117"/>
       <c r="D148" s="119"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="110"/>
+      <c r="A149" s="115"/>
       <c r="B149" s="62" t="s">
         <v>885</v>
       </c>
-      <c r="C149" s="116"/>
+      <c r="C149" s="117"/>
       <c r="D149" s="119"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="110"/>
+      <c r="A150" s="115"/>
       <c r="B150" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="C150" s="116"/>
+      <c r="C150" s="117"/>
       <c r="D150" s="119"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="110"/>
+      <c r="A151" s="115"/>
       <c r="B151" s="52" t="s">
         <v>887</v>
       </c>
-      <c r="C151" s="116"/>
+      <c r="C151" s="117"/>
       <c r="D151" s="119"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="110"/>
+      <c r="A152" s="115"/>
       <c r="B152" s="62" t="s">
         <v>888</v>
       </c>
-      <c r="C152" s="116"/>
+      <c r="C152" s="117"/>
       <c r="D152" s="119"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="110"/>
+      <c r="A153" s="115"/>
       <c r="B153" s="62" t="s">
         <v>889</v>
       </c>
-      <c r="C153" s="116"/>
+      <c r="C153" s="117"/>
       <c r="D153" s="119"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="121"/>
+      <c r="A154" s="124"/>
       <c r="B154" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="C154" s="117"/>
-      <c r="D154" s="120"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="123"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="109">
+      <c r="A155" s="114">
         <v>10.3</v>
       </c>
       <c r="B155" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="C155" s="123" t="s">
+      <c r="C155" s="116" t="s">
         <v>892</v>
       </c>
-      <c r="D155" s="122">
+      <c r="D155" s="118">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="110"/>
+      <c r="A156" s="115"/>
       <c r="B156" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="C156" s="116"/>
+      <c r="C156" s="117"/>
       <c r="D156" s="119"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="110"/>
+      <c r="A157" s="115"/>
       <c r="B157" s="60" t="s">
         <v>894</v>
       </c>
-      <c r="C157" s="116"/>
+      <c r="C157" s="117"/>
       <c r="D157" s="119"/>
     </row>
     <row r="158" spans="1:4" s="64" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="124">
+      <c r="A158" s="106">
         <v>10.4</v>
       </c>
       <c r="B158" s="63" t="s">
         <v>895</v>
       </c>
-      <c r="C158" s="126" t="s">
+      <c r="C158" s="108" t="s">
         <v>896</v>
       </c>
-      <c r="D158" s="128">
+      <c r="D158" s="110">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="125"/>
+      <c r="A159" s="107"/>
       <c r="B159" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="C159" s="127"/>
-      <c r="D159" s="129"/>
+      <c r="C159" s="109"/>
+      <c r="D159" s="111"/>
     </row>
     <row r="160" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="125"/>
+      <c r="A160" s="107"/>
       <c r="B160" s="65" t="s">
         <v>898</v>
       </c>
-      <c r="C160" s="127"/>
-      <c r="D160" s="129"/>
+      <c r="C160" s="109"/>
+      <c r="D160" s="111"/>
     </row>
     <row r="161" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="124">
+      <c r="A161" s="106">
         <v>10.5</v>
       </c>
       <c r="B161" s="63" t="s">
         <v>899</v>
       </c>
-      <c r="C161" s="126" t="s">
+      <c r="C161" s="108" t="s">
         <v>900</v>
       </c>
-      <c r="D161" s="128">
+      <c r="D161" s="110">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="125"/>
+      <c r="A162" s="107"/>
       <c r="B162" s="65" t="s">
         <v>901</v>
       </c>
-      <c r="C162" s="127"/>
-      <c r="D162" s="129"/>
+      <c r="C162" s="109"/>
+      <c r="D162" s="111"/>
     </row>
     <row r="163" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="125"/>
+      <c r="A163" s="107"/>
       <c r="B163" s="65" t="s">
         <v>902</v>
       </c>
-      <c r="C163" s="127"/>
-      <c r="D163" s="129"/>
+      <c r="C163" s="109"/>
+      <c r="D163" s="111"/>
     </row>
     <row r="164" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A164" s="66">
@@ -13443,10 +13446,10 @@
       <c r="B164" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="C164" s="130" t="s">
+      <c r="C164" s="112" t="s">
         <v>379</v>
       </c>
-      <c r="D164" s="131">
+      <c r="D164" s="113">
         <v>0.5</v>
       </c>
     </row>
@@ -13457,8 +13460,8 @@
       <c r="B165" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="C165" s="130"/>
-      <c r="D165" s="131"/>
+      <c r="C165" s="112"/>
+      <c r="D165" s="113"/>
     </row>
     <row r="166" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A166" s="68">
@@ -13467,26 +13470,26 @@
       <c r="B166" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="C166" s="130"/>
-      <c r="D166" s="131"/>
+      <c r="C166" s="112"/>
+      <c r="D166" s="113"/>
     </row>
     <row r="167" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="132">
+      <c r="A167" s="101">
         <v>6.3</v>
       </c>
       <c r="B167" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="C167" s="130"/>
-      <c r="D167" s="131"/>
+      <c r="C167" s="112"/>
+      <c r="D167" s="113"/>
     </row>
     <row r="168" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="132"/>
+      <c r="A168" s="101"/>
       <c r="B168" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="C168" s="130"/>
-      <c r="D168" s="131"/>
+      <c r="C168" s="112"/>
+      <c r="D168" s="113"/>
     </row>
     <row r="169" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="66">
@@ -13495,106 +13498,106 @@
       <c r="B169" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="C169" s="133" t="s">
+      <c r="C169" s="99" t="s">
         <v>385</v>
       </c>
-      <c r="D169" s="134">
+      <c r="D169" s="105">
         <v>0.75</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="132">
+      <c r="A170" s="101">
         <v>7.1</v>
       </c>
       <c r="B170" s="69" t="s">
         <v>386</v>
       </c>
-      <c r="C170" s="133"/>
-      <c r="D170" s="134"/>
+      <c r="C170" s="99"/>
+      <c r="D170" s="105"/>
     </row>
     <row r="171" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="132"/>
+      <c r="A171" s="101"/>
       <c r="B171" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="C171" s="133"/>
-      <c r="D171" s="134"/>
+      <c r="C171" s="99"/>
+      <c r="D171" s="105"/>
     </row>
     <row r="172" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="132"/>
+      <c r="A172" s="101"/>
       <c r="B172" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="C172" s="133"/>
-      <c r="D172" s="134"/>
+      <c r="C172" s="99"/>
+      <c r="D172" s="105"/>
     </row>
     <row r="173" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="132">
+      <c r="A173" s="101">
         <v>7.2</v>
       </c>
       <c r="B173" s="69" t="s">
         <v>389</v>
       </c>
-      <c r="C173" s="133"/>
-      <c r="D173" s="134"/>
+      <c r="C173" s="99"/>
+      <c r="D173" s="105"/>
     </row>
     <row r="174" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="132"/>
+      <c r="A174" s="101"/>
       <c r="B174" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="C174" s="133"/>
-      <c r="D174" s="134"/>
+      <c r="C174" s="99"/>
+      <c r="D174" s="105"/>
     </row>
     <row r="175" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="132"/>
+      <c r="A175" s="101"/>
       <c r="B175" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="C175" s="133"/>
-      <c r="D175" s="134"/>
+      <c r="C175" s="99"/>
+      <c r="D175" s="105"/>
     </row>
     <row r="176" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="132">
+      <c r="A176" s="101">
         <v>7.3</v>
       </c>
       <c r="B176" s="69" t="s">
         <v>392</v>
       </c>
-      <c r="C176" s="133"/>
-      <c r="D176" s="134"/>
+      <c r="C176" s="99"/>
+      <c r="D176" s="105"/>
     </row>
     <row r="177" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="132"/>
+      <c r="A177" s="101"/>
       <c r="B177" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="C177" s="133"/>
-      <c r="D177" s="134"/>
+      <c r="C177" s="99"/>
+      <c r="D177" s="105"/>
     </row>
     <row r="178" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="132"/>
+      <c r="A178" s="101"/>
       <c r="B178" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="C178" s="133"/>
-      <c r="D178" s="134"/>
+      <c r="C178" s="99"/>
+      <c r="D178" s="105"/>
     </row>
     <row r="179" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="132"/>
+      <c r="A179" s="101"/>
       <c r="B179" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C179" s="133"/>
-      <c r="D179" s="134"/>
+      <c r="C179" s="99"/>
+      <c r="D179" s="105"/>
     </row>
     <row r="180" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="132"/>
+      <c r="A180" s="101"/>
       <c r="B180" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="C180" s="133"/>
-      <c r="D180" s="134"/>
+      <c r="C180" s="99"/>
+      <c r="D180" s="105"/>
     </row>
     <row r="181" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A181" s="66">
@@ -13603,82 +13606,82 @@
       <c r="B181" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="C181" s="133" t="s">
+      <c r="C181" s="99" t="s">
         <v>398</v>
       </c>
-      <c r="D181" s="135">
+      <c r="D181" s="100">
         <v>0.75</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="132">
+      <c r="A182" s="101">
         <v>8.1</v>
       </c>
       <c r="B182" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="C182" s="133"/>
-      <c r="D182" s="135"/>
+      <c r="C182" s="99"/>
+      <c r="D182" s="100"/>
     </row>
     <row r="183" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="132"/>
+      <c r="A183" s="101"/>
       <c r="B183" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="C183" s="133"/>
-      <c r="D183" s="135"/>
+      <c r="C183" s="99"/>
+      <c r="D183" s="100"/>
     </row>
     <row r="184" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="132"/>
+      <c r="A184" s="101"/>
       <c r="B184" s="70" t="s">
         <v>401</v>
       </c>
-      <c r="C184" s="133"/>
-      <c r="D184" s="135"/>
+      <c r="C184" s="99"/>
+      <c r="D184" s="100"/>
     </row>
     <row r="185" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="132">
+      <c r="A185" s="101">
         <v>8.1999999999999993</v>
       </c>
       <c r="B185" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="C185" s="133"/>
-      <c r="D185" s="135"/>
+      <c r="C185" s="99"/>
+      <c r="D185" s="100"/>
     </row>
     <row r="186" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="132"/>
+      <c r="A186" s="101"/>
       <c r="B186" s="70" t="s">
         <v>403</v>
       </c>
-      <c r="C186" s="133"/>
-      <c r="D186" s="135"/>
+      <c r="C186" s="99"/>
+      <c r="D186" s="100"/>
     </row>
     <row r="187" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="132"/>
+      <c r="A187" s="101"/>
       <c r="B187" s="70" t="s">
         <v>404</v>
       </c>
-      <c r="C187" s="133"/>
-      <c r="D187" s="135"/>
+      <c r="C187" s="99"/>
+      <c r="D187" s="100"/>
     </row>
     <row r="188" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="132">
+      <c r="A188" s="101">
         <v>8.3000000000000007</v>
       </c>
       <c r="B188" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="C188" s="133"/>
-      <c r="D188" s="135"/>
+      <c r="C188" s="99"/>
+      <c r="D188" s="100"/>
     </row>
     <row r="189" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="132"/>
+      <c r="A189" s="101"/>
       <c r="B189" s="70" t="s">
         <v>903</v>
       </c>
-      <c r="C189" s="133"/>
-      <c r="D189" s="135"/>
+      <c r="C189" s="99"/>
+      <c r="D189" s="100"/>
     </row>
     <row r="190" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A190" s="66">
@@ -13687,8 +13690,8 @@
       <c r="B190" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="C190" s="133"/>
-      <c r="D190" s="135"/>
+      <c r="C190" s="99"/>
+      <c r="D190" s="100"/>
     </row>
     <row r="191" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A191" s="68">
@@ -13697,8 +13700,8 @@
       <c r="B191" s="69" t="s">
         <v>407</v>
       </c>
-      <c r="C191" s="133"/>
-      <c r="D191" s="135"/>
+      <c r="C191" s="99"/>
+      <c r="D191" s="100"/>
     </row>
     <row r="192" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A192" s="68">
@@ -13707,8 +13710,8 @@
       <c r="B192" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="C192" s="133"/>
-      <c r="D192" s="135"/>
+      <c r="C192" s="99"/>
+      <c r="D192" s="100"/>
     </row>
     <row r="193" spans="1:4" s="64" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="66">
@@ -13717,96 +13720,96 @@
       <c r="B193" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="C193" s="136" t="s">
+      <c r="C193" s="102" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="135">
+      <c r="D193" s="100">
         <v>0.75</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="132">
+      <c r="A194" s="101">
         <v>10.1</v>
       </c>
       <c r="B194" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="C194" s="137"/>
-      <c r="D194" s="135"/>
+      <c r="C194" s="103"/>
+      <c r="D194" s="100"/>
     </row>
     <row r="195" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="132"/>
+      <c r="A195" s="101"/>
       <c r="B195" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="C195" s="137"/>
-      <c r="D195" s="135"/>
+      <c r="C195" s="103"/>
+      <c r="D195" s="100"/>
     </row>
     <row r="196" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="132"/>
+      <c r="A196" s="101"/>
       <c r="B196" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="C196" s="137"/>
-      <c r="D196" s="135"/>
+      <c r="C196" s="103"/>
+      <c r="D196" s="100"/>
     </row>
     <row r="197" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="132"/>
+      <c r="A197" s="101"/>
       <c r="B197" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="C197" s="137"/>
-      <c r="D197" s="135"/>
+      <c r="C197" s="103"/>
+      <c r="D197" s="100"/>
     </row>
     <row r="198" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="132"/>
+      <c r="A198" s="101"/>
       <c r="B198" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="C198" s="137"/>
-      <c r="D198" s="135"/>
+      <c r="C198" s="103"/>
+      <c r="D198" s="100"/>
     </row>
     <row r="199" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="132">
+      <c r="A199" s="101">
         <v>10.199999999999999</v>
       </c>
       <c r="B199" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="C199" s="137"/>
-      <c r="D199" s="135"/>
+      <c r="C199" s="103"/>
+      <c r="D199" s="100"/>
     </row>
     <row r="200" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="132"/>
+      <c r="A200" s="101"/>
       <c r="B200" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="C200" s="137"/>
-      <c r="D200" s="135"/>
+      <c r="C200" s="103"/>
+      <c r="D200" s="100"/>
     </row>
     <row r="201" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="132"/>
+      <c r="A201" s="101"/>
       <c r="B201" s="70" t="s">
         <v>418</v>
       </c>
-      <c r="C201" s="137"/>
-      <c r="D201" s="135"/>
+      <c r="C201" s="103"/>
+      <c r="D201" s="100"/>
     </row>
     <row r="202" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="132"/>
+      <c r="A202" s="101"/>
       <c r="B202" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="C202" s="137"/>
-      <c r="D202" s="135"/>
+      <c r="C202" s="103"/>
+      <c r="D202" s="100"/>
     </row>
     <row r="203" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="132"/>
+      <c r="A203" s="101"/>
       <c r="B203" s="70" t="s">
         <v>420</v>
       </c>
-      <c r="C203" s="138"/>
-      <c r="D203" s="135"/>
+      <c r="C203" s="104"/>
+      <c r="D203" s="100"/>
     </row>
     <row r="204" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A204" s="66">
@@ -13815,146 +13818,146 @@
       <c r="B204" s="67" t="s">
         <v>421</v>
       </c>
-      <c r="C204" s="133" t="s">
+      <c r="C204" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="D204" s="135">
+      <c r="D204" s="100">
         <v>0.5</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="132">
+      <c r="A205" s="101">
         <v>11.1</v>
       </c>
       <c r="B205" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="C205" s="133"/>
-      <c r="D205" s="135"/>
+      <c r="C205" s="99"/>
+      <c r="D205" s="100"/>
     </row>
     <row r="206" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="132"/>
+      <c r="A206" s="101"/>
       <c r="B206" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="C206" s="133"/>
-      <c r="D206" s="135"/>
+      <c r="C206" s="99"/>
+      <c r="D206" s="100"/>
     </row>
     <row r="207" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="132"/>
+      <c r="A207" s="101"/>
       <c r="B207" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="C207" s="133"/>
-      <c r="D207" s="135"/>
+      <c r="C207" s="99"/>
+      <c r="D207" s="100"/>
     </row>
     <row r="208" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="132"/>
+      <c r="A208" s="101"/>
       <c r="B208" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="C208" s="133"/>
-      <c r="D208" s="135"/>
+      <c r="C208" s="99"/>
+      <c r="D208" s="100"/>
     </row>
     <row r="209" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="132"/>
+      <c r="A209" s="101"/>
       <c r="B209" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="C209" s="133"/>
-      <c r="D209" s="135"/>
+      <c r="C209" s="99"/>
+      <c r="D209" s="100"/>
     </row>
     <row r="210" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="132">
+      <c r="A210" s="101">
         <v>11.2</v>
       </c>
       <c r="B210" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="C210" s="133"/>
-      <c r="D210" s="135"/>
+      <c r="C210" s="99"/>
+      <c r="D210" s="100"/>
     </row>
     <row r="211" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="132"/>
+      <c r="A211" s="101"/>
       <c r="B211" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="C211" s="133"/>
-      <c r="D211" s="135"/>
+      <c r="C211" s="99"/>
+      <c r="D211" s="100"/>
     </row>
     <row r="212" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="132"/>
+      <c r="A212" s="101"/>
       <c r="B212" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="C212" s="133"/>
-      <c r="D212" s="135"/>
+      <c r="C212" s="99"/>
+      <c r="D212" s="100"/>
     </row>
     <row r="213" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="132"/>
+      <c r="A213" s="101"/>
       <c r="B213" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="C213" s="133"/>
-      <c r="D213" s="135"/>
+      <c r="C213" s="99"/>
+      <c r="D213" s="100"/>
     </row>
     <row r="214" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="132"/>
+      <c r="A214" s="101"/>
       <c r="B214" s="70" t="s">
         <v>432</v>
       </c>
-      <c r="C214" s="133"/>
-      <c r="D214" s="135"/>
+      <c r="C214" s="99"/>
+      <c r="D214" s="100"/>
     </row>
     <row r="215" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="132"/>
+      <c r="A215" s="101"/>
       <c r="B215" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="C215" s="133"/>
-      <c r="D215" s="135"/>
+      <c r="C215" s="99"/>
+      <c r="D215" s="100"/>
     </row>
     <row r="216" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="132">
+      <c r="A216" s="101">
         <v>11.3</v>
       </c>
       <c r="B216" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="C216" s="133"/>
-      <c r="D216" s="135"/>
+      <c r="C216" s="99"/>
+      <c r="D216" s="100"/>
     </row>
     <row r="217" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="132"/>
+      <c r="A217" s="101"/>
       <c r="B217" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="C217" s="133"/>
-      <c r="D217" s="135"/>
+      <c r="C217" s="99"/>
+      <c r="D217" s="100"/>
     </row>
     <row r="218" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="132"/>
+      <c r="A218" s="101"/>
       <c r="B218" s="70" t="s">
         <v>436</v>
       </c>
-      <c r="C218" s="133"/>
-      <c r="D218" s="135"/>
+      <c r="C218" s="99"/>
+      <c r="D218" s="100"/>
     </row>
     <row r="219" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="132"/>
+      <c r="A219" s="101"/>
       <c r="B219" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="C219" s="133"/>
-      <c r="D219" s="135"/>
+      <c r="C219" s="99"/>
+      <c r="D219" s="100"/>
     </row>
     <row r="220" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="132"/>
+      <c r="A220" s="101"/>
       <c r="B220" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="C220" s="133"/>
-      <c r="D220" s="135"/>
+      <c r="C220" s="99"/>
+      <c r="D220" s="100"/>
     </row>
     <row r="221" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="66">
@@ -13963,90 +13966,90 @@
       <c r="B221" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="C221" s="133" t="s">
+      <c r="C221" s="99" t="s">
         <v>440</v>
       </c>
-      <c r="D221" s="135">
+      <c r="D221" s="100">
         <v>0.25</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="132">
+      <c r="A222" s="101">
         <v>12.1</v>
       </c>
       <c r="B222" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="C222" s="133"/>
-      <c r="D222" s="135"/>
+      <c r="C222" s="99"/>
+      <c r="D222" s="100"/>
     </row>
     <row r="223" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="132"/>
+      <c r="A223" s="101"/>
       <c r="B223" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="C223" s="133"/>
-      <c r="D223" s="135"/>
+      <c r="C223" s="99"/>
+      <c r="D223" s="100"/>
     </row>
     <row r="224" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="132"/>
+      <c r="A224" s="101"/>
       <c r="B224" s="70" t="s">
         <v>443</v>
       </c>
-      <c r="C224" s="133"/>
-      <c r="D224" s="135"/>
+      <c r="C224" s="99"/>
+      <c r="D224" s="100"/>
     </row>
     <row r="225" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="132">
+      <c r="A225" s="101">
         <v>12.2</v>
       </c>
       <c r="B225" s="69" t="s">
         <v>444</v>
       </c>
-      <c r="C225" s="133"/>
-      <c r="D225" s="135"/>
+      <c r="C225" s="99"/>
+      <c r="D225" s="100"/>
     </row>
     <row r="226" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="132"/>
+      <c r="A226" s="101"/>
       <c r="B226" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="C226" s="133"/>
-      <c r="D226" s="135"/>
+      <c r="C226" s="99"/>
+      <c r="D226" s="100"/>
     </row>
     <row r="227" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="132"/>
+      <c r="A227" s="101"/>
       <c r="B227" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="C227" s="133"/>
-      <c r="D227" s="135"/>
+      <c r="C227" s="99"/>
+      <c r="D227" s="100"/>
     </row>
     <row r="228" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="132">
+      <c r="A228" s="101">
         <v>12.3</v>
       </c>
       <c r="B228" s="69" t="s">
         <v>447</v>
       </c>
-      <c r="C228" s="133"/>
-      <c r="D228" s="135"/>
+      <c r="C228" s="99"/>
+      <c r="D228" s="100"/>
     </row>
     <row r="229" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="132"/>
+      <c r="A229" s="101"/>
       <c r="B229" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="C229" s="133"/>
-      <c r="D229" s="135"/>
+      <c r="C229" s="99"/>
+      <c r="D229" s="100"/>
     </row>
     <row r="230" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="132"/>
+      <c r="A230" s="101"/>
       <c r="B230" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="C230" s="133"/>
-      <c r="D230" s="135"/>
+      <c r="C230" s="99"/>
+      <c r="D230" s="100"/>
     </row>
     <row r="231" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A231" s="66">
@@ -14055,90 +14058,90 @@
       <c r="B231" s="67" t="s">
         <v>450</v>
       </c>
-      <c r="C231" s="133" t="s">
+      <c r="C231" s="99" t="s">
         <v>451</v>
       </c>
-      <c r="D231" s="135">
+      <c r="D231" s="100">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="132">
+      <c r="A232" s="101">
         <v>13.1</v>
       </c>
       <c r="B232" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C232" s="133"/>
-      <c r="D232" s="135"/>
+      <c r="C232" s="99"/>
+      <c r="D232" s="100"/>
     </row>
     <row r="233" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="132"/>
+      <c r="A233" s="101"/>
       <c r="B233" s="70" t="s">
         <v>452</v>
       </c>
-      <c r="C233" s="133"/>
-      <c r="D233" s="135"/>
+      <c r="C233" s="99"/>
+      <c r="D233" s="100"/>
     </row>
     <row r="234" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="132"/>
+      <c r="A234" s="101"/>
       <c r="B234" s="71" t="s">
         <v>453</v>
       </c>
-      <c r="C234" s="133"/>
-      <c r="D234" s="135"/>
+      <c r="C234" s="99"/>
+      <c r="D234" s="100"/>
     </row>
     <row r="235" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="132">
+      <c r="A235" s="101">
         <v>13.2</v>
       </c>
       <c r="B235" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C235" s="133"/>
-      <c r="D235" s="135"/>
+      <c r="C235" s="99"/>
+      <c r="D235" s="100"/>
     </row>
     <row r="236" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="132"/>
+      <c r="A236" s="101"/>
       <c r="B236" s="70" t="s">
         <v>454</v>
       </c>
-      <c r="C236" s="133"/>
-      <c r="D236" s="135"/>
+      <c r="C236" s="99"/>
+      <c r="D236" s="100"/>
     </row>
     <row r="237" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="132"/>
+      <c r="A237" s="101"/>
       <c r="B237" s="71" t="s">
         <v>455</v>
       </c>
-      <c r="C237" s="133"/>
-      <c r="D237" s="135"/>
+      <c r="C237" s="99"/>
+      <c r="D237" s="100"/>
     </row>
     <row r="238" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="132">
+      <c r="A238" s="101">
         <v>13.3</v>
       </c>
       <c r="B238" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C238" s="133"/>
-      <c r="D238" s="135"/>
+      <c r="C238" s="99"/>
+      <c r="D238" s="100"/>
     </row>
     <row r="239" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="132"/>
+      <c r="A239" s="101"/>
       <c r="B239" s="70" t="s">
         <v>456</v>
       </c>
-      <c r="C239" s="133"/>
-      <c r="D239" s="135"/>
+      <c r="C239" s="99"/>
+      <c r="D239" s="100"/>
     </row>
     <row r="240" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="132"/>
+      <c r="A240" s="101"/>
       <c r="B240" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="C240" s="133"/>
-      <c r="D240" s="135"/>
+      <c r="C240" s="99"/>
+      <c r="D240" s="100"/>
     </row>
     <row r="241" spans="1:4" s="64" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="66">
@@ -14147,335 +14150,315 @@
       <c r="B241" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="C241" s="133" t="s">
+      <c r="C241" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="D241" s="135">
+      <c r="D241" s="100">
         <v>0.5</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="132">
+      <c r="A242" s="101">
         <v>14.1</v>
       </c>
       <c r="B242" s="69" t="s">
         <v>460</v>
       </c>
-      <c r="C242" s="133"/>
-      <c r="D242" s="135"/>
+      <c r="C242" s="99"/>
+      <c r="D242" s="100"/>
     </row>
     <row r="243" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="132"/>
+      <c r="A243" s="101"/>
       <c r="B243" s="70" t="s">
         <v>461</v>
       </c>
-      <c r="C243" s="133"/>
-      <c r="D243" s="135"/>
+      <c r="C243" s="99"/>
+      <c r="D243" s="100"/>
     </row>
     <row r="244" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="132"/>
+      <c r="A244" s="101"/>
       <c r="B244" s="70" t="s">
         <v>462</v>
       </c>
-      <c r="C244" s="133"/>
-      <c r="D244" s="135"/>
+      <c r="C244" s="99"/>
+      <c r="D244" s="100"/>
     </row>
     <row r="245" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="132"/>
+      <c r="A245" s="101"/>
       <c r="B245" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="C245" s="133"/>
-      <c r="D245" s="135"/>
+      <c r="C245" s="99"/>
+      <c r="D245" s="100"/>
     </row>
     <row r="246" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="132">
+      <c r="A246" s="101">
         <v>14.2</v>
       </c>
       <c r="B246" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="C246" s="133"/>
-      <c r="D246" s="135"/>
+      <c r="C246" s="99"/>
+      <c r="D246" s="100"/>
     </row>
     <row r="247" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="132"/>
+      <c r="A247" s="101"/>
       <c r="B247" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="C247" s="133"/>
-      <c r="D247" s="135"/>
+      <c r="C247" s="99"/>
+      <c r="D247" s="100"/>
     </row>
     <row r="248" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="132"/>
+      <c r="A248" s="101"/>
       <c r="B248" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="C248" s="133"/>
-      <c r="D248" s="135"/>
+      <c r="C248" s="99"/>
+      <c r="D248" s="100"/>
     </row>
     <row r="249" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="132"/>
+      <c r="A249" s="101"/>
       <c r="B249" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="C249" s="133"/>
-      <c r="D249" s="135"/>
+      <c r="C249" s="99"/>
+      <c r="D249" s="100"/>
     </row>
     <row r="250" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="132"/>
+      <c r="A250" s="101"/>
       <c r="B250" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="C250" s="133"/>
-      <c r="D250" s="135"/>
+      <c r="C250" s="99"/>
+      <c r="D250" s="100"/>
     </row>
     <row r="251" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="132">
+      <c r="A251" s="101">
         <v>14.3</v>
       </c>
       <c r="B251" s="69" t="s">
         <v>469</v>
       </c>
-      <c r="C251" s="133"/>
-      <c r="D251" s="135"/>
+      <c r="C251" s="99"/>
+      <c r="D251" s="100"/>
     </row>
     <row r="252" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="132"/>
+      <c r="A252" s="101"/>
       <c r="B252" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="C252" s="133"/>
-      <c r="D252" s="135"/>
+      <c r="C252" s="99"/>
+      <c r="D252" s="100"/>
     </row>
     <row r="253" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="132"/>
+      <c r="A253" s="101"/>
       <c r="B253" s="70" t="s">
         <v>471</v>
       </c>
-      <c r="C253" s="133"/>
-      <c r="D253" s="135"/>
+      <c r="C253" s="99"/>
+      <c r="D253" s="100"/>
     </row>
     <row r="254" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="132"/>
+      <c r="A254" s="101"/>
       <c r="B254" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="C254" s="133"/>
-      <c r="D254" s="135"/>
+      <c r="C254" s="99"/>
+      <c r="D254" s="100"/>
     </row>
     <row r="255" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="132"/>
+      <c r="A255" s="101"/>
       <c r="B255" s="70" t="s">
         <v>473</v>
       </c>
-      <c r="C255" s="133"/>
-      <c r="D255" s="135"/>
+      <c r="C255" s="99"/>
+      <c r="D255" s="100"/>
     </row>
     <row r="256" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="132">
+      <c r="A256" s="101">
         <v>14.4</v>
       </c>
       <c r="B256" s="69" t="s">
         <v>474</v>
       </c>
-      <c r="C256" s="133"/>
-      <c r="D256" s="135"/>
+      <c r="C256" s="99"/>
+      <c r="D256" s="100"/>
     </row>
     <row r="257" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="132"/>
+      <c r="A257" s="101"/>
       <c r="B257" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="C257" s="133"/>
-      <c r="D257" s="135"/>
+      <c r="C257" s="99"/>
+      <c r="D257" s="100"/>
     </row>
     <row r="258" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="132"/>
+      <c r="A258" s="101"/>
       <c r="B258" s="70" t="s">
         <v>476</v>
       </c>
-      <c r="C258" s="133"/>
-      <c r="D258" s="135"/>
+      <c r="C258" s="99"/>
+      <c r="D258" s="100"/>
     </row>
     <row r="259" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="132"/>
+      <c r="A259" s="101"/>
       <c r="B259" s="70" t="s">
         <v>477</v>
       </c>
-      <c r="C259" s="133"/>
-      <c r="D259" s="135"/>
+      <c r="C259" s="99"/>
+      <c r="D259" s="100"/>
     </row>
     <row r="260" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="135">
+      <c r="A260" s="100">
         <v>14.5</v>
       </c>
       <c r="B260" s="69" t="s">
         <v>478</v>
       </c>
-      <c r="C260" s="133"/>
-      <c r="D260" s="135"/>
+      <c r="C260" s="99"/>
+      <c r="D260" s="100"/>
     </row>
     <row r="261" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="135"/>
+      <c r="A261" s="100"/>
       <c r="B261" s="70" t="s">
         <v>479</v>
       </c>
-      <c r="C261" s="133"/>
-      <c r="D261" s="135"/>
+      <c r="C261" s="99"/>
+      <c r="D261" s="100"/>
     </row>
     <row r="262" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="135"/>
+      <c r="A262" s="100"/>
       <c r="B262" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="C262" s="133"/>
-      <c r="D262" s="135"/>
+      <c r="C262" s="99"/>
+      <c r="D262" s="100"/>
     </row>
     <row r="263" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="135"/>
+      <c r="A263" s="100"/>
       <c r="B263" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="C263" s="133"/>
-      <c r="D263" s="135"/>
+      <c r="C263" s="99"/>
+      <c r="D263" s="100"/>
     </row>
     <row r="264" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="135">
+      <c r="A264" s="100">
         <v>14.6</v>
       </c>
       <c r="B264" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="C264" s="133"/>
-      <c r="D264" s="135"/>
+      <c r="C264" s="99"/>
+      <c r="D264" s="100"/>
     </row>
     <row r="265" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="135"/>
+      <c r="A265" s="100"/>
       <c r="B265" s="70" t="s">
         <v>483</v>
       </c>
-      <c r="C265" s="133"/>
-      <c r="D265" s="135"/>
+      <c r="C265" s="99"/>
+      <c r="D265" s="100"/>
     </row>
     <row r="266" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="135"/>
+      <c r="A266" s="100"/>
       <c r="B266" s="70" t="s">
         <v>484</v>
       </c>
-      <c r="C266" s="133"/>
-      <c r="D266" s="135"/>
+      <c r="C266" s="99"/>
+      <c r="D266" s="100"/>
     </row>
     <row r="267" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="135"/>
+      <c r="A267" s="100"/>
       <c r="B267" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="C267" s="133"/>
-      <c r="D267" s="135"/>
+      <c r="C267" s="99"/>
+      <c r="D267" s="100"/>
     </row>
     <row r="268" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="135"/>
+      <c r="A268" s="100"/>
       <c r="B268" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="C268" s="133"/>
-      <c r="D268" s="135"/>
+      <c r="C268" s="99"/>
+      <c r="D268" s="100"/>
     </row>
     <row r="269" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="135">
+      <c r="A269" s="100">
         <v>14.7</v>
       </c>
       <c r="B269" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="C269" s="133"/>
-      <c r="D269" s="135"/>
+      <c r="C269" s="99"/>
+      <c r="D269" s="100"/>
     </row>
     <row r="270" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="135"/>
+      <c r="A270" s="100"/>
       <c r="B270" s="70" t="s">
         <v>488</v>
       </c>
-      <c r="C270" s="133"/>
-      <c r="D270" s="135"/>
+      <c r="C270" s="99"/>
+      <c r="D270" s="100"/>
     </row>
     <row r="271" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="135"/>
+      <c r="A271" s="100"/>
       <c r="B271" s="70" t="s">
         <v>489</v>
       </c>
-      <c r="C271" s="133"/>
-      <c r="D271" s="135"/>
+      <c r="C271" s="99"/>
+      <c r="D271" s="100"/>
     </row>
     <row r="272" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="135"/>
+      <c r="A272" s="100"/>
       <c r="B272" s="70" t="s">
         <v>490</v>
       </c>
-      <c r="C272" s="133"/>
-      <c r="D272" s="135"/>
+      <c r="C272" s="99"/>
+      <c r="D272" s="100"/>
     </row>
     <row r="273" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="135"/>
+      <c r="A273" s="100"/>
       <c r="B273" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="C273" s="133"/>
-      <c r="D273" s="135"/>
+      <c r="C273" s="99"/>
+      <c r="D273" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="C241:C273"/>
-    <mergeCell ref="D241:D273"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="A256:A259"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A269:A273"/>
-    <mergeCell ref="C221:C230"/>
-    <mergeCell ref="D221:D230"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="D231:D240"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="C193:C203"/>
-    <mergeCell ref="D193:D203"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="C204:C220"/>
-    <mergeCell ref="D204:D220"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="C169:C180"/>
-    <mergeCell ref="D169:D180"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="C181:C192"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="D53:D67"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
     <mergeCell ref="C79:C96"/>
     <mergeCell ref="D79:D96"/>
     <mergeCell ref="A80:A86"/>
@@ -14498,36 +14481,56 @@
     <mergeCell ref="D106:D115"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A115"/>
-    <mergeCell ref="C53:C67"/>
-    <mergeCell ref="D53:D67"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="D18:D30"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="C169:C180"/>
+    <mergeCell ref="D169:D180"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="C181:C192"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="C193:C203"/>
+    <mergeCell ref="D193:D203"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="C204:C220"/>
+    <mergeCell ref="D204:D220"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="C221:C230"/>
+    <mergeCell ref="D221:D230"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="D231:D240"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="C241:C273"/>
+    <mergeCell ref="D241:D273"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A273"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14535,75 +14538,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D57FCA-20BE-427F-885E-8F276C520C79}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>929</v>
       </c>
@@ -15291,15 +15297,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C30:C67"/>
     <mergeCell ref="D30:D67"/>
     <mergeCell ref="E30:E67"/>
@@ -15312,6 +15309,15 @@
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15403,15 +15409,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
@@ -15420,6 +15417,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15657,20 +15663,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
     <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CP_Platform_Solution_Java_v1.4.xlsx
+++ b/CP_Platform_Solution_Java_v1.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B5D36-FCB2-4E11-82EE-06DD934BEE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F99CEF8-B6A7-4B05-874E-C69F261D25D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="5" activeTab="6" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" activeTab="6" xr2:uid="{A334C00E-DF14-8E42-AC33-43AB2B07B0C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="14" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Linux, Shell Scripting and Git" sheetId="47" r:id="rId4"/>
     <sheet name="RDBMS and SQL" sheetId="48" r:id="rId5"/>
     <sheet name="Core Java with DS &amp; Algorithms" sheetId="57" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="59" r:id="rId7"/>
-    <sheet name="HTML, CSS and JavaScript" sheetId="50" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="58" r:id="rId9"/>
-    <sheet name="Angular" sheetId="51" r:id="rId10"/>
-    <sheet name="J2EE_Microservices" sheetId="55" r:id="rId11"/>
-    <sheet name="Cloud Native Java" sheetId="56" r:id="rId12"/>
-    <sheet name="EP Capstone Project Java" sheetId="36" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="60" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="59" r:id="rId8"/>
+    <sheet name="HTML, CSS and JavaScript" sheetId="50" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="58" r:id="rId10"/>
+    <sheet name="Angular" sheetId="51" r:id="rId11"/>
+    <sheet name="J2EE_Microservices" sheetId="55" r:id="rId12"/>
+    <sheet name="Cloud Native Java" sheetId="56" r:id="rId13"/>
+    <sheet name="EP Capstone Project Java" sheetId="36" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="934">
   <si>
     <t>Computer Architecture - Hardware, Network and Software</t>
   </si>
@@ -4901,30 +4902,6 @@
     <t>Core Java Programming and DS</t>
   </si>
   <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>GCP</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>VmWare</t>
-  </si>
-  <si>
     <t>Karthik</t>
   </si>
   <si>
@@ -4977,6 +4954,39 @@
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>14th Holiday</t>
+  </si>
+  <si>
+    <t>24,25, 26, 31 and 1st Holidays</t>
+  </si>
+  <si>
+    <t>7th and 8th Holidays</t>
+  </si>
+  <si>
+    <t>17th and 18th Holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st, 3rd, 4th , 10th and 11th are Holidays </t>
+  </si>
+  <si>
+    <t>Siva Sai Dhanush</t>
+  </si>
+  <si>
+    <t>Poorneshwar</t>
+  </si>
+  <si>
+    <t>Madhu Sri</t>
+  </si>
+  <si>
+    <t>Padala Manvitha</t>
   </si>
 </sst>
 </file>
@@ -4986,7 +4996,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5044,6 +5054,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5059,7 +5075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -5191,12 +5207,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5484,26 +5524,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5529,80 +5623,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5618,6 +5658,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5954,10 +6003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B64D2-6620-934C-9EB8-190715BE0096}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -5966,7 +6015,7 @@
     <col min="3" max="3" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5976,8 +6025,14 @@
       <c r="C1" s="4" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D1" s="146" t="s">
+        <v>923</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5987,8 +6042,10 @@
       <c r="C2" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -5998,8 +6055,10 @@
       <c r="C3" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -6009,8 +6068,10 @@
       <c r="C4" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -6020,8 +6081,10 @@
       <c r="C5" s="37">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -6031,14 +6094,17 @@
       <c r="C6" s="37">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>906</v>
-      </c>
-      <c r="G6" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D6" s="144">
+        <v>46009</v>
+      </c>
+      <c r="E6" s="145">
+        <v>45669</v>
+      </c>
+      <c r="F6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -6048,14 +6114,17 @@
       <c r="C7" s="37">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>907</v>
-      </c>
-      <c r="G7" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D7" s="144">
+        <v>45670</v>
+      </c>
+      <c r="E7" s="145">
+        <v>45672</v>
+      </c>
+      <c r="F7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6065,14 +6134,17 @@
       <c r="C8" s="37">
         <v>2.5</v>
       </c>
-      <c r="E8" t="s">
-        <v>909</v>
-      </c>
-      <c r="G8" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D8" s="144">
+        <v>45673</v>
+      </c>
+      <c r="E8" s="145">
+        <v>45677</v>
+      </c>
+      <c r="F8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6082,11 +6154,14 @@
       <c r="C9" s="37">
         <v>2.5</v>
       </c>
-      <c r="E9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D9" s="144">
+        <v>45677</v>
+      </c>
+      <c r="E9" s="145">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -6096,11 +6171,17 @@
       <c r="C10" s="37">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D10" s="144">
+        <v>45680</v>
+      </c>
+      <c r="E10" s="145">
+        <v>45691</v>
+      </c>
+      <c r="F10" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -6110,8 +6191,17 @@
       <c r="C11" s="37">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D11" s="144">
+        <v>45692</v>
+      </c>
+      <c r="E11" s="145">
+        <v>45698</v>
+      </c>
+      <c r="F11" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="72" t="s">
         <v>110</v>
       </c>
@@ -6134,6 +6224,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FB6529-DB70-4B55-B0C3-C4DF5410A4DC}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>56075</v>
+      </c>
+      <c r="B2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>56096</v>
+      </c>
+      <c r="B3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>56069</v>
+      </c>
+      <c r="B7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>56090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>57172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>56093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>56070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>56108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575A1EFE-9639-A34A-B929-DCC7160CFA51}">
   <dimension ref="A1:D108"/>
   <sheetViews>
@@ -7068,7 +7237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49160A3-2F9B-A449-94E9-03FD0DA0945F}">
   <dimension ref="A1:D67"/>
   <sheetViews>
@@ -7671,6 +7840,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C20:C38"/>
+    <mergeCell ref="D20:D38"/>
+    <mergeCell ref="C5:C19"/>
+    <mergeCell ref="D5:D19"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A38"/>
     <mergeCell ref="C54:C67"/>
     <mergeCell ref="D54:D67"/>
     <mergeCell ref="A55:A58"/>
@@ -7680,16 +7859,6 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A38"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C20:C38"/>
-    <mergeCell ref="D20:D38"/>
-    <mergeCell ref="C5:C19"/>
-    <mergeCell ref="D5:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7701,7 +7870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BAD8FB-3B8C-994B-8DCD-9BB9F8153F6B}">
   <dimension ref="A1:D163"/>
   <sheetViews>
@@ -9166,25 +9335,31 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="D5:D22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C23:C38"/>
-    <mergeCell ref="D23:D38"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C39:C56"/>
-    <mergeCell ref="D39:D56"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C150:C163"/>
+    <mergeCell ref="D150:D163"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C131:C149"/>
+    <mergeCell ref="D131:D149"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="C112:C130"/>
+    <mergeCell ref="D112:D130"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="C99:C111"/>
     <mergeCell ref="D99:D111"/>
     <mergeCell ref="A100:A103"/>
@@ -9201,31 +9376,25 @@
     <mergeCell ref="C82:C98"/>
     <mergeCell ref="D82:D98"/>
     <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="C150:C163"/>
-    <mergeCell ref="D150:D163"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C131:C149"/>
-    <mergeCell ref="D131:D149"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="C112:C130"/>
-    <mergeCell ref="D112:D130"/>
+    <mergeCell ref="C39:C56"/>
+    <mergeCell ref="D39:D56"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C23:C38"/>
+    <mergeCell ref="D23:D38"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="D5:D22"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -9236,7 +9405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B373DD-EDCA-E542-9F49-E8958B342CD2}">
   <dimension ref="A1:G184"/>
   <sheetViews>
@@ -11939,11 +12108,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="D45:D57"/>
     <mergeCell ref="E45:E57"/>
     <mergeCell ref="C45:C57"/>
@@ -11952,11 +12121,11 @@
     <mergeCell ref="E5:E25"/>
     <mergeCell ref="D26:D44"/>
     <mergeCell ref="E26:E44"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -11971,8 +12140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F55229-B443-49D0-8BFD-4739B86F2805}">
   <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -12026,7 +12195,7 @@
       <c r="B5" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="99" t="s">
         <v>784</v>
       </c>
       <c r="D5" s="96">
@@ -12034,105 +12203,105 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="135">
+      <c r="A6" s="101">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="134"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="136"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="136"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="97"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="136"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="44" t="s">
         <v>788</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="97"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="136"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="44" t="s">
         <v>789</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="97"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="135">
+      <c r="A11" s="101">
         <v>1.2</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>790</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="97"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="136"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="46" t="s">
         <v>791</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="97"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="136"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="46" t="s">
         <v>792</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="97"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="135">
+      <c r="A14" s="101">
         <v>1.4</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="C14" s="134"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="97"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="136"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="C15" s="134"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="97"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="136"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="97"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="137"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="134"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="97"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -12145,111 +12314,111 @@
       <c r="C18" s="84" t="s">
         <v>798</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="104">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="135">
+      <c r="A19" s="101">
         <v>2.1</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>799</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="138"/>
+      <c r="D19" s="104"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="136"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="48" t="s">
         <v>800</v>
       </c>
       <c r="C20" s="85"/>
-      <c r="D20" s="138"/>
+      <c r="D20" s="104"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="136"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="48" t="s">
         <v>801</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="138"/>
+      <c r="D21" s="104"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="137"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="48" t="s">
         <v>802</v>
       </c>
       <c r="C22" s="85"/>
-      <c r="D22" s="138"/>
+      <c r="D22" s="104"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="135">
+      <c r="A23" s="101">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>803</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="138"/>
+      <c r="D23" s="104"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="136"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="48" t="s">
         <v>804</v>
       </c>
       <c r="C24" s="85"/>
-      <c r="D24" s="138"/>
+      <c r="D24" s="104"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="136"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="48" t="s">
         <v>805</v>
       </c>
       <c r="C25" s="85"/>
-      <c r="D25" s="138"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="137"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="48" t="s">
         <v>806</v>
       </c>
       <c r="C26" s="85"/>
-      <c r="D26" s="138"/>
+      <c r="D26" s="104"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="135">
+      <c r="A27" s="101">
         <v>2.6</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>807</v>
       </c>
       <c r="C27" s="85"/>
-      <c r="D27" s="138"/>
+      <c r="D27" s="104"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="136"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="48" t="s">
         <v>808</v>
       </c>
       <c r="C28" s="85"/>
-      <c r="D28" s="138"/>
+      <c r="D28" s="104"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="136"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="48" t="s">
         <v>809</v>
       </c>
       <c r="C29" s="85"/>
-      <c r="D29" s="138"/>
+      <c r="D29" s="104"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="137"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="48" t="s">
         <v>810</v>
       </c>
       <c r="C30" s="85"/>
-      <c r="D30" s="138"/>
+      <c r="D30" s="104"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
@@ -12258,7 +12427,7 @@
       <c r="B31" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="105" t="s">
         <v>733</v>
       </c>
       <c r="D31" s="90">
@@ -12272,7 +12441,7 @@
       <c r="B32" s="47" t="s">
         <v>734</v>
       </c>
-      <c r="C32" s="126"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="91"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -12280,7 +12449,7 @@
       <c r="B33" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C33" s="126"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="91"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -12288,7 +12457,7 @@
       <c r="B34" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="91"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -12298,7 +12467,7 @@
       <c r="B35" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="C35" s="126"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="91"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -12306,7 +12475,7 @@
       <c r="B36" s="48" t="s">
         <v>738</v>
       </c>
-      <c r="C36" s="126"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="91"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -12314,7 +12483,7 @@
       <c r="B37" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C37" s="126"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="91"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -12322,7 +12491,7 @@
       <c r="B38" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="C38" s="126"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="91"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -12332,7 +12501,7 @@
       <c r="B39" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="98"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -12342,7 +12511,7 @@
       <c r="B40" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="129" t="s">
+      <c r="C40" s="108" t="s">
         <v>742</v>
       </c>
       <c r="D40" s="90">
@@ -12350,61 +12519,61 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="114">
+      <c r="A41" s="109">
         <v>4.2</v>
       </c>
       <c r="B41" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C41" s="126"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="91"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="115"/>
+      <c r="A42" s="110"/>
       <c r="B42" s="52" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="126"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="91"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="115"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="52" t="s">
         <v>745</v>
       </c>
-      <c r="C43" s="126"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="91"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="115"/>
+      <c r="A44" s="110"/>
       <c r="B44" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C44" s="126"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="115"/>
+      <c r="A45" s="110"/>
       <c r="B45" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="C45" s="126"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="115"/>
+      <c r="A46" s="110"/>
       <c r="B46" s="52" t="s">
         <v>748</v>
       </c>
-      <c r="C46" s="126"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="130"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="C47" s="126"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -12414,7 +12583,7 @@
       <c r="B48" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="126"/>
+      <c r="C48" s="106"/>
       <c r="D48" s="91"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -12424,7 +12593,7 @@
       <c r="B49" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="91"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -12434,27 +12603,27 @@
       <c r="B50" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="C50" s="129" t="s">
+      <c r="C50" s="108" t="s">
         <v>753</v>
       </c>
       <c r="D50" s="91"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="131">
+      <c r="A51" s="112">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="C51" s="126"/>
+      <c r="C51" s="106"/>
       <c r="D51" s="91"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="132"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="C52" s="127"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="98"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -12464,7 +12633,7 @@
       <c r="B53" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="C53" s="125" t="s">
+      <c r="C53" s="105" t="s">
         <v>757</v>
       </c>
       <c r="D53" s="90">
@@ -12478,7 +12647,7 @@
       <c r="B54" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="C54" s="126"/>
+      <c r="C54" s="106"/>
       <c r="D54" s="91"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -12486,7 +12655,7 @@
       <c r="B55" s="48" t="s">
         <v>759</v>
       </c>
-      <c r="C55" s="126"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="91"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -12494,7 +12663,7 @@
       <c r="B56" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="C56" s="126"/>
+      <c r="C56" s="106"/>
       <c r="D56" s="91"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -12502,7 +12671,7 @@
       <c r="B57" s="48" t="s">
         <v>761</v>
       </c>
-      <c r="C57" s="126"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="91"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -12510,7 +12679,7 @@
       <c r="B58" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="C58" s="126"/>
+      <c r="C58" s="106"/>
       <c r="D58" s="91"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -12518,7 +12687,7 @@
       <c r="B59" s="48" t="s">
         <v>763</v>
       </c>
-      <c r="C59" s="126"/>
+      <c r="C59" s="106"/>
       <c r="D59" s="91"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -12528,7 +12697,7 @@
       <c r="B60" s="47" t="s">
         <v>764</v>
       </c>
-      <c r="C60" s="126"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="91"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -12536,7 +12705,7 @@
       <c r="B61" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="C61" s="126"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="91"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -12544,7 +12713,7 @@
       <c r="B62" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="C62" s="126"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="91"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -12552,7 +12721,7 @@
       <c r="B63" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="C63" s="126"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="91"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -12562,7 +12731,7 @@
       <c r="B64" s="49" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="126"/>
+      <c r="C64" s="106"/>
       <c r="D64" s="91"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -12572,7 +12741,7 @@
       <c r="B65" s="47" t="s">
         <v>768</v>
       </c>
-      <c r="C65" s="126"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="91"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -12580,7 +12749,7 @@
       <c r="B66" s="47" t="s">
         <v>769</v>
       </c>
-      <c r="C66" s="126"/>
+      <c r="C66" s="106"/>
       <c r="D66" s="91"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -12588,7 +12757,7 @@
       <c r="B67" s="47" t="s">
         <v>770</v>
       </c>
-      <c r="C67" s="127"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="98"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -12601,7 +12770,7 @@
       <c r="C68" s="84" t="s">
         <v>772</v>
       </c>
-      <c r="D68" s="128">
+      <c r="D68" s="114">
         <v>1.5</v>
       </c>
     </row>
@@ -12613,7 +12782,7 @@
         <v>773</v>
       </c>
       <c r="C69" s="84"/>
-      <c r="D69" s="128"/>
+      <c r="D69" s="114"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="83"/>
@@ -12621,7 +12790,7 @@
         <v>774</v>
       </c>
       <c r="C70" s="84"/>
-      <c r="D70" s="128"/>
+      <c r="D70" s="114"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="83"/>
@@ -12629,7 +12798,7 @@
         <v>775</v>
       </c>
       <c r="C71" s="84"/>
-      <c r="D71" s="128"/>
+      <c r="D71" s="114"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="83">
@@ -12639,7 +12808,7 @@
         <v>776</v>
       </c>
       <c r="C72" s="84"/>
-      <c r="D72" s="128"/>
+      <c r="D72" s="114"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="83"/>
@@ -12647,7 +12816,7 @@
         <v>777</v>
       </c>
       <c r="C73" s="84"/>
-      <c r="D73" s="128"/>
+      <c r="D73" s="114"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="83"/>
@@ -12655,7 +12824,7 @@
         <v>778</v>
       </c>
       <c r="C74" s="84"/>
-      <c r="D74" s="128"/>
+      <c r="D74" s="114"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="83">
@@ -12665,7 +12834,7 @@
         <v>779</v>
       </c>
       <c r="C75" s="84"/>
-      <c r="D75" s="128"/>
+      <c r="D75" s="114"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="83"/>
@@ -12673,7 +12842,7 @@
         <v>780</v>
       </c>
       <c r="C76" s="84"/>
-      <c r="D76" s="128"/>
+      <c r="D76" s="114"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="83"/>
@@ -12681,7 +12850,7 @@
         <v>781</v>
       </c>
       <c r="C77" s="84"/>
-      <c r="D77" s="128"/>
+      <c r="D77" s="114"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="7">
@@ -12691,7 +12860,7 @@
         <v>782</v>
       </c>
       <c r="C78" s="84"/>
-      <c r="D78" s="128"/>
+      <c r="D78" s="114"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="53">
@@ -12700,338 +12869,338 @@
       <c r="B79" s="54" t="s">
         <v>811</v>
       </c>
-      <c r="C79" s="120" t="s">
+      <c r="C79" s="115" t="s">
         <v>812</v>
       </c>
-      <c r="D79" s="122">
+      <c r="D79" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="114">
+      <c r="A80" s="109">
         <v>9.1</v>
       </c>
       <c r="B80" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="C80" s="117"/>
+      <c r="C80" s="116"/>
       <c r="D80" s="119"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="115"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="C81" s="117"/>
+      <c r="C81" s="116"/>
       <c r="D81" s="119"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="115"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="56" t="s">
         <v>815</v>
       </c>
-      <c r="C82" s="117"/>
+      <c r="C82" s="116"/>
       <c r="D82" s="119"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="115"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="C83" s="117"/>
+      <c r="C83" s="116"/>
       <c r="D83" s="119"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="115"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="C84" s="117"/>
+      <c r="C84" s="116"/>
       <c r="D84" s="119"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="115"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="56" t="s">
         <v>818</v>
       </c>
-      <c r="C85" s="117"/>
+      <c r="C85" s="116"/>
       <c r="D85" s="119"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="124"/>
+      <c r="A86" s="121"/>
       <c r="B86" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="C86" s="117"/>
+      <c r="C86" s="116"/>
       <c r="D86" s="119"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="114">
+      <c r="A87" s="109">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="C87" s="117"/>
+      <c r="C87" s="116"/>
       <c r="D87" s="119"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="115"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="52" t="s">
         <v>821</v>
       </c>
-      <c r="C88" s="117"/>
+      <c r="C88" s="116"/>
       <c r="D88" s="119"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="115"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="52" t="s">
         <v>822</v>
       </c>
-      <c r="C89" s="117"/>
+      <c r="C89" s="116"/>
       <c r="D89" s="119"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="124"/>
+      <c r="A90" s="121"/>
       <c r="B90" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="C90" s="117"/>
+      <c r="C90" s="116"/>
       <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="114">
+      <c r="A91" s="109">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="C91" s="117"/>
+      <c r="C91" s="116"/>
       <c r="D91" s="119"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="115"/>
+      <c r="A92" s="110"/>
       <c r="B92" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C92" s="117"/>
+      <c r="C92" s="116"/>
       <c r="D92" s="119"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="124"/>
+      <c r="A93" s="121"/>
       <c r="B93" s="58" t="s">
         <v>825</v>
       </c>
-      <c r="C93" s="117"/>
+      <c r="C93" s="116"/>
       <c r="D93" s="119"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="114">
+      <c r="A94" s="109">
         <v>9.4</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>826</v>
       </c>
-      <c r="C94" s="117"/>
+      <c r="C94" s="116"/>
       <c r="D94" s="119"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="115"/>
+      <c r="A95" s="110"/>
       <c r="B95" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="C95" s="117"/>
+      <c r="C95" s="116"/>
       <c r="D95" s="119"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="124"/>
+      <c r="A96" s="121"/>
       <c r="B96" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="C96" s="121"/>
-      <c r="D96" s="123"/>
+      <c r="C96" s="117"/>
+      <c r="D96" s="120"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="114">
+      <c r="A97" s="109">
         <v>9.5</v>
       </c>
       <c r="B97" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="C97" s="116" t="s">
+      <c r="C97" s="123" t="s">
         <v>830</v>
       </c>
-      <c r="D97" s="118">
+      <c r="D97" s="122">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="115"/>
+      <c r="A98" s="110"/>
       <c r="B98" s="60" t="s">
         <v>831</v>
       </c>
-      <c r="C98" s="117"/>
+      <c r="C98" s="116"/>
       <c r="D98" s="119"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="115"/>
+      <c r="A99" s="110"/>
       <c r="B99" s="60" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="117"/>
+      <c r="C99" s="116"/>
       <c r="D99" s="119"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="124"/>
+      <c r="A100" s="121"/>
       <c r="B100" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="C100" s="117"/>
+      <c r="C100" s="116"/>
       <c r="D100" s="119"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="114">
+      <c r="A101" s="109">
         <v>9.6</v>
       </c>
       <c r="B101" s="59" t="s">
         <v>834</v>
       </c>
-      <c r="C101" s="117"/>
+      <c r="C101" s="116"/>
       <c r="D101" s="119"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="115"/>
+      <c r="A102" s="110"/>
       <c r="B102" s="60" t="s">
         <v>835</v>
       </c>
-      <c r="C102" s="117"/>
+      <c r="C102" s="116"/>
       <c r="D102" s="119"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="115"/>
+      <c r="A103" s="110"/>
       <c r="B103" s="60" t="s">
         <v>836</v>
       </c>
-      <c r="C103" s="117"/>
+      <c r="C103" s="116"/>
       <c r="D103" s="119"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="115"/>
+      <c r="A104" s="110"/>
       <c r="B104" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="C104" s="117"/>
+      <c r="C104" s="116"/>
       <c r="D104" s="119"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="124"/>
+      <c r="A105" s="121"/>
       <c r="B105" s="60" t="s">
         <v>838</v>
       </c>
-      <c r="C105" s="121"/>
-      <c r="D105" s="123"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="120"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="114">
+      <c r="A106" s="109">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>839</v>
       </c>
-      <c r="C106" s="116" t="s">
+      <c r="C106" s="123" t="s">
         <v>840</v>
       </c>
-      <c r="D106" s="118">
+      <c r="D106" s="122">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="115"/>
+      <c r="A107" s="110"/>
       <c r="B107" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="C107" s="117"/>
+      <c r="C107" s="116"/>
       <c r="D107" s="119"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="124"/>
+      <c r="A108" s="121"/>
       <c r="B108" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="C108" s="117"/>
+      <c r="C108" s="116"/>
       <c r="D108" s="119"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="114">
+      <c r="A109" s="109">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="C109" s="117"/>
+      <c r="C109" s="116"/>
       <c r="D109" s="119"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="115"/>
+      <c r="A110" s="110"/>
       <c r="B110" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="C110" s="117"/>
+      <c r="C110" s="116"/>
       <c r="D110" s="119"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="124"/>
+      <c r="A111" s="121"/>
       <c r="B111" s="52" t="s">
         <v>845</v>
       </c>
-      <c r="C111" s="117"/>
+      <c r="C111" s="116"/>
       <c r="D111" s="119"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="114">
+      <c r="A112" s="109">
         <v>9.9</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>846</v>
       </c>
-      <c r="C112" s="117"/>
+      <c r="C112" s="116"/>
       <c r="D112" s="119"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="115"/>
+      <c r="A113" s="110"/>
       <c r="B113" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="C113" s="117"/>
+      <c r="C113" s="116"/>
       <c r="D113" s="119"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="115"/>
+      <c r="A114" s="110"/>
       <c r="B114" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="C114" s="117"/>
+      <c r="C114" s="116"/>
       <c r="D114" s="119"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="124"/>
+      <c r="A115" s="121"/>
       <c r="B115" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="C115" s="121"/>
-      <c r="D115" s="123"/>
+      <c r="C115" s="117"/>
+      <c r="D115" s="120"/>
     </row>
     <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="118">
+      <c r="A116" s="122">
         <v>9.1</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="C116" s="116" t="s">
+      <c r="C116" s="123" t="s">
         <v>851</v>
       </c>
-      <c r="D116" s="118">
+      <c r="D116" s="122">
         <v>1</v>
       </c>
     </row>
@@ -13040,7 +13209,7 @@
       <c r="B117" s="60" t="s">
         <v>852</v>
       </c>
-      <c r="C117" s="117"/>
+      <c r="C117" s="116"/>
       <c r="D117" s="119"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -13048,7 +13217,7 @@
       <c r="B118" s="60" t="s">
         <v>853</v>
       </c>
-      <c r="C118" s="117"/>
+      <c r="C118" s="116"/>
       <c r="D118" s="119"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -13056,16 +13225,16 @@
       <c r="B119" s="60" t="s">
         <v>854</v>
       </c>
-      <c r="C119" s="117"/>
+      <c r="C119" s="116"/>
       <c r="D119" s="119"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="123"/>
+      <c r="A120" s="120"/>
       <c r="B120" s="60" t="s">
         <v>855</v>
       </c>
-      <c r="C120" s="121"/>
-      <c r="D120" s="123"/>
+      <c r="C120" s="117"/>
+      <c r="D120" s="120"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="53">
@@ -13074,370 +13243,370 @@
       <c r="B121" s="54" t="s">
         <v>856</v>
       </c>
-      <c r="C121" s="116" t="s">
+      <c r="C121" s="123" t="s">
         <v>857</v>
       </c>
-      <c r="D121" s="118">
+      <c r="D121" s="122">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="114">
+      <c r="A122" s="109">
         <v>10.1</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>858</v>
       </c>
-      <c r="C122" s="117"/>
+      <c r="C122" s="116"/>
       <c r="D122" s="119"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="115"/>
+      <c r="A123" s="110"/>
       <c r="B123" s="52" t="s">
         <v>859</v>
       </c>
-      <c r="C123" s="117"/>
+      <c r="C123" s="116"/>
       <c r="D123" s="119"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="115"/>
+      <c r="A124" s="110"/>
       <c r="B124" s="52" t="s">
         <v>860</v>
       </c>
-      <c r="C124" s="117"/>
+      <c r="C124" s="116"/>
       <c r="D124" s="119"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="115"/>
+      <c r="A125" s="110"/>
       <c r="B125" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="C125" s="117"/>
+      <c r="C125" s="116"/>
       <c r="D125" s="119"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="115"/>
+      <c r="A126" s="110"/>
       <c r="B126" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="C126" s="117"/>
+      <c r="C126" s="116"/>
       <c r="D126" s="119"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="115"/>
+      <c r="A127" s="110"/>
       <c r="B127" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="C127" s="117"/>
+      <c r="C127" s="116"/>
       <c r="D127" s="119"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="115"/>
+      <c r="A128" s="110"/>
       <c r="B128" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="C128" s="117"/>
+      <c r="C128" s="116"/>
       <c r="D128" s="119"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="115"/>
+      <c r="A129" s="110"/>
       <c r="B129" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="C129" s="117"/>
+      <c r="C129" s="116"/>
       <c r="D129" s="119"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="115"/>
+      <c r="A130" s="110"/>
       <c r="B130" s="57" t="s">
         <v>866</v>
       </c>
-      <c r="C130" s="117"/>
+      <c r="C130" s="116"/>
       <c r="D130" s="119"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="115"/>
+      <c r="A131" s="110"/>
       <c r="B131" s="57" t="s">
         <v>867</v>
       </c>
-      <c r="C131" s="117"/>
+      <c r="C131" s="116"/>
       <c r="D131" s="119"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="115"/>
+      <c r="A132" s="110"/>
       <c r="B132" s="57" t="s">
         <v>868</v>
       </c>
-      <c r="C132" s="117"/>
+      <c r="C132" s="116"/>
       <c r="D132" s="119"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="115"/>
+      <c r="A133" s="110"/>
       <c r="B133" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="C133" s="117"/>
+      <c r="C133" s="116"/>
       <c r="D133" s="119"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="115"/>
+      <c r="A134" s="110"/>
       <c r="B134" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="C134" s="117"/>
+      <c r="C134" s="116"/>
       <c r="D134" s="119"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="115"/>
+      <c r="A135" s="110"/>
       <c r="B135" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="C135" s="117"/>
+      <c r="C135" s="116"/>
       <c r="D135" s="119"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="115"/>
+      <c r="A136" s="110"/>
       <c r="B136" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="C136" s="117"/>
+      <c r="C136" s="116"/>
       <c r="D136" s="119"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="115"/>
+      <c r="A137" s="110"/>
       <c r="B137" s="57" t="s">
         <v>873</v>
       </c>
-      <c r="C137" s="117"/>
+      <c r="C137" s="116"/>
       <c r="D137" s="119"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="115"/>
+      <c r="A138" s="110"/>
       <c r="B138" s="57" t="s">
         <v>874</v>
       </c>
-      <c r="C138" s="117"/>
+      <c r="C138" s="116"/>
       <c r="D138" s="119"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="115"/>
+      <c r="A139" s="110"/>
       <c r="B139" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="C139" s="117"/>
+      <c r="C139" s="116"/>
       <c r="D139" s="119"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="115"/>
+      <c r="A140" s="110"/>
       <c r="B140" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="C140" s="117"/>
+      <c r="C140" s="116"/>
       <c r="D140" s="119"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="115"/>
+      <c r="A141" s="110"/>
       <c r="B141" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="C141" s="117"/>
+      <c r="C141" s="116"/>
       <c r="D141" s="119"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="114">
+      <c r="A142" s="109">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>878</v>
       </c>
-      <c r="C142" s="117"/>
+      <c r="C142" s="116"/>
       <c r="D142" s="119"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="115"/>
+      <c r="A143" s="110"/>
       <c r="B143" s="52" t="s">
         <v>879</v>
       </c>
-      <c r="C143" s="117"/>
+      <c r="C143" s="116"/>
       <c r="D143" s="119"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="115"/>
+      <c r="A144" s="110"/>
       <c r="B144" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="C144" s="117"/>
+      <c r="C144" s="116"/>
       <c r="D144" s="119"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="115"/>
+      <c r="A145" s="110"/>
       <c r="B145" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="C145" s="117"/>
+      <c r="C145" s="116"/>
       <c r="D145" s="119"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="115"/>
+      <c r="A146" s="110"/>
       <c r="B146" s="62" t="s">
         <v>882</v>
       </c>
-      <c r="C146" s="117"/>
+      <c r="C146" s="116"/>
       <c r="D146" s="119"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="115"/>
+      <c r="A147" s="110"/>
       <c r="B147" s="52" t="s">
         <v>883</v>
       </c>
-      <c r="C147" s="117"/>
+      <c r="C147" s="116"/>
       <c r="D147" s="119"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="115"/>
+      <c r="A148" s="110"/>
       <c r="B148" s="62" t="s">
         <v>884</v>
       </c>
-      <c r="C148" s="117"/>
+      <c r="C148" s="116"/>
       <c r="D148" s="119"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="115"/>
+      <c r="A149" s="110"/>
       <c r="B149" s="62" t="s">
         <v>885</v>
       </c>
-      <c r="C149" s="117"/>
+      <c r="C149" s="116"/>
       <c r="D149" s="119"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="115"/>
+      <c r="A150" s="110"/>
       <c r="B150" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="C150" s="117"/>
+      <c r="C150" s="116"/>
       <c r="D150" s="119"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="115"/>
+      <c r="A151" s="110"/>
       <c r="B151" s="52" t="s">
         <v>887</v>
       </c>
-      <c r="C151" s="117"/>
+      <c r="C151" s="116"/>
       <c r="D151" s="119"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="115"/>
+      <c r="A152" s="110"/>
       <c r="B152" s="62" t="s">
         <v>888</v>
       </c>
-      <c r="C152" s="117"/>
+      <c r="C152" s="116"/>
       <c r="D152" s="119"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="115"/>
+      <c r="A153" s="110"/>
       <c r="B153" s="62" t="s">
         <v>889</v>
       </c>
-      <c r="C153" s="117"/>
+      <c r="C153" s="116"/>
       <c r="D153" s="119"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="124"/>
+      <c r="A154" s="121"/>
       <c r="B154" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="C154" s="121"/>
-      <c r="D154" s="123"/>
+      <c r="C154" s="117"/>
+      <c r="D154" s="120"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="114">
+      <c r="A155" s="109">
         <v>10.3</v>
       </c>
       <c r="B155" s="61" t="s">
         <v>891</v>
       </c>
-      <c r="C155" s="116" t="s">
+      <c r="C155" s="123" t="s">
         <v>892</v>
       </c>
-      <c r="D155" s="118">
+      <c r="D155" s="122">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="115"/>
+      <c r="A156" s="110"/>
       <c r="B156" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="C156" s="117"/>
+      <c r="C156" s="116"/>
       <c r="D156" s="119"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="115"/>
+      <c r="A157" s="110"/>
       <c r="B157" s="60" t="s">
         <v>894</v>
       </c>
-      <c r="C157" s="117"/>
+      <c r="C157" s="116"/>
       <c r="D157" s="119"/>
     </row>
     <row r="158" spans="1:4" s="64" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="106">
+      <c r="A158" s="124">
         <v>10.4</v>
       </c>
       <c r="B158" s="63" t="s">
         <v>895</v>
       </c>
-      <c r="C158" s="108" t="s">
+      <c r="C158" s="126" t="s">
         <v>896</v>
       </c>
-      <c r="D158" s="110">
+      <c r="D158" s="128">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="107"/>
+      <c r="A159" s="125"/>
       <c r="B159" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="C159" s="109"/>
-      <c r="D159" s="111"/>
+      <c r="C159" s="127"/>
+      <c r="D159" s="129"/>
     </row>
     <row r="160" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="107"/>
+      <c r="A160" s="125"/>
       <c r="B160" s="65" t="s">
         <v>898</v>
       </c>
-      <c r="C160" s="109"/>
-      <c r="D160" s="111"/>
+      <c r="C160" s="127"/>
+      <c r="D160" s="129"/>
     </row>
     <row r="161" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="106">
+      <c r="A161" s="124">
         <v>10.5</v>
       </c>
       <c r="B161" s="63" t="s">
         <v>899</v>
       </c>
-      <c r="C161" s="108" t="s">
+      <c r="C161" s="126" t="s">
         <v>900</v>
       </c>
-      <c r="D161" s="110">
+      <c r="D161" s="128">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="107"/>
+      <c r="A162" s="125"/>
       <c r="B162" s="65" t="s">
         <v>901</v>
       </c>
-      <c r="C162" s="109"/>
-      <c r="D162" s="111"/>
+      <c r="C162" s="127"/>
+      <c r="D162" s="129"/>
     </row>
     <row r="163" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="107"/>
+      <c r="A163" s="125"/>
       <c r="B163" s="65" t="s">
         <v>902</v>
       </c>
-      <c r="C163" s="109"/>
-      <c r="D163" s="111"/>
+      <c r="C163" s="127"/>
+      <c r="D163" s="129"/>
     </row>
     <row r="164" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A164" s="66">
@@ -13446,10 +13615,10 @@
       <c r="B164" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="C164" s="112" t="s">
+      <c r="C164" s="130" t="s">
         <v>379</v>
       </c>
-      <c r="D164" s="113">
+      <c r="D164" s="131">
         <v>0.5</v>
       </c>
     </row>
@@ -13460,8 +13629,8 @@
       <c r="B165" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="C165" s="112"/>
-      <c r="D165" s="113"/>
+      <c r="C165" s="130"/>
+      <c r="D165" s="131"/>
     </row>
     <row r="166" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A166" s="68">
@@ -13470,26 +13639,26 @@
       <c r="B166" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="C166" s="112"/>
-      <c r="D166" s="113"/>
+      <c r="C166" s="130"/>
+      <c r="D166" s="131"/>
     </row>
     <row r="167" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="101">
+      <c r="A167" s="132">
         <v>6.3</v>
       </c>
       <c r="B167" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="C167" s="112"/>
-      <c r="D167" s="113"/>
+      <c r="C167" s="130"/>
+      <c r="D167" s="131"/>
     </row>
     <row r="168" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="101"/>
+      <c r="A168" s="132"/>
       <c r="B168" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="C168" s="112"/>
-      <c r="D168" s="113"/>
+      <c r="C168" s="130"/>
+      <c r="D168" s="131"/>
     </row>
     <row r="169" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="66">
@@ -13498,106 +13667,106 @@
       <c r="B169" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="C169" s="99" t="s">
+      <c r="C169" s="133" t="s">
         <v>385</v>
       </c>
-      <c r="D169" s="105">
+      <c r="D169" s="134">
         <v>0.75</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="101">
+      <c r="A170" s="132">
         <v>7.1</v>
       </c>
       <c r="B170" s="69" t="s">
         <v>386</v>
       </c>
-      <c r="C170" s="99"/>
-      <c r="D170" s="105"/>
+      <c r="C170" s="133"/>
+      <c r="D170" s="134"/>
     </row>
     <row r="171" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="101"/>
+      <c r="A171" s="132"/>
       <c r="B171" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="C171" s="99"/>
-      <c r="D171" s="105"/>
+      <c r="C171" s="133"/>
+      <c r="D171" s="134"/>
     </row>
     <row r="172" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="101"/>
+      <c r="A172" s="132"/>
       <c r="B172" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="C172" s="99"/>
-      <c r="D172" s="105"/>
+      <c r="C172" s="133"/>
+      <c r="D172" s="134"/>
     </row>
     <row r="173" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="101">
+      <c r="A173" s="132">
         <v>7.2</v>
       </c>
       <c r="B173" s="69" t="s">
         <v>389</v>
       </c>
-      <c r="C173" s="99"/>
-      <c r="D173" s="105"/>
+      <c r="C173" s="133"/>
+      <c r="D173" s="134"/>
     </row>
     <row r="174" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="101"/>
+      <c r="A174" s="132"/>
       <c r="B174" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="C174" s="99"/>
-      <c r="D174" s="105"/>
+      <c r="C174" s="133"/>
+      <c r="D174" s="134"/>
     </row>
     <row r="175" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="101"/>
+      <c r="A175" s="132"/>
       <c r="B175" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="C175" s="99"/>
-      <c r="D175" s="105"/>
+      <c r="C175" s="133"/>
+      <c r="D175" s="134"/>
     </row>
     <row r="176" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="101">
+      <c r="A176" s="132">
         <v>7.3</v>
       </c>
       <c r="B176" s="69" t="s">
         <v>392</v>
       </c>
-      <c r="C176" s="99"/>
-      <c r="D176" s="105"/>
+      <c r="C176" s="133"/>
+      <c r="D176" s="134"/>
     </row>
     <row r="177" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="101"/>
+      <c r="A177" s="132"/>
       <c r="B177" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="C177" s="99"/>
-      <c r="D177" s="105"/>
+      <c r="C177" s="133"/>
+      <c r="D177" s="134"/>
     </row>
     <row r="178" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="101"/>
+      <c r="A178" s="132"/>
       <c r="B178" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="C178" s="99"/>
-      <c r="D178" s="105"/>
+      <c r="C178" s="133"/>
+      <c r="D178" s="134"/>
     </row>
     <row r="179" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="101"/>
+      <c r="A179" s="132"/>
       <c r="B179" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="C179" s="99"/>
-      <c r="D179" s="105"/>
+      <c r="C179" s="133"/>
+      <c r="D179" s="134"/>
     </row>
     <row r="180" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="101"/>
+      <c r="A180" s="132"/>
       <c r="B180" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="C180" s="99"/>
-      <c r="D180" s="105"/>
+      <c r="C180" s="133"/>
+      <c r="D180" s="134"/>
     </row>
     <row r="181" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A181" s="66">
@@ -13606,82 +13775,82 @@
       <c r="B181" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="C181" s="99" t="s">
+      <c r="C181" s="133" t="s">
         <v>398</v>
       </c>
-      <c r="D181" s="100">
+      <c r="D181" s="135">
         <v>0.75</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="101">
+      <c r="A182" s="132">
         <v>8.1</v>
       </c>
       <c r="B182" s="69" t="s">
         <v>399</v>
       </c>
-      <c r="C182" s="99"/>
-      <c r="D182" s="100"/>
+      <c r="C182" s="133"/>
+      <c r="D182" s="135"/>
     </row>
     <row r="183" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="101"/>
+      <c r="A183" s="132"/>
       <c r="B183" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="C183" s="99"/>
-      <c r="D183" s="100"/>
+      <c r="C183" s="133"/>
+      <c r="D183" s="135"/>
     </row>
     <row r="184" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="101"/>
+      <c r="A184" s="132"/>
       <c r="B184" s="70" t="s">
         <v>401</v>
       </c>
-      <c r="C184" s="99"/>
-      <c r="D184" s="100"/>
+      <c r="C184" s="133"/>
+      <c r="D184" s="135"/>
     </row>
     <row r="185" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="101">
+      <c r="A185" s="132">
         <v>8.1999999999999993</v>
       </c>
       <c r="B185" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="C185" s="99"/>
-      <c r="D185" s="100"/>
+      <c r="C185" s="133"/>
+      <c r="D185" s="135"/>
     </row>
     <row r="186" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="101"/>
+      <c r="A186" s="132"/>
       <c r="B186" s="70" t="s">
         <v>403</v>
       </c>
-      <c r="C186" s="99"/>
-      <c r="D186" s="100"/>
+      <c r="C186" s="133"/>
+      <c r="D186" s="135"/>
     </row>
     <row r="187" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="101"/>
+      <c r="A187" s="132"/>
       <c r="B187" s="70" t="s">
         <v>404</v>
       </c>
-      <c r="C187" s="99"/>
-      <c r="D187" s="100"/>
+      <c r="C187" s="133"/>
+      <c r="D187" s="135"/>
     </row>
     <row r="188" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="101">
+      <c r="A188" s="132">
         <v>8.3000000000000007</v>
       </c>
       <c r="B188" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="C188" s="99"/>
-      <c r="D188" s="100"/>
+      <c r="C188" s="133"/>
+      <c r="D188" s="135"/>
     </row>
     <row r="189" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="101"/>
+      <c r="A189" s="132"/>
       <c r="B189" s="70" t="s">
         <v>903</v>
       </c>
-      <c r="C189" s="99"/>
-      <c r="D189" s="100"/>
+      <c r="C189" s="133"/>
+      <c r="D189" s="135"/>
     </row>
     <row r="190" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A190" s="66">
@@ -13690,8 +13859,8 @@
       <c r="B190" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="C190" s="99"/>
-      <c r="D190" s="100"/>
+      <c r="C190" s="133"/>
+      <c r="D190" s="135"/>
     </row>
     <row r="191" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A191" s="68">
@@ -13700,8 +13869,8 @@
       <c r="B191" s="69" t="s">
         <v>407</v>
       </c>
-      <c r="C191" s="99"/>
-      <c r="D191" s="100"/>
+      <c r="C191" s="133"/>
+      <c r="D191" s="135"/>
     </row>
     <row r="192" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A192" s="68">
@@ -13710,8 +13879,8 @@
       <c r="B192" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="C192" s="99"/>
-      <c r="D192" s="100"/>
+      <c r="C192" s="133"/>
+      <c r="D192" s="135"/>
     </row>
     <row r="193" spans="1:4" s="64" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="66">
@@ -13720,96 +13889,96 @@
       <c r="B193" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="C193" s="102" t="s">
+      <c r="C193" s="136" t="s">
         <v>410</v>
       </c>
-      <c r="D193" s="100">
+      <c r="D193" s="135">
         <v>0.75</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="101">
+      <c r="A194" s="132">
         <v>10.1</v>
       </c>
       <c r="B194" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="C194" s="103"/>
-      <c r="D194" s="100"/>
+      <c r="C194" s="137"/>
+      <c r="D194" s="135"/>
     </row>
     <row r="195" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="101"/>
+      <c r="A195" s="132"/>
       <c r="B195" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="C195" s="103"/>
-      <c r="D195" s="100"/>
+      <c r="C195" s="137"/>
+      <c r="D195" s="135"/>
     </row>
     <row r="196" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="101"/>
+      <c r="A196" s="132"/>
       <c r="B196" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="C196" s="103"/>
-      <c r="D196" s="100"/>
+      <c r="C196" s="137"/>
+      <c r="D196" s="135"/>
     </row>
     <row r="197" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="101"/>
+      <c r="A197" s="132"/>
       <c r="B197" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="C197" s="103"/>
-      <c r="D197" s="100"/>
+      <c r="C197" s="137"/>
+      <c r="D197" s="135"/>
     </row>
     <row r="198" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="101"/>
+      <c r="A198" s="132"/>
       <c r="B198" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="C198" s="103"/>
-      <c r="D198" s="100"/>
+      <c r="C198" s="137"/>
+      <c r="D198" s="135"/>
     </row>
     <row r="199" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="101">
+      <c r="A199" s="132">
         <v>10.199999999999999</v>
       </c>
       <c r="B199" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="C199" s="103"/>
-      <c r="D199" s="100"/>
+      <c r="C199" s="137"/>
+      <c r="D199" s="135"/>
     </row>
     <row r="200" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="101"/>
+      <c r="A200" s="132"/>
       <c r="B200" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="C200" s="103"/>
-      <c r="D200" s="100"/>
+      <c r="C200" s="137"/>
+      <c r="D200" s="135"/>
     </row>
     <row r="201" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="101"/>
+      <c r="A201" s="132"/>
       <c r="B201" s="70" t="s">
         <v>418</v>
       </c>
-      <c r="C201" s="103"/>
-      <c r="D201" s="100"/>
+      <c r="C201" s="137"/>
+      <c r="D201" s="135"/>
     </row>
     <row r="202" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="101"/>
+      <c r="A202" s="132"/>
       <c r="B202" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="C202" s="103"/>
-      <c r="D202" s="100"/>
+      <c r="C202" s="137"/>
+      <c r="D202" s="135"/>
     </row>
     <row r="203" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="101"/>
+      <c r="A203" s="132"/>
       <c r="B203" s="70" t="s">
         <v>420</v>
       </c>
-      <c r="C203" s="104"/>
-      <c r="D203" s="100"/>
+      <c r="C203" s="138"/>
+      <c r="D203" s="135"/>
     </row>
     <row r="204" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A204" s="66">
@@ -13818,146 +13987,146 @@
       <c r="B204" s="67" t="s">
         <v>421</v>
       </c>
-      <c r="C204" s="99" t="s">
+      <c r="C204" s="133" t="s">
         <v>422</v>
       </c>
-      <c r="D204" s="100">
+      <c r="D204" s="135">
         <v>0.5</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="101">
+      <c r="A205" s="132">
         <v>11.1</v>
       </c>
       <c r="B205" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="C205" s="99"/>
-      <c r="D205" s="100"/>
+      <c r="C205" s="133"/>
+      <c r="D205" s="135"/>
     </row>
     <row r="206" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="101"/>
+      <c r="A206" s="132"/>
       <c r="B206" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="C206" s="99"/>
-      <c r="D206" s="100"/>
+      <c r="C206" s="133"/>
+      <c r="D206" s="135"/>
     </row>
     <row r="207" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="101"/>
+      <c r="A207" s="132"/>
       <c r="B207" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="C207" s="99"/>
-      <c r="D207" s="100"/>
+      <c r="C207" s="133"/>
+      <c r="D207" s="135"/>
     </row>
     <row r="208" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="101"/>
+      <c r="A208" s="132"/>
       <c r="B208" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="C208" s="99"/>
-      <c r="D208" s="100"/>
+      <c r="C208" s="133"/>
+      <c r="D208" s="135"/>
     </row>
     <row r="209" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="101"/>
+      <c r="A209" s="132"/>
       <c r="B209" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="C209" s="99"/>
-      <c r="D209" s="100"/>
+      <c r="C209" s="133"/>
+      <c r="D209" s="135"/>
     </row>
     <row r="210" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="101">
+      <c r="A210" s="132">
         <v>11.2</v>
       </c>
       <c r="B210" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="C210" s="99"/>
-      <c r="D210" s="100"/>
+      <c r="C210" s="133"/>
+      <c r="D210" s="135"/>
     </row>
     <row r="211" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="101"/>
+      <c r="A211" s="132"/>
       <c r="B211" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="C211" s="99"/>
-      <c r="D211" s="100"/>
+      <c r="C211" s="133"/>
+      <c r="D211" s="135"/>
     </row>
     <row r="212" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="101"/>
+      <c r="A212" s="132"/>
       <c r="B212" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="C212" s="99"/>
-      <c r="D212" s="100"/>
+      <c r="C212" s="133"/>
+      <c r="D212" s="135"/>
     </row>
     <row r="213" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="101"/>
+      <c r="A213" s="132"/>
       <c r="B213" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="C213" s="99"/>
-      <c r="D213" s="100"/>
+      <c r="C213" s="133"/>
+      <c r="D213" s="135"/>
     </row>
     <row r="214" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="101"/>
+      <c r="A214" s="132"/>
       <c r="B214" s="70" t="s">
         <v>432</v>
       </c>
-      <c r="C214" s="99"/>
-      <c r="D214" s="100"/>
+      <c r="C214" s="133"/>
+      <c r="D214" s="135"/>
     </row>
     <row r="215" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="101"/>
+      <c r="A215" s="132"/>
       <c r="B215" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="C215" s="99"/>
-      <c r="D215" s="100"/>
+      <c r="C215" s="133"/>
+      <c r="D215" s="135"/>
     </row>
     <row r="216" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="101">
+      <c r="A216" s="132">
         <v>11.3</v>
       </c>
       <c r="B216" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="C216" s="99"/>
-      <c r="D216" s="100"/>
+      <c r="C216" s="133"/>
+      <c r="D216" s="135"/>
     </row>
     <row r="217" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="101"/>
+      <c r="A217" s="132"/>
       <c r="B217" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="C217" s="99"/>
-      <c r="D217" s="100"/>
+      <c r="C217" s="133"/>
+      <c r="D217" s="135"/>
     </row>
     <row r="218" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="101"/>
+      <c r="A218" s="132"/>
       <c r="B218" s="70" t="s">
         <v>436</v>
       </c>
-      <c r="C218" s="99"/>
-      <c r="D218" s="100"/>
+      <c r="C218" s="133"/>
+      <c r="D218" s="135"/>
     </row>
     <row r="219" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="101"/>
+      <c r="A219" s="132"/>
       <c r="B219" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="C219" s="99"/>
-      <c r="D219" s="100"/>
+      <c r="C219" s="133"/>
+      <c r="D219" s="135"/>
     </row>
     <row r="220" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="101"/>
+      <c r="A220" s="132"/>
       <c r="B220" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="C220" s="99"/>
-      <c r="D220" s="100"/>
+      <c r="C220" s="133"/>
+      <c r="D220" s="135"/>
     </row>
     <row r="221" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="66">
@@ -13966,90 +14135,90 @@
       <c r="B221" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="C221" s="99" t="s">
+      <c r="C221" s="133" t="s">
         <v>440</v>
       </c>
-      <c r="D221" s="100">
+      <c r="D221" s="135">
         <v>0.25</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="101">
+      <c r="A222" s="132">
         <v>12.1</v>
       </c>
       <c r="B222" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="C222" s="99"/>
-      <c r="D222" s="100"/>
+      <c r="C222" s="133"/>
+      <c r="D222" s="135"/>
     </row>
     <row r="223" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="101"/>
+      <c r="A223" s="132"/>
       <c r="B223" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="C223" s="99"/>
-      <c r="D223" s="100"/>
+      <c r="C223" s="133"/>
+      <c r="D223" s="135"/>
     </row>
     <row r="224" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="101"/>
+      <c r="A224" s="132"/>
       <c r="B224" s="70" t="s">
         <v>443</v>
       </c>
-      <c r="C224" s="99"/>
-      <c r="D224" s="100"/>
+      <c r="C224" s="133"/>
+      <c r="D224" s="135"/>
     </row>
     <row r="225" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="101">
+      <c r="A225" s="132">
         <v>12.2</v>
       </c>
       <c r="B225" s="69" t="s">
         <v>444</v>
       </c>
-      <c r="C225" s="99"/>
-      <c r="D225" s="100"/>
+      <c r="C225" s="133"/>
+      <c r="D225" s="135"/>
     </row>
     <row r="226" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="101"/>
+      <c r="A226" s="132"/>
       <c r="B226" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="C226" s="99"/>
-      <c r="D226" s="100"/>
+      <c r="C226" s="133"/>
+      <c r="D226" s="135"/>
     </row>
     <row r="227" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="101"/>
+      <c r="A227" s="132"/>
       <c r="B227" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="C227" s="99"/>
-      <c r="D227" s="100"/>
+      <c r="C227" s="133"/>
+      <c r="D227" s="135"/>
     </row>
     <row r="228" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="101">
+      <c r="A228" s="132">
         <v>12.3</v>
       </c>
       <c r="B228" s="69" t="s">
         <v>447</v>
       </c>
-      <c r="C228" s="99"/>
-      <c r="D228" s="100"/>
+      <c r="C228" s="133"/>
+      <c r="D228" s="135"/>
     </row>
     <row r="229" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="101"/>
+      <c r="A229" s="132"/>
       <c r="B229" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="C229" s="99"/>
-      <c r="D229" s="100"/>
+      <c r="C229" s="133"/>
+      <c r="D229" s="135"/>
     </row>
     <row r="230" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="101"/>
+      <c r="A230" s="132"/>
       <c r="B230" s="70" t="s">
         <v>449</v>
       </c>
-      <c r="C230" s="99"/>
-      <c r="D230" s="100"/>
+      <c r="C230" s="133"/>
+      <c r="D230" s="135"/>
     </row>
     <row r="231" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A231" s="66">
@@ -14058,90 +14227,90 @@
       <c r="B231" s="67" t="s">
         <v>450</v>
       </c>
-      <c r="C231" s="99" t="s">
+      <c r="C231" s="133" t="s">
         <v>451</v>
       </c>
-      <c r="D231" s="100">
+      <c r="D231" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="101">
+      <c r="A232" s="132">
         <v>13.1</v>
       </c>
       <c r="B232" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C232" s="99"/>
-      <c r="D232" s="100"/>
+      <c r="C232" s="133"/>
+      <c r="D232" s="135"/>
     </row>
     <row r="233" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="101"/>
+      <c r="A233" s="132"/>
       <c r="B233" s="70" t="s">
         <v>452</v>
       </c>
-      <c r="C233" s="99"/>
-      <c r="D233" s="100"/>
+      <c r="C233" s="133"/>
+      <c r="D233" s="135"/>
     </row>
     <row r="234" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="101"/>
+      <c r="A234" s="132"/>
       <c r="B234" s="71" t="s">
         <v>453</v>
       </c>
-      <c r="C234" s="99"/>
-      <c r="D234" s="100"/>
+      <c r="C234" s="133"/>
+      <c r="D234" s="135"/>
     </row>
     <row r="235" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="101">
+      <c r="A235" s="132">
         <v>13.2</v>
       </c>
       <c r="B235" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C235" s="99"/>
-      <c r="D235" s="100"/>
+      <c r="C235" s="133"/>
+      <c r="D235" s="135"/>
     </row>
     <row r="236" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="101"/>
+      <c r="A236" s="132"/>
       <c r="B236" s="70" t="s">
         <v>454</v>
       </c>
-      <c r="C236" s="99"/>
-      <c r="D236" s="100"/>
+      <c r="C236" s="133"/>
+      <c r="D236" s="135"/>
     </row>
     <row r="237" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="101"/>
+      <c r="A237" s="132"/>
       <c r="B237" s="71" t="s">
         <v>455</v>
       </c>
-      <c r="C237" s="99"/>
-      <c r="D237" s="100"/>
+      <c r="C237" s="133"/>
+      <c r="D237" s="135"/>
     </row>
     <row r="238" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="101">
+      <c r="A238" s="132">
         <v>13.3</v>
       </c>
       <c r="B238" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C238" s="99"/>
-      <c r="D238" s="100"/>
+      <c r="C238" s="133"/>
+      <c r="D238" s="135"/>
     </row>
     <row r="239" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="101"/>
+      <c r="A239" s="132"/>
       <c r="B239" s="70" t="s">
         <v>456</v>
       </c>
-      <c r="C239" s="99"/>
-      <c r="D239" s="100"/>
+      <c r="C239" s="133"/>
+      <c r="D239" s="135"/>
     </row>
     <row r="240" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="101"/>
+      <c r="A240" s="132"/>
       <c r="B240" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="C240" s="99"/>
-      <c r="D240" s="100"/>
+      <c r="C240" s="133"/>
+      <c r="D240" s="135"/>
     </row>
     <row r="241" spans="1:4" s="64" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="66">
@@ -14150,315 +14319,335 @@
       <c r="B241" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="C241" s="99" t="s">
+      <c r="C241" s="133" t="s">
         <v>459</v>
       </c>
-      <c r="D241" s="100">
+      <c r="D241" s="135">
         <v>0.5</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="101">
+      <c r="A242" s="132">
         <v>14.1</v>
       </c>
       <c r="B242" s="69" t="s">
         <v>460</v>
       </c>
-      <c r="C242" s="99"/>
-      <c r="D242" s="100"/>
+      <c r="C242" s="133"/>
+      <c r="D242" s="135"/>
     </row>
     <row r="243" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="101"/>
+      <c r="A243" s="132"/>
       <c r="B243" s="70" t="s">
         <v>461</v>
       </c>
-      <c r="C243" s="99"/>
-      <c r="D243" s="100"/>
+      <c r="C243" s="133"/>
+      <c r="D243" s="135"/>
     </row>
     <row r="244" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="101"/>
+      <c r="A244" s="132"/>
       <c r="B244" s="70" t="s">
         <v>462</v>
       </c>
-      <c r="C244" s="99"/>
-      <c r="D244" s="100"/>
+      <c r="C244" s="133"/>
+      <c r="D244" s="135"/>
     </row>
     <row r="245" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="101"/>
+      <c r="A245" s="132"/>
       <c r="B245" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="C245" s="99"/>
-      <c r="D245" s="100"/>
+      <c r="C245" s="133"/>
+      <c r="D245" s="135"/>
     </row>
     <row r="246" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="101">
+      <c r="A246" s="132">
         <v>14.2</v>
       </c>
       <c r="B246" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="C246" s="99"/>
-      <c r="D246" s="100"/>
+      <c r="C246" s="133"/>
+      <c r="D246" s="135"/>
     </row>
     <row r="247" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="101"/>
+      <c r="A247" s="132"/>
       <c r="B247" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="C247" s="99"/>
-      <c r="D247" s="100"/>
+      <c r="C247" s="133"/>
+      <c r="D247" s="135"/>
     </row>
     <row r="248" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="101"/>
+      <c r="A248" s="132"/>
       <c r="B248" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="C248" s="99"/>
-      <c r="D248" s="100"/>
+      <c r="C248" s="133"/>
+      <c r="D248" s="135"/>
     </row>
     <row r="249" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="101"/>
+      <c r="A249" s="132"/>
       <c r="B249" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="C249" s="99"/>
-      <c r="D249" s="100"/>
+      <c r="C249" s="133"/>
+      <c r="D249" s="135"/>
     </row>
     <row r="250" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="101"/>
+      <c r="A250" s="132"/>
       <c r="B250" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="C250" s="99"/>
-      <c r="D250" s="100"/>
+      <c r="C250" s="133"/>
+      <c r="D250" s="135"/>
     </row>
     <row r="251" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="101">
+      <c r="A251" s="132">
         <v>14.3</v>
       </c>
       <c r="B251" s="69" t="s">
         <v>469</v>
       </c>
-      <c r="C251" s="99"/>
-      <c r="D251" s="100"/>
+      <c r="C251" s="133"/>
+      <c r="D251" s="135"/>
     </row>
     <row r="252" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="101"/>
+      <c r="A252" s="132"/>
       <c r="B252" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="C252" s="99"/>
-      <c r="D252" s="100"/>
+      <c r="C252" s="133"/>
+      <c r="D252" s="135"/>
     </row>
     <row r="253" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="101"/>
+      <c r="A253" s="132"/>
       <c r="B253" s="70" t="s">
         <v>471</v>
       </c>
-      <c r="C253" s="99"/>
-      <c r="D253" s="100"/>
+      <c r="C253" s="133"/>
+      <c r="D253" s="135"/>
     </row>
     <row r="254" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="101"/>
+      <c r="A254" s="132"/>
       <c r="B254" s="70" t="s">
         <v>472</v>
       </c>
-      <c r="C254" s="99"/>
-      <c r="D254" s="100"/>
+      <c r="C254" s="133"/>
+      <c r="D254" s="135"/>
     </row>
     <row r="255" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="101"/>
+      <c r="A255" s="132"/>
       <c r="B255" s="70" t="s">
         <v>473</v>
       </c>
-      <c r="C255" s="99"/>
-      <c r="D255" s="100"/>
+      <c r="C255" s="133"/>
+      <c r="D255" s="135"/>
     </row>
     <row r="256" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="101">
+      <c r="A256" s="132">
         <v>14.4</v>
       </c>
       <c r="B256" s="69" t="s">
         <v>474</v>
       </c>
-      <c r="C256" s="99"/>
-      <c r="D256" s="100"/>
+      <c r="C256" s="133"/>
+      <c r="D256" s="135"/>
     </row>
     <row r="257" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="101"/>
+      <c r="A257" s="132"/>
       <c r="B257" s="70" t="s">
         <v>475</v>
       </c>
-      <c r="C257" s="99"/>
-      <c r="D257" s="100"/>
+      <c r="C257" s="133"/>
+      <c r="D257" s="135"/>
     </row>
     <row r="258" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="101"/>
+      <c r="A258" s="132"/>
       <c r="B258" s="70" t="s">
         <v>476</v>
       </c>
-      <c r="C258" s="99"/>
-      <c r="D258" s="100"/>
+      <c r="C258" s="133"/>
+      <c r="D258" s="135"/>
     </row>
     <row r="259" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="101"/>
+      <c r="A259" s="132"/>
       <c r="B259" s="70" t="s">
         <v>477</v>
       </c>
-      <c r="C259" s="99"/>
-      <c r="D259" s="100"/>
+      <c r="C259" s="133"/>
+      <c r="D259" s="135"/>
     </row>
     <row r="260" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="100">
+      <c r="A260" s="135">
         <v>14.5</v>
       </c>
       <c r="B260" s="69" t="s">
         <v>478</v>
       </c>
-      <c r="C260" s="99"/>
-      <c r="D260" s="100"/>
+      <c r="C260" s="133"/>
+      <c r="D260" s="135"/>
     </row>
     <row r="261" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="100"/>
+      <c r="A261" s="135"/>
       <c r="B261" s="70" t="s">
         <v>479</v>
       </c>
-      <c r="C261" s="99"/>
-      <c r="D261" s="100"/>
+      <c r="C261" s="133"/>
+      <c r="D261" s="135"/>
     </row>
     <row r="262" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="100"/>
+      <c r="A262" s="135"/>
       <c r="B262" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="C262" s="99"/>
-      <c r="D262" s="100"/>
+      <c r="C262" s="133"/>
+      <c r="D262" s="135"/>
     </row>
     <row r="263" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="100"/>
+      <c r="A263" s="135"/>
       <c r="B263" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="C263" s="99"/>
-      <c r="D263" s="100"/>
+      <c r="C263" s="133"/>
+      <c r="D263" s="135"/>
     </row>
     <row r="264" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="100">
+      <c r="A264" s="135">
         <v>14.6</v>
       </c>
       <c r="B264" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="C264" s="99"/>
-      <c r="D264" s="100"/>
+      <c r="C264" s="133"/>
+      <c r="D264" s="135"/>
     </row>
     <row r="265" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="100"/>
+      <c r="A265" s="135"/>
       <c r="B265" s="70" t="s">
         <v>483</v>
       </c>
-      <c r="C265" s="99"/>
-      <c r="D265" s="100"/>
+      <c r="C265" s="133"/>
+      <c r="D265" s="135"/>
     </row>
     <row r="266" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="100"/>
+      <c r="A266" s="135"/>
       <c r="B266" s="70" t="s">
         <v>484</v>
       </c>
-      <c r="C266" s="99"/>
-      <c r="D266" s="100"/>
+      <c r="C266" s="133"/>
+      <c r="D266" s="135"/>
     </row>
     <row r="267" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="100"/>
+      <c r="A267" s="135"/>
       <c r="B267" s="70" t="s">
         <v>485</v>
       </c>
-      <c r="C267" s="99"/>
-      <c r="D267" s="100"/>
+      <c r="C267" s="133"/>
+      <c r="D267" s="135"/>
     </row>
     <row r="268" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="100"/>
+      <c r="A268" s="135"/>
       <c r="B268" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="C268" s="99"/>
-      <c r="D268" s="100"/>
+      <c r="C268" s="133"/>
+      <c r="D268" s="135"/>
     </row>
     <row r="269" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="100">
+      <c r="A269" s="135">
         <v>14.7</v>
       </c>
       <c r="B269" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="C269" s="99"/>
-      <c r="D269" s="100"/>
+      <c r="C269" s="133"/>
+      <c r="D269" s="135"/>
     </row>
     <row r="270" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="100"/>
+      <c r="A270" s="135"/>
       <c r="B270" s="70" t="s">
         <v>488</v>
       </c>
-      <c r="C270" s="99"/>
-      <c r="D270" s="100"/>
+      <c r="C270" s="133"/>
+      <c r="D270" s="135"/>
     </row>
     <row r="271" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="100"/>
+      <c r="A271" s="135"/>
       <c r="B271" s="70" t="s">
         <v>489</v>
       </c>
-      <c r="C271" s="99"/>
-      <c r="D271" s="100"/>
+      <c r="C271" s="133"/>
+      <c r="D271" s="135"/>
     </row>
     <row r="272" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="100"/>
+      <c r="A272" s="135"/>
       <c r="B272" s="70" t="s">
         <v>490</v>
       </c>
-      <c r="C272" s="99"/>
-      <c r="D272" s="100"/>
+      <c r="C272" s="133"/>
+      <c r="D272" s="135"/>
     </row>
     <row r="273" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="100"/>
+      <c r="A273" s="135"/>
       <c r="B273" s="70" t="s">
         <v>491</v>
       </c>
-      <c r="C273" s="99"/>
-      <c r="D273" s="100"/>
+      <c r="C273" s="133"/>
+      <c r="D273" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="D5:D17"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="D18:D30"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C53:C67"/>
-    <mergeCell ref="D53:D67"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C241:C273"/>
+    <mergeCell ref="D241:D273"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="C221:C230"/>
+    <mergeCell ref="D221:D230"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="D231:D240"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="C193:C203"/>
+    <mergeCell ref="D193:D203"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="C204:C220"/>
+    <mergeCell ref="D204:D220"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="C169:C180"/>
+    <mergeCell ref="D169:D180"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="C181:C192"/>
+    <mergeCell ref="D181:D192"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="D164:D168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
     <mergeCell ref="C79:C96"/>
     <mergeCell ref="D79:D96"/>
     <mergeCell ref="A80:A86"/>
@@ -14481,137 +14670,164 @@
     <mergeCell ref="D106:D115"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="D164:D168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="C169:C180"/>
-    <mergeCell ref="D169:D180"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A180"/>
-    <mergeCell ref="C181:C192"/>
-    <mergeCell ref="D181:D192"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="C193:C203"/>
-    <mergeCell ref="D193:D203"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="C204:C220"/>
-    <mergeCell ref="D204:D220"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="C221:C230"/>
-    <mergeCell ref="D221:D230"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="D231:D240"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="C241:C273"/>
-    <mergeCell ref="D241:D273"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="A246:A250"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="A256:A259"/>
-    <mergeCell ref="A260:A263"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="C53:C67"/>
+    <mergeCell ref="D53:D67"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="D68:D78"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="D5:D17"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B14C9DE-5251-44AE-BE37-D551813F5E59}">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>58664</v>
+      </c>
+      <c r="B3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>56107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>58855</v>
+      </c>
+      <c r="B5" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>58679</v>
+      </c>
+      <c r="B6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D57FCA-20BE-427F-885E-8F276C520C79}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C7" t="s">
         <v>922</v>
-      </c>
-      <c r="C7" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -14619,7 +14835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38829B80-404C-CA44-94F4-94A873A0BC4D}">
   <dimension ref="A1:E67"/>
   <sheetViews>
@@ -15297,6 +15513,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="E5:E29"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C30:C67"/>
     <mergeCell ref="D30:D67"/>
     <mergeCell ref="E30:E67"/>
@@ -15309,15 +15534,6 @@
     <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
     <mergeCell ref="A64:A67"/>
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="E5:E29"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -15329,86 +15545,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FB6529-DB70-4B55-B0C3-C4DF5410A4DC}">
-  <dimension ref="A2:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>56075</v>
-      </c>
-      <c r="B2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>56096</v>
-      </c>
-      <c r="B3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>56069</v>
-      </c>
-      <c r="B7" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>56090</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>57172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>56093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>56070</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>56108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad" xsi:nil="true"/>
@@ -15417,15 +15563,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15663,20 +15800,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ECC4560-073C-4308-94D4-982EADCACA0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0a2ccfb7-4253-4103-bb4d-66c5ddba3bad"/>
     <ds:schemaRef ds:uri="52ef429a-33cb-47a2-9df9-548aca62905c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B686C8-01C4-4E84-A6C3-20F1529B3B54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
